--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB53E6DE-4AD5-4CC4-B8BC-87C99D212998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D37B8AF-6482-4584-9218-5BD3D67A26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="3" r:id="rId3"/>
     <sheet name="Balance Sheet $" sheetId="4" r:id="rId4"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="538">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -71,39 +71,18 @@
     <t xml:space="preserve">    Interest Income (TE)</t>
   </si>
   <si>
-    <t xml:space="preserve">     - Interest Expense</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Net Interest Income (TE)</t>
   </si>
   <si>
-    <t xml:space="preserve">     + Noninterest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     - Noninterest Expense</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Pre-Provision Net Revenue (TE)</t>
   </si>
   <si>
-    <t xml:space="preserve">     - Provision: Loan &amp; Lease Losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     - Provision: Credit Loss Oth Assets</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">      Pretax Operating Income (TE)</t>
   </si>
   <si>
-    <t xml:space="preserve">     + Realized Gains/Losses Sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     + Unrealized Gains / Losses Equity Sec</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Pretax Net Operating Income (TE)</t>
   </si>
   <si>
@@ -1659,6 +1638,30 @@
   </si>
   <si>
     <t xml:space="preserve">    Total Risk-Weighted Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Interest Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Noninterest Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Noninterest Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Provision: Loan &amp; Lease Losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Provision: Credit Loss Oth Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Realized Gains/Losses Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unrealized Gains / Losses Equity Sec</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1707,9 +1710,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2025,82 +2025,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DBFA4-F090-4C2E-9B15-26BB86612E8F}">
-  <dimension ref="A2:AG573"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="21" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="3"/>
-    <col min="24" max="24" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="3"/>
-    <col min="33" max="33" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="3"/>
-    <col min="36" max="36" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
         <v>44926</v>
       </c>
+      <c r="D2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44742</v>
+      </c>
       <c r="F2" s="2">
         <v>44742</v>
       </c>
+      <c r="G2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44561</v>
+      </c>
       <c r="I2" s="2">
         <v>44561</v>
       </c>
+      <c r="J2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44377</v>
+      </c>
       <c r="L2" s="2">
         <v>44377</v>
       </c>
+      <c r="M2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44196</v>
+      </c>
       <c r="O2" s="2">
         <v>44196</v>
       </c>
+      <c r="P2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44012</v>
+      </c>
       <c r="R2" s="2">
         <v>44012</v>
       </c>
+      <c r="S2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43830</v>
+      </c>
       <c r="U2" s="2">
         <v>43830</v>
       </c>
+      <c r="V2" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43646</v>
+      </c>
       <c r="X2" s="2">
         <v>43646</v>
       </c>
+      <c r="Y2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA2" s="2">
         <v>43465</v>
       </c>
+      <c r="AB2" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD2" s="2">
+        <v>43281</v>
+      </c>
+      <c r="AE2" s="2">
         <v>43281</v>
       </c>
     </row>
@@ -2203,6 +2288,36 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2301,7 +2416,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="B6" s="3">
         <v>0.51</v>
@@ -2396,7 +2511,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>2.15</v>
@@ -2491,7 +2606,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="B8" s="3">
         <v>0.59</v>
@@ -2586,7 +2701,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>532</v>
       </c>
       <c r="B9" s="3">
         <v>1.27</v>
@@ -2681,7 +2796,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>1.47</v>
@@ -2776,7 +2891,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="B11" s="3">
         <v>0.13</v>
@@ -2871,7 +2986,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>534</v>
       </c>
       <c r="B12" s="3">
         <v>0.06</v>
@@ -2928,45 +3043,45 @@
         <v>74</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>1.27</v>
@@ -3061,7 +3176,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="B14" s="3">
         <v>0.01</v>
@@ -3156,7 +3271,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>536</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -3251,7 +3366,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>1.28</v>
@@ -3346,7 +3461,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>0.94</v>
@@ -3441,7 +3556,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -3536,7 +3651,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>0.94</v>
@@ -3631,7 +3746,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>0.94</v>
@@ -3724,14 +3839,77 @@
         <v>78</v>
       </c>
     </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
         <v>97.68</v>
@@ -3826,7 +4004,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
         <v>84.88</v>
@@ -3921,7 +4099,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>2.72</v>
@@ -4016,7 +4194,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>0.52</v>
@@ -4111,7 +4289,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
         <v>2.2000000000000002</v>
@@ -4204,14 +4382,77 @@
         <v>44</v>
       </c>
     </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3">
         <v>0.1</v>
@@ -4306,7 +4547,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
         <v>42.15</v>
@@ -4401,7 +4642,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3">
         <v>0.86</v>
@@ -4496,7 +4737,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3">
         <v>8.9600000000000009</v>
@@ -4591,7 +4832,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3">
         <v>4.78</v>
@@ -4686,7 +4927,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3">
         <v>0.14000000000000001</v>
@@ -4781,7 +5022,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3">
         <v>0.19</v>
@@ -4876,7 +5117,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3">
         <v>0.19</v>
@@ -4969,14 +5210,77 @@
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+    </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3">
         <v>9.34</v>
@@ -5071,7 +5375,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3">
         <v>35.22</v>
@@ -5166,7 +5470,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3">
         <v>41.97</v>
@@ -5259,14 +5563,77 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+    </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3">
         <v>7.9626000000000001</v>
@@ -5361,7 +5728,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3">
         <v>16.050699999999999</v>
@@ -5456,7 +5823,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3">
         <v>14.53</v>
@@ -5551,7 +5918,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3">
         <v>0.79</v>
@@ -5644,14 +6011,77 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+    </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3">
         <v>0.21</v>
@@ -5746,7 +6176,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3">
         <v>16.23</v>
@@ -5841,7 +6271,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3">
         <v>11.79</v>
@@ -5936,7 +6366,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3">
         <v>8.68</v>
@@ -6031,7 +6461,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B55" s="4">
         <v>1171.4000000000001</v>
@@ -6124,242 +6554,236 @@
         <v>97</v>
       </c>
     </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="5">
         <v>214666750</v>
       </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="5">
         <v>215207000</v>
       </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="5">
         <v>163362694</v>
       </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="5">
         <v>135562493</v>
       </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="5">
         <v>83751084</v>
       </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="5">
         <v>73654074</v>
       </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
       <c r="U57" s="5">
         <v>61827081</v>
       </c>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
       <c r="X57" s="5">
         <v>57809657</v>
       </c>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
       <c r="AA57" s="5">
         <v>54520639</v>
       </c>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
       <c r="AD57" s="5">
         <v>52733613</v>
       </c>
+      <c r="AE57" s="3"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="5">
         <v>2024000</v>
       </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="5">
         <v>1018000</v>
       </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="5">
         <v>1294000</v>
       </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
       <c r="L58" s="5">
         <v>586950</v>
       </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="5">
         <v>826243</v>
       </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="5">
         <v>322990</v>
       </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
       <c r="U58" s="5">
         <v>1036618</v>
       </c>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
       <c r="X58" s="5">
         <v>535341</v>
       </c>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
       <c r="AA58" s="5">
         <v>933641</v>
       </c>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
       <c r="AD58" s="5">
         <v>414946</v>
       </c>
+      <c r="AE58" s="3"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3">
         <v>31</v>
       </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="3">
         <v>31</v>
       </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3">
         <v>30</v>
       </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="3">
         <v>28</v>
       </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
       <c r="O60" s="3">
         <v>29</v>
       </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="3">
         <v>101</v>
       </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
       <c r="U60" s="3">
         <v>94</v>
       </c>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
       <c r="X60" s="3">
         <v>93</v>
       </c>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
       <c r="AA60" s="3">
         <v>92</v>
       </c>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
       <c r="AD60" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="13:28" x14ac:dyDescent="0.25">
-      <c r="M65" s="6"/>
-      <c r="AB65" s="6"/>
-    </row>
-    <row r="133" spans="13:28" x14ac:dyDescent="0.25">
-      <c r="M133" s="6"/>
-      <c r="AB133" s="6"/>
-    </row>
-    <row r="204" spans="13:33" x14ac:dyDescent="0.25">
-      <c r="M204" s="6"/>
-      <c r="AB204" s="6"/>
-    </row>
-    <row r="207" spans="13:33" x14ac:dyDescent="0.25">
-      <c r="AG207" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="541" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE541" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE543" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="544" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE544" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="545" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE545" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="547" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE547" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="548" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE548" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="549" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE549" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="551" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE551" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="552" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE552" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE554" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="555" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE555" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="557" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE557" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="558" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE558" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="559" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE559" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="560" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE560" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="561" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE561" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="563" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE563" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="566" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE566" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="567" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE567" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="568" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE568" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="571" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE571" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="572" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE572" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="573" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE573" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6462,7 +6886,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -6554,7 +6978,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6588,7 +7012,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B5" s="3">
         <v>4.76</v>
@@ -6680,7 +7104,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -6772,7 +7196,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B7" s="3">
         <v>22.88</v>
@@ -6864,7 +7288,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6898,7 +7322,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B9" s="3">
         <v>13.43</v>
@@ -6990,7 +7414,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B10" s="3">
         <v>1.95</v>
@@ -7082,7 +7506,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B11" s="3">
         <v>11.48</v>
@@ -7174,7 +7598,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7208,7 +7632,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B13" s="3">
         <v>14.53</v>
@@ -7300,7 +7724,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B14" s="3">
         <v>7.39</v>
@@ -7392,7 +7816,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7426,7 +7850,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B16" s="3">
         <v>4.47</v>
@@ -7518,7 +7942,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B17" s="3">
         <v>4.25</v>
@@ -7610,7 +8034,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7644,7 +8068,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -7736,7 +8160,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B20" s="3">
         <v>1.3</v>
@@ -7828,91 +8252,91 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD21" s="3">
         <v>0</v>
@@ -7920,91 +8344,91 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -8012,7 +8436,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B23" s="3">
         <v>1.84</v>
@@ -8136,7 +8560,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>7.9626000000000001</v>
@@ -8260,7 +8684,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8294,7 +8718,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B28" s="3">
         <v>15.2639</v>
@@ -8386,7 +8810,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B29" s="3">
         <v>15.2639</v>
@@ -8478,7 +8902,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B30" s="3">
         <v>16.050699999999999</v>
@@ -8602,7 +9026,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8636,91 +9060,91 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3">
         <v>20.149999999999999</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3">
         <v>19.670000000000002</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3">
         <v>21.2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L33" s="3">
         <v>20.58</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O33" s="3">
         <v>20.010000000000002</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R33" s="3">
         <v>53.78</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U33" s="3">
         <v>44.77</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X33" s="3">
         <v>43.43</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA33" s="3">
         <v>37.770000000000003</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD33" s="3">
         <v>35.54</v>
@@ -8728,91 +9152,91 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
         <v>20.170000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F34" s="3">
         <v>19.690000000000001</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I34" s="3">
         <v>21.22</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L34" s="3">
         <v>20.6</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O34" s="3">
         <v>20.03</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R34" s="3">
         <v>53.78</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U34" s="3">
         <v>44.77</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X34" s="3">
         <v>43.43</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA34" s="3">
         <v>37.770000000000003</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD34" s="3">
         <v>35.54</v>
@@ -8820,91 +9244,91 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3">
         <v>21.04</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
         <v>20.47</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3">
         <v>22.05</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L35" s="3">
         <v>21.5</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O35" s="3">
         <v>21.02</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R35" s="3">
         <v>54.7</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U35" s="3">
         <v>45.36</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X35" s="3">
         <v>44.05</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA35" s="3">
         <v>38.6</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD35" s="3">
         <v>36.44</v>
@@ -8944,7 +9368,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8978,7 +9402,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -9032,7 +9456,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="5">
@@ -9086,7 +9510,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="5">
@@ -9140,7 +9564,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="5">
@@ -9194,7 +9618,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5">
@@ -9248,7 +9672,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
@@ -9302,7 +9726,7 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="5">
@@ -9356,7 +9780,7 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
@@ -9410,7 +9834,7 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="5">
@@ -9496,7 +9920,7 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3">
@@ -9582,7 +10006,7 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9616,7 +10040,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="5">
@@ -9670,7 +10094,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="5">
@@ -9724,7 +10148,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="5">
@@ -9778,7 +10202,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3">
@@ -9832,7 +10256,7 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
@@ -9886,7 +10310,7 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="5">
@@ -9940,7 +10364,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="5">
@@ -9994,7 +10418,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="5">
@@ -10048,7 +10472,7 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="5">
@@ -10134,7 +10558,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10168,7 +10592,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
@@ -10222,115 +10646,115 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="5">
@@ -10384,7 +10808,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="5">
@@ -10470,7 +10894,7 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -10504,7 +10928,7 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="5">
@@ -10558,7 +10982,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="5">
@@ -10612,7 +11036,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3">
@@ -10666,7 +11090,7 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="5">
@@ -10782,7 +11206,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -10798,7 +11222,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -10814,7 +11238,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5">
@@ -10850,7 +11274,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="5">
@@ -10886,7 +11310,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -10922,7 +11346,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -10958,7 +11382,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -11008,7 +11432,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -11024,7 +11448,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
@@ -11060,7 +11484,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="5">
@@ -11096,7 +11520,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5">
@@ -11132,7 +11556,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5">
@@ -11168,43 +11592,43 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -11240,26 +11664,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -11276,7 +11700,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="5">
@@ -11312,26 +11736,26 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -11348,26 +11772,26 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -11384,7 +11808,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -11420,7 +11844,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -11456,7 +11880,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -11492,7 +11916,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="5">
@@ -11542,7 +11966,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11558,7 +11982,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
@@ -11594,7 +12018,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
@@ -11630,7 +12054,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
@@ -11666,7 +12090,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
@@ -11702,7 +12126,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -11738,7 +12162,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -11788,7 +12212,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="5">
@@ -11838,7 +12262,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -11854,7 +12278,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -11890,7 +12314,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -11926,7 +12350,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -11962,7 +12386,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="5">
@@ -11998,79 +12422,79 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="5">
@@ -12106,43 +12530,43 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -12192,7 +12616,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="5">
@@ -12228,43 +12652,43 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="5">
@@ -12300,38 +12724,38 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -12397,7 +12821,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12413,7 +12837,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12429,7 +12853,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -12465,7 +12889,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -12501,7 +12925,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -12537,7 +12961,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -12573,7 +12997,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -12609,7 +13033,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -12645,7 +13069,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
@@ -12667,21 +13091,21 @@
         <v>1085</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -12717,7 +13141,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -12753,7 +13177,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -12789,7 +13213,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -12825,7 +13249,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5">
@@ -12861,7 +13285,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -12897,7 +13321,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
@@ -12933,7 +13357,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="5">
@@ -12969,7 +13393,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="5">
@@ -13019,7 +13443,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13035,7 +13459,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="5">
@@ -13071,7 +13495,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -13107,7 +13531,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
@@ -13143,7 +13567,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="5">
@@ -13179,7 +13603,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="5">
@@ -13215,7 +13639,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="5">
@@ -13251,7 +13675,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
@@ -13287,7 +13711,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
@@ -13323,7 +13747,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
@@ -13359,7 +13783,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -13395,7 +13819,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -13431,7 +13855,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -13467,7 +13891,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
@@ -13503,7 +13927,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
@@ -13539,7 +13963,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="5">
@@ -13575,7 +13999,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="5">
@@ -13625,7 +14049,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -13675,7 +14099,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5">
@@ -13711,7 +14135,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
@@ -13747,7 +14171,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -13783,7 +14207,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5">
@@ -13833,7 +14257,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="5">
@@ -13883,7 +14307,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -13899,7 +14323,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="5">
@@ -13935,7 +14359,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="5">
@@ -13971,7 +14395,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="5">
@@ -14007,7 +14431,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="5">
@@ -14043,7 +14467,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="5">
@@ -14079,7 +14503,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
@@ -14175,7 +14599,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -14190,7 +14614,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -14205,42 +14629,42 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B6" s="5">
         <v>136000</v>
@@ -14275,7 +14699,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B7" s="5">
         <v>260000</v>
@@ -14310,42 +14734,42 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B9" s="5">
         <v>16995000</v>
@@ -14393,7 +14817,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -14408,77 +14832,77 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B14" s="5">
         <v>876000</v>
@@ -14513,77 +14937,77 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B17" s="5">
         <v>876000</v>
@@ -14631,7 +15055,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -14646,7 +15070,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B20" s="5">
         <v>17871000</v>
@@ -14681,77 +15105,77 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B23" s="5">
         <v>17871000</v>
@@ -14799,7 +15223,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -14814,7 +15238,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -14829,7 +15253,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B27" s="5">
         <v>15750200</v>
@@ -14864,7 +15288,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B28" s="5">
         <v>4666500</v>
@@ -14899,7 +15323,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B29" s="5">
         <v>68948000</v>
@@ -14934,7 +15358,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B30" s="5">
         <v>89598200</v>
@@ -14969,7 +15393,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B31" s="5">
         <v>53952000</v>
@@ -15017,7 +15441,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -15032,7 +15456,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B34" s="5">
         <v>479400</v>
@@ -15067,7 +15491,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B35" s="5">
         <v>33500</v>
@@ -15102,7 +15526,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B36" s="5">
         <v>21227000</v>
@@ -15137,7 +15561,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B37" s="5">
         <v>21741500</v>
@@ -15172,7 +15596,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B38" s="5">
         <v>1548000</v>
@@ -15220,7 +15644,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -15235,7 +15659,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B41" s="5">
         <v>111341000</v>
@@ -15270,7 +15694,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -15305,7 +15729,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -15340,42 +15764,42 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B45" s="5">
         <v>111341000</v>
@@ -15417,7 +15841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A519C861-CBF7-4D33-A248-D3BCFA6AD66B}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -15464,7 +15888,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15500,12 +15924,12 @@
         <v>43281</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5">
         <v>3208000</v>
@@ -15543,7 +15967,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -15576,12 +16000,12 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -15619,7 +16043,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -15657,7 +16081,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5">
         <v>3208000</v>
@@ -15709,7 +16133,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5">
         <v>244000</v>
@@ -15747,7 +16171,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
         <v>1840000</v>
@@ -15785,7 +16209,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5">
         <v>27646</v>
@@ -15823,7 +16247,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5">
         <v>169000</v>
@@ -15861,7 +16285,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5">
         <v>140000</v>
@@ -15899,7 +16323,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5">
         <v>2280646</v>
@@ -15951,7 +16375,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5">
         <v>205000</v>
@@ -15989,7 +16413,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5">
         <v>4000</v>
@@ -16027,7 +16451,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -16060,12 +16484,12 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5">
         <v>11000</v>
@@ -16117,7 +16541,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5">
         <v>5708646</v>
@@ -16169,7 +16593,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5">
         <v>68000</v>
@@ -16207,7 +16631,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5">
         <v>794000</v>
@@ -16245,7 +16669,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B26" s="5">
         <v>59000</v>
@@ -16283,7 +16707,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5">
         <v>176000</v>
@@ -16321,7 +16745,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -16354,45 +16778,45 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16411,7 +16835,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5">
         <v>1097000</v>
@@ -16463,7 +16887,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5">
         <v>4611646</v>
@@ -16501,7 +16925,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5">
         <v>1267000</v>
@@ -16539,7 +16963,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5">
         <v>5878646</v>
@@ -16591,7 +17015,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5">
         <v>2729000</v>
@@ -16629,7 +17053,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5">
         <v>3149646</v>
@@ -16667,7 +17091,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B39" s="5">
         <v>287000</v>
@@ -16705,7 +17129,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B40" s="5">
         <v>133000</v>
@@ -16726,24 +17150,24 @@
         <v>48</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5">
         <v>2729646</v>
@@ -16795,7 +17219,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -16828,12 +17252,12 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B44" s="5">
         <v>21000</v>
@@ -16871,7 +17295,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B45" s="5">
         <v>4000</v>
@@ -16909,7 +17333,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5">
         <v>2754646</v>
@@ -16961,7 +17385,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B48" s="5">
         <v>703000</v>
@@ -16999,7 +17423,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B49" s="5">
         <v>27646</v>
@@ -17037,7 +17461,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -17070,12 +17494,12 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5">
         <v>730646</v>
@@ -17127,7 +17551,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B53" s="5">
         <v>2024000</v>
@@ -17179,7 +17603,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -17212,12 +17636,12 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -17250,12 +17674,12 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5">
         <v>2024000</v>
@@ -17307,7 +17731,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B59" s="5">
         <v>294000</v>
@@ -17345,7 +17769,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B60" s="5">
         <v>1730000</v>
@@ -17383,7 +17807,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -17421,7 +17845,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B62" s="5">
         <v>14000</v>
@@ -17654,7 +18078,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -17749,7 +18173,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3">
         <v>4.57</v>
@@ -17844,7 +18268,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3">
         <v>4.5999999999999996</v>
@@ -17939,7 +18363,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3">
         <v>2.87</v>
@@ -18034,7 +18458,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3">
         <v>2.52</v>
@@ -18129,7 +18553,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3">
         <v>3.72</v>
@@ -18224,7 +18648,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3">
         <v>6.66</v>
@@ -18319,7 +18743,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3">
         <v>4.16</v>
@@ -18414,25 +18838,25 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <v>12.89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>11.07</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -18509,34 +18933,34 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>4.5199999999999996</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>3.74</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3">
         <v>3.77</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3">
         <v>3.8</v>
@@ -18604,7 +19028,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" s="3">
         <v>4.2699999999999996</v>
@@ -18699,7 +19123,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3">
         <v>1.84</v>
@@ -18794,7 +19218,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B17" s="3">
         <v>1.82</v>
@@ -18889,7 +19313,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3">
         <v>1.34</v>
@@ -18984,7 +19408,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B19" s="3">
         <v>1.89</v>
@@ -19079,7 +19503,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3">
         <v>1.96</v>
@@ -19174,7 +19598,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3">
         <v>1.44</v>
@@ -19269,7 +19693,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3">
         <v>1.4</v>
@@ -19364,7 +19788,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3">
         <v>0.49</v>
@@ -19459,7 +19883,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3">
         <v>1.48</v>
@@ -19554,7 +19978,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3">
         <v>0.47</v>
@@ -19649,7 +20073,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3">
         <v>2.15</v>
@@ -19744,7 +20168,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3">
         <v>0.65</v>
@@ -19872,7 +20296,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3">
         <v>1.8</v>
@@ -19902,13 +20326,13 @@
         <v>41</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L29" s="3">
         <v>0.06</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N29" s="3">
         <v>1.56</v>
@@ -19967,7 +20391,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3">
         <v>3.91</v>
@@ -20062,197 +20486,197 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
         <v>4.04</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
         <v>3.26</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I31" s="3">
         <v>3.09</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L31" s="3">
         <v>3.01</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O31" s="3">
         <v>3.25</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R31" s="3">
         <v>4.18</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U31" s="3">
         <v>4.8499999999999996</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X31" s="3">
         <v>5.38</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA31" s="3">
         <v>5.27</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD31" s="3">
         <v>5.07</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3">
         <v>0.6</v>
@@ -20380,7 +20804,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B35" s="3">
         <v>2.2599999999999998</v>
@@ -20508,7 +20932,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -20543,7 +20967,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3">
         <v>32.729999999999997</v>
@@ -20638,7 +21062,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3">
         <v>29.41</v>
@@ -20733,7 +21157,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3">
         <v>5.59</v>
@@ -20828,7 +21252,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3">
         <v>3.92</v>
@@ -20923,7 +21347,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3">
         <v>1.67</v>
@@ -21018,7 +21442,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B43" s="3">
         <v>7.38</v>
@@ -21113,7 +21537,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3">
         <v>0.24</v>
@@ -21208,7 +21632,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -21303,7 +21727,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -21398,7 +21822,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3">
         <v>3.32</v>
@@ -21493,7 +21917,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3">
         <v>57.82</v>
@@ -21588,7 +22012,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3">
         <v>8.4700000000000006</v>
@@ -21683,7 +22107,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B50" s="3">
         <v>45.34</v>
@@ -21778,7 +22202,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B51" s="3">
         <v>4.01</v>
@@ -21873,7 +22297,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B52" s="3">
         <v>6.63</v>
@@ -21968,7 +22392,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B53" s="3">
         <v>0.13</v>
@@ -22063,7 +22487,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3">
         <v>81.260000000000005</v>
@@ -22158,7 +22582,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3">
         <v>0.66</v>
@@ -22253,7 +22677,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B56" s="3">
         <v>75.39</v>
@@ -22348,7 +22772,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B57" s="3">
         <v>0.32</v>
@@ -22443,7 +22867,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B58" s="3">
         <v>4.8899999999999997</v>
@@ -22571,7 +22995,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B60" s="3">
         <v>1.53</v>
@@ -22666,7 +23090,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B61" s="3">
         <v>2.1</v>
@@ -22761,7 +23185,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -22856,7 +23280,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3">
         <v>2.1</v>
@@ -22951,7 +23375,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B64" s="3">
         <v>84.88</v>
@@ -23079,7 +23503,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B66" s="3">
         <v>0.28999999999999998</v>
@@ -23231,15 +23655,15 @@
         <v>43281</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -23256,7 +23680,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5">
         <v>12741000</v>
@@ -23297,7 +23721,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5">
         <v>19094000</v>
@@ -23338,7 +23762,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5">
         <v>516000</v>
@@ -23379,7 +23803,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5">
         <v>1000</v>
@@ -23420,7 +23844,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B8" s="5">
         <v>41897000</v>
@@ -23461,7 +23885,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5">
         <v>636000</v>
@@ -23502,7 +23926,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -23543,7 +23967,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5">
         <v>73613000</v>
@@ -23584,7 +24008,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="5">
         <v>92156000</v>
@@ -23625,7 +24049,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5">
         <v>7417000</v>
@@ -23666,7 +24090,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B14" s="5">
         <v>1088000</v>
@@ -23707,7 +24131,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B15" s="5">
         <v>16642000</v>
@@ -23748,7 +24172,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" s="5">
         <v>6000</v>
@@ -23769,27 +24193,27 @@
         <v>222</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L16" s="3">
         <v>-3.48</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5">
         <v>11319000</v>
@@ -23830,7 +24254,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5">
         <v>707000</v>
@@ -23871,7 +24295,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B19" s="5">
         <v>127000</v>
@@ -23912,7 +24336,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5">
         <v>129456000</v>
@@ -23953,7 +24377,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5">
         <v>203069000</v>
@@ -24009,7 +24433,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B23" s="5">
         <v>1192000</v>
@@ -24050,7 +24474,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B24" s="5">
         <v>170000</v>
@@ -24091,7 +24515,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -24124,15 +24548,15 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B26" s="5">
         <v>1341000</v>
@@ -24165,15 +24589,15 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B27" s="5">
         <v>153000</v>
@@ -24214,7 +24638,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5">
         <v>3107000</v>
@@ -24255,7 +24679,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B29" s="5">
         <v>209026000</v>
@@ -24296,7 +24720,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B30" s="5">
         <v>213773000</v>
@@ -24352,7 +24776,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -24369,7 +24793,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B33" s="5">
         <v>10432000</v>
@@ -24410,7 +24834,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B34" s="5">
         <v>55000</v>
@@ -24451,7 +24875,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B35" s="5">
         <v>149444000</v>
@@ -24492,7 +24916,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5">
         <v>79000</v>
@@ -24533,7 +24957,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B37" s="5">
         <v>65000</v>
@@ -24574,7 +24998,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -24607,15 +25031,15 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B39" s="5">
         <v>160075000</v>
@@ -24656,7 +25080,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -24689,15 +25113,15 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5">
         <v>1404000</v>
@@ -24738,7 +25162,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B42" s="5">
         <v>13899000</v>
@@ -24779,7 +25203,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B43" s="5">
         <v>175378000</v>
@@ -24820,7 +25244,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B44" s="5">
         <v>524000</v>
@@ -24856,12 +25280,12 @@
         <v>-100</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B45" s="5">
         <v>15000000</v>
@@ -24897,12 +25321,12 @@
         <v>-100</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -24935,15 +25359,15 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B47" s="5">
         <v>40000</v>
@@ -24984,7 +25408,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B48" s="5">
         <v>332000</v>
@@ -25025,7 +25449,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -25058,15 +25482,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B50" s="5">
         <v>2296000</v>
@@ -25107,7 +25531,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B51" s="5">
         <v>193570000</v>
@@ -25148,7 +25572,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B52" s="5">
         <v>15456000</v>
@@ -25189,7 +25613,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B53" s="5">
         <v>209026000</v>
@@ -25245,7 +25669,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -25262,7 +25686,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
@@ -25299,7 +25723,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B57" s="5">
         <v>219000</v>
@@ -25340,7 +25764,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B58" s="5">
         <v>91327000</v>
@@ -25381,7 +25805,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B59" s="5">
         <v>25976000</v>
@@ -25422,7 +25846,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -25455,15 +25879,15 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B61" s="5">
         <v>7878000</v>
@@ -25504,7 +25928,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -25537,15 +25961,15 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B63" s="5">
         <v>74249000</v>
@@ -25722,7 +26146,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -25818,7 +26242,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -25914,7 +26338,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3">
         <v>33.31</v>
@@ -26010,7 +26434,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3">
         <v>0.24</v>
@@ -26106,7 +26530,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B8" s="3">
         <v>33.07</v>
@@ -26236,7 +26660,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3">
         <v>6.11</v>
@@ -26332,7 +26756,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3">
         <v>0.25</v>
@@ -26428,7 +26852,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3">
         <v>0.1</v>
@@ -26524,7 +26948,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B13" s="3">
         <v>45.14</v>
@@ -26620,7 +27044,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -26677,46 +27101,46 @@
         <v>71</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B15" s="3">
         <v>12.46</v>
@@ -26812,7 +27236,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -26942,7 +27366,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B18" s="3">
         <v>97.13</v>
@@ -27072,7 +27496,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3">
         <v>0.75</v>
@@ -27168,7 +27592,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B21" s="3">
         <v>0.08</v>
@@ -27264,7 +27688,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -27360,7 +27784,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3">
         <v>0.54</v>
@@ -27456,7 +27880,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B24" s="3">
         <v>7.0000000000000007E-2</v>
@@ -27552,7 +27976,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B25" s="3">
         <v>1.43</v>
@@ -27648,7 +28072,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B26" s="3">
         <v>2.87</v>
@@ -27744,7 +28168,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B27" s="3">
         <v>100</v>
@@ -27874,7 +28298,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B29" s="3">
         <v>1.78</v>
@@ -28004,7 +28428,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -28040,7 +28464,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B32" s="3">
         <v>4.22</v>
@@ -28136,7 +28560,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B33" s="3">
         <v>0.03</v>
@@ -28232,7 +28656,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B34" s="3">
         <v>75.63</v>
@@ -28328,7 +28752,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B35" s="3">
         <v>1.0900000000000001</v>
@@ -28424,7 +28848,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B36" s="3">
         <v>0.04</v>
@@ -28520,7 +28944,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -28616,7 +29040,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B38" s="3">
         <v>81</v>
@@ -28712,7 +29136,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -28808,7 +29232,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B40" s="3">
         <v>0.32</v>
@@ -28904,7 +29328,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B41" s="3">
         <v>7.21</v>
@@ -29000,7 +29424,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B42" s="3">
         <v>88.54</v>
@@ -29130,7 +29554,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B44" s="3">
         <v>7.0000000000000007E-2</v>
@@ -29226,7 +29650,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B45" s="3">
         <v>3.03</v>
@@ -29322,7 +29746,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B46" s="3">
         <v>0.2</v>
@@ -29418,7 +29842,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B47" s="3">
         <v>4.87</v>
@@ -29548,7 +29972,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -29644,7 +30068,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B50" s="3">
         <v>1.05</v>
@@ -29740,7 +30164,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B51" s="3">
         <v>92.88</v>
@@ -29870,7 +30294,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3">
         <v>7.12</v>
@@ -29966,7 +30390,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B54" s="3">
         <v>100</v>
@@ -30096,7 +30520,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -30192,7 +30616,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -30322,7 +30746,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -30519,7 +30943,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -30614,7 +31038,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3">
         <v>72.5</v>
@@ -30709,7 +31133,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3">
         <v>2.41</v>
@@ -30804,7 +31228,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3">
         <v>0.24</v>
@@ -30899,7 +31323,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B7" s="3">
         <v>2.17</v>
@@ -30994,7 +31418,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3">
         <v>4.7699999999999996</v>
@@ -31089,7 +31513,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B9" s="3">
         <v>51.8</v>
@@ -31184,7 +31608,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3">
         <v>0.95</v>
@@ -31279,7 +31703,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B11" s="3">
         <v>50.77</v>
@@ -31374,7 +31798,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B12" s="3">
         <v>0.08</v>
@@ -31469,7 +31893,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B13" s="3">
         <v>3.58</v>
@@ -31564,7 +31988,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B14" s="3">
         <v>9.94</v>
@@ -31659,7 +32083,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B15" s="3">
         <v>2.3199999999999998</v>
@@ -31754,7 +32178,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B16" s="3">
         <v>7.62</v>
@@ -31849,7 +32273,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -31977,7 +32401,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -32072,7 +32496,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3">
         <v>0.01</v>
@@ -32167,7 +32591,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B21" s="3">
         <v>108.66</v>
@@ -32262,7 +32686,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B22" s="3">
         <v>2.94</v>
@@ -32357,7 +32781,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -32452,7 +32876,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -32547,7 +32971,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B25" s="3">
         <v>4.8899999999999997</v>
@@ -32642,7 +33066,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B26" s="3">
         <v>233.53</v>
@@ -32737,7 +33161,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -32832,7 +33256,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -32927,7 +33351,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -33022,7 +33446,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -33150,7 +33574,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -33185,7 +33609,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B33" s="3">
         <v>0.14000000000000001</v>
@@ -33280,7 +33704,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B34" s="3">
         <v>44.83</v>
@@ -33408,7 +33832,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -33443,7 +33867,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B37" s="3">
         <v>13.75</v>
@@ -33538,7 +33962,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B38" s="3">
         <v>953.03</v>
@@ -33633,7 +34057,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B39" s="3">
         <v>16.07</v>
@@ -33761,7 +34185,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -33796,7 +34220,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B42" s="3">
         <v>0.56999999999999995</v>
@@ -33891,7 +34315,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B43" s="3">
         <v>3.25</v>
@@ -33986,7 +34410,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B44" s="3">
         <v>3.8</v>
@@ -34183,7 +34607,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -34279,7 +34703,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B3" s="3">
         <v>35.020000000000003</v>
@@ -34375,7 +34799,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3">
         <v>23.79</v>
@@ -34471,7 +34895,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B5" s="3">
         <v>9.9700000000000006</v>
@@ -34601,7 +35025,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3">
         <v>43.56</v>
@@ -34697,7 +35121,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B8" s="3">
         <v>1.52</v>
@@ -34793,7 +35217,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B9" s="3">
         <v>4.1399999999999997</v>
@@ -34889,7 +35313,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3">
         <v>25.31</v>
@@ -35019,7 +35443,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B12" s="3">
         <v>12.99</v>
@@ -35115,7 +35539,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B13" s="3">
         <v>12.5</v>
@@ -35245,7 +35669,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -35341,7 +35765,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -35437,7 +35861,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -35567,7 +35991,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -35603,7 +36027,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B20" s="3">
         <v>12.43</v>
@@ -35699,7 +36123,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B21" s="3">
         <v>43.69</v>
@@ -35795,7 +36219,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B22" s="3">
         <v>30.38</v>
@@ -35925,7 +36349,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B24" s="3">
         <v>-7.25</v>
@@ -36021,7 +36445,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B25" s="3">
         <v>-89.2</v>
@@ -36151,7 +36575,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -36187,7 +36611,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B28" s="3">
         <v>54.92</v>
@@ -36283,7 +36707,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -36379,7 +36803,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B30" s="3">
         <v>54.92</v>
@@ -36509,7 +36933,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B32" s="3">
         <v>61.66</v>
@@ -36605,7 +37029,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -36701,7 +37125,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B34" s="3">
         <v>61.66</v>
@@ -36831,7 +37255,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B36" s="3">
         <v>76.55</v>
@@ -36927,7 +37351,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B37" s="3">
         <v>139.38</v>
@@ -37023,7 +37447,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B38" s="3">
         <v>-21.63</v>
@@ -37153,7 +37577,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -37189,7 +37613,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -37285,7 +37709,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -37381,7 +37805,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -37577,7 +38001,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -37673,7 +38097,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B4" s="3">
         <v>99.92</v>
@@ -37769,7 +38193,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B5" s="3">
         <v>7.0000000000000007E-2</v>
@@ -37865,7 +38289,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -37961,7 +38385,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -38057,7 +38481,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -38153,7 +38577,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B9" s="3">
         <v>100</v>
@@ -38283,7 +38707,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B11" s="3">
         <v>5.95</v>
@@ -38379,7 +38803,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B12" s="3">
         <v>0.03</v>
@@ -38475,7 +38899,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B13" s="3">
         <v>86.1</v>
@@ -38571,7 +38995,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B14" s="3">
         <v>92.07</v>
@@ -38667,7 +39091,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B15" s="3">
         <v>7.93</v>
@@ -38763,7 +39187,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B16" s="3">
         <v>100</v>
@@ -38893,7 +39317,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -38929,7 +39353,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B19" s="3">
         <v>9.34</v>
@@ -39025,7 +39449,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B20" s="3">
         <v>76.58</v>
@@ -39121,7 +39545,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
         <v>10.61</v>
@@ -39217,7 +39641,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B22" s="3">
         <v>59.23</v>
@@ -39313,7 +39737,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B23" s="3">
         <v>252.07</v>
@@ -39409,7 +39833,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B24" s="3">
         <v>-16.190000000000001</v>
@@ -39505,7 +39929,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
         <v>41.97</v>
@@ -39601,7 +40025,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B26" s="3">
         <v>45.99</v>
@@ -39697,103 +40121,103 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
         <v>75.37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>70.03</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I27" s="3">
         <v>70.88</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L27" s="3">
         <v>85.66</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O27" s="3">
         <v>85.49</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R27" s="3">
         <v>85.35</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U27" s="3">
         <v>80.84</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X27" s="3">
         <v>83.89</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA27" s="3">
         <v>84.93</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD27" s="3">
         <v>83.58</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -39889,7 +40313,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -39985,7 +40409,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -40081,7 +40505,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B31" s="3">
         <v>0.27</v>
@@ -40177,97 +40601,97 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R32" s="3">
         <v>0.39</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U32" s="3">
         <v>0.39</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X32" s="3">
         <v>0.41</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA32" s="3">
         <v>3.07</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD32" s="3">
         <v>5.31</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AF32" s="3"/>
     </row>
@@ -40307,7 +40731,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -40343,7 +40767,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="5">
@@ -40399,7 +40823,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="5">
@@ -40455,7 +40879,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="5">
@@ -40511,7 +40935,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -40567,7 +40991,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -40623,7 +41047,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="5">
@@ -40713,7 +41137,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5">
@@ -40769,7 +41193,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="5">
@@ -40825,7 +41249,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="5">
@@ -40881,7 +41305,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5">
@@ -40937,7 +41361,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="5">
@@ -40993,7 +41417,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="5">
@@ -41083,7 +41507,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -41119,7 +41543,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="5">
@@ -41175,7 +41599,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="5">
@@ -41231,7 +41655,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="5">
@@ -41287,7 +41711,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="5">
@@ -41343,7 +41767,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="5">
@@ -41399,7 +41823,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="5">
@@ -41455,7 +41879,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="5">
@@ -41511,7 +41935,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="5">
@@ -41567,7 +41991,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3">
@@ -41623,7 +42047,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="5">
@@ -41679,7 +42103,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="5">
@@ -41735,7 +42159,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="5">
@@ -41791,7 +42215,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
@@ -41847,7 +42271,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3">
@@ -41903,7 +42327,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3">
@@ -41959,7 +42383,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
@@ -42015,7 +42439,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3">
@@ -42173,7 +42597,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -42269,7 +42693,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>6.29</v>
@@ -42365,7 +42789,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -42461,7 +42885,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B6" s="3">
         <v>37.03</v>
@@ -42557,7 +42981,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B7" s="3">
         <v>29.08</v>
@@ -42687,7 +43111,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -42723,7 +43147,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -42759,7 +43183,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B11" s="3">
         <v>14.18</v>
@@ -42855,7 +43279,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B12" s="3">
         <v>6.32</v>
@@ -42951,7 +43375,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B13" s="3">
         <v>54.82</v>
@@ -43047,7 +43471,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B14" s="3">
         <v>9.56</v>
@@ -43143,7 +43567,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B15" s="3">
         <v>13.58</v>
@@ -43239,7 +43663,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -43335,7 +43759,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -43431,7 +43855,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B18" s="3">
         <v>0.6</v>
@@ -43527,7 +43951,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B19" s="3">
         <v>0.93</v>
@@ -43623,7 +44047,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -43719,7 +44143,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B21" s="3">
         <v>100</v>
@@ -43849,7 +44273,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -43885,7 +44309,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -43981,7 +44405,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B25" s="3">
         <v>-8.86</v>
@@ -44077,7 +44501,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B26" s="3">
         <v>-16.600000000000001</v>
@@ -44173,7 +44597,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B27" s="3">
         <v>-98.08</v>
@@ -44269,7 +44693,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B28" s="3">
         <v>47.19</v>
@@ -44365,7 +44789,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B29" s="3">
         <v>7.3</v>
@@ -44461,7 +44885,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -44591,7 +45015,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="5">
@@ -44647,7 +45071,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="5">
@@ -44703,7 +45127,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -44759,7 +45183,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
@@ -44815,7 +45239,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
@@ -44871,7 +45295,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="5">
@@ -44927,7 +45351,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="5">
@@ -44983,7 +45407,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">

--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Desktop\University\IDMP\IDMP_Submissions\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D37B8AF-6482-4584-9218-5BD3D67A26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BED85B-B598-44FF-A474-9BAF7F0845C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="538">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -2026,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A2:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,1289 +2061,1194 @@
     <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>44926</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>44926</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>44926</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>44742</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>44742</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>44742</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <v>44561</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <v>44561</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="2">
         <v>44561</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <v>44377</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="2">
         <v>44377</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="2">
         <v>44377</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N3" s="2">
         <v>44196</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O3" s="2">
         <v>44196</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>44196</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>44012</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R3" s="2">
         <v>44012</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S3" s="2">
         <v>44012</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T3" s="2">
         <v>43830</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U3" s="2">
         <v>43830</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V3" s="2">
         <v>43830</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W3" s="2">
         <v>43646</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X3" s="2">
         <v>43646</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y3" s="2">
         <v>43646</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z3" s="2">
         <v>43465</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA3" s="2">
         <v>43465</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB3" s="2">
         <v>43465</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC3" s="2">
         <v>43281</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD3" s="2">
         <v>43281</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE3" s="2">
         <v>43281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.66</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.88</v>
-      </c>
-      <c r="D5" s="3">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="M5" s="3">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3">
-        <v>2.69</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.54</v>
-      </c>
-      <c r="P5" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>2.98</v>
-      </c>
-      <c r="R5" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="S5" s="3">
-        <v>14</v>
-      </c>
-      <c r="T5" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="U5" s="3">
-        <v>4.03</v>
-      </c>
-      <c r="V5" s="3">
-        <v>22</v>
-      </c>
-      <c r="W5" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="X5" s="3">
-        <v>4.12</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>3.96</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>3.83</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.51</v>
+        <v>2.66</v>
       </c>
       <c r="C6" s="3">
-        <v>0.54</v>
+        <v>2.88</v>
       </c>
       <c r="D6" s="3">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1</v>
+        <v>2.25</v>
       </c>
       <c r="F6" s="3">
-        <v>0.16</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G6" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3">
-        <v>0.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I6" s="3">
-        <v>0.13</v>
+        <v>2.11</v>
       </c>
       <c r="J6" s="3">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="P6" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="S6" s="3">
+        <v>14</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="U6" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="V6" s="3">
         <v>22</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="M6" s="3">
-        <v>20</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="P6" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="3">
-        <v>3</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V6" s="3">
-        <v>8</v>
-      </c>
       <c r="W6" s="3">
-        <v>0.27</v>
+        <v>3.95</v>
       </c>
       <c r="X6" s="3">
-        <v>0.82</v>
+        <v>4.12</v>
       </c>
       <c r="Y6" s="3">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="3">
-        <v>0.08</v>
+        <v>3.63</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.61</v>
+        <v>3.96</v>
       </c>
       <c r="AB6" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AC6" s="3">
-        <v>0.04</v>
+        <v>3.48</v>
       </c>
       <c r="AD6" s="3">
-        <v>0.53</v>
+        <v>3.83</v>
       </c>
       <c r="AE6" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="B7" s="3">
-        <v>2.15</v>
+        <v>0.51</v>
       </c>
       <c r="C7" s="3">
-        <v>2.34</v>
+        <v>0.54</v>
       </c>
       <c r="D7" s="3">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G7" s="3">
         <v>37</v>
       </c>
-      <c r="E7" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="G7" s="3">
-        <v>43</v>
-      </c>
       <c r="H7" s="3">
-        <v>1.99</v>
+        <v>0.04</v>
       </c>
       <c r="I7" s="3">
-        <v>1.99</v>
+        <v>0.13</v>
       </c>
       <c r="J7" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3">
-        <v>2.09</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="3">
-        <v>2</v>
+        <v>0.13</v>
       </c>
       <c r="M7" s="3">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3">
-        <v>2.62</v>
+        <v>0.08</v>
       </c>
       <c r="O7" s="3">
-        <v>2.21</v>
+        <v>0.34</v>
       </c>
       <c r="P7" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="3">
-        <v>2.85</v>
+        <v>0.13</v>
       </c>
       <c r="R7" s="3">
-        <v>2.97</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="3">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="T7" s="3">
-        <v>3.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U7" s="3">
-        <v>3.23</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="W7" s="3">
-        <v>3.67</v>
+        <v>0.27</v>
       </c>
       <c r="X7" s="3">
-        <v>3.31</v>
+        <v>0.82</v>
       </c>
       <c r="Y7" s="3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="3">
-        <v>3.55</v>
+        <v>0.08</v>
       </c>
       <c r="AA7" s="3">
-        <v>3.35</v>
+        <v>0.61</v>
       </c>
       <c r="AB7" s="3">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <v>3.43</v>
+        <v>0.04</v>
       </c>
       <c r="AD7" s="3">
-        <v>3.31</v>
+        <v>0.53</v>
       </c>
       <c r="AE7" s="3">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>531</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.59</v>
+        <v>2.15</v>
       </c>
       <c r="C8" s="3">
-        <v>1.1399999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="D8" s="3">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
-        <v>0.53</v>
+        <v>2.15</v>
       </c>
       <c r="F8" s="3">
-        <v>1.23</v>
+        <v>2.08</v>
       </c>
       <c r="G8" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3">
-        <v>0.49</v>
+        <v>1.99</v>
       </c>
       <c r="I8" s="3">
-        <v>1.2</v>
+        <v>1.99</v>
       </c>
       <c r="J8" s="3">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K8" s="3">
-        <v>0.53</v>
+        <v>2.09</v>
       </c>
       <c r="L8" s="3">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N8" s="3">
-        <v>0.75</v>
+        <v>2.62</v>
       </c>
       <c r="O8" s="3">
-        <v>1.27</v>
+        <v>2.21</v>
       </c>
       <c r="P8" s="3">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.84</v>
+        <v>2.85</v>
       </c>
       <c r="R8" s="3">
-        <v>0.82</v>
+        <v>2.97</v>
       </c>
       <c r="S8" s="3">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="T8" s="3">
-        <v>1.07</v>
+        <v>3.45</v>
       </c>
       <c r="U8" s="3">
-        <v>0.84</v>
+        <v>3.23</v>
       </c>
       <c r="V8" s="3">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W8" s="3">
-        <v>1.1100000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="X8" s="3">
-        <v>0.84</v>
+        <v>3.31</v>
       </c>
       <c r="Y8" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="3">
-        <v>0.99</v>
+        <v>3.55</v>
       </c>
       <c r="AA8" s="3">
-        <v>0.86</v>
+        <v>3.35</v>
       </c>
       <c r="AB8" s="3">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="AE8" s="3">
         <v>66</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B9" s="3">
-        <v>1.27</v>
+        <v>0.59</v>
       </c>
       <c r="C9" s="3">
-        <v>1.98</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D9" s="3">
         <v>21</v>
       </c>
       <c r="E9" s="3">
-        <v>1.22</v>
+        <v>0.53</v>
       </c>
       <c r="F9" s="3">
-        <v>1.96</v>
+        <v>1.23</v>
       </c>
       <c r="G9" s="3">
         <v>21</v>
       </c>
       <c r="H9" s="3">
-        <v>1.35</v>
+        <v>0.49</v>
       </c>
       <c r="I9" s="3">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K9" s="3">
-        <v>1.41</v>
+        <v>0.53</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="M9" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N9" s="3">
-        <v>1.86</v>
+        <v>0.75</v>
       </c>
       <c r="O9" s="3">
-        <v>2.1800000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="P9" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="3">
-        <v>1.82</v>
+        <v>0.84</v>
       </c>
       <c r="R9" s="3">
-        <v>2.38</v>
+        <v>0.82</v>
       </c>
       <c r="S9" s="3">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="T9" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.07</v>
       </c>
       <c r="U9" s="3">
-        <v>2.2400000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="V9" s="3">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="W9" s="3">
-        <v>2.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="X9" s="3">
-        <v>2.2400000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="Y9" s="3">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="3">
-        <v>2.04</v>
+        <v>0.99</v>
       </c>
       <c r="AA9" s="3">
-        <v>2.35</v>
+        <v>0.86</v>
       </c>
       <c r="AB9" s="3">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AC9" s="3">
-        <v>2.04</v>
+        <v>0.95</v>
       </c>
       <c r="AD9" s="3">
-        <v>2.36</v>
+        <v>0.89</v>
       </c>
       <c r="AE9" s="3">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>532</v>
       </c>
       <c r="B10" s="3">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="C10" s="3">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="D10" s="3">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="3">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="G10" s="3">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="I10" s="3">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="J10" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K10" s="3">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="L10" s="3">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P10" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="S10" s="3">
+        <v>30</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V10" s="3">
+        <v>35</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="X10" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y10" s="3">
         <v>37</v>
       </c>
-      <c r="N10" s="3">
-        <v>1.51</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="P10" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="S10" s="3">
-        <v>70</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2.48</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="V10" s="3">
-        <v>87</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2.73</v>
-      </c>
-      <c r="X10" s="3">
-        <v>1.94</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>92</v>
-      </c>
       <c r="Z10" s="3">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="AA10" s="3">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="AB10" s="3">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="AC10" s="3">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="AD10" s="3">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="AE10" s="3">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>533</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>0.13</v>
+        <v>1.47</v>
       </c>
       <c r="C11" s="3">
-        <v>0.21</v>
+        <v>1.55</v>
       </c>
       <c r="D11" s="3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="F11" s="3">
-        <v>0.11</v>
+        <v>1.36</v>
       </c>
       <c r="G11" s="3">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3">
-        <v>0.04</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.1</v>
+        <v>1.27</v>
       </c>
       <c r="J11" s="3">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M11" s="3">
+        <v>37</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="P11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="S11" s="3">
+        <v>70</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="V11" s="3">
         <v>87</v>
       </c>
-      <c r="K11" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>93</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="P11" s="3">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="S11" s="3">
-        <v>58</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="V11" s="3">
-        <v>70</v>
-      </c>
       <c r="W11" s="3">
-        <v>0.15</v>
+        <v>2.73</v>
       </c>
       <c r="X11" s="3">
-        <v>0.12</v>
+        <v>1.94</v>
       </c>
       <c r="Y11" s="3">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Z11" s="3">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="AA11" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="AB11" s="3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.21</v>
+        <v>2.34</v>
       </c>
       <c r="AD11" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="AE11" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" s="3">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="C12" s="3">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="D12" s="3">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" s="3">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="G12" s="3">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>87</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="M12" s="3">
         <v>93</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="J12" s="3">
-        <v>92</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="P12" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="S12" s="3">
+        <v>58</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="V12" s="3">
+        <v>70</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="Y12" s="3">
         <v>74</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>74</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>9</v>
+      <c r="Z12" s="3">
+        <v>0.15</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>9</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0.21</v>
       </c>
       <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>9</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>534</v>
       </c>
       <c r="B13" s="3">
-        <v>1.27</v>
+        <v>0.06</v>
       </c>
       <c r="C13" s="3">
-        <v>1.36</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="3">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="F13" s="3">
-        <v>1.23</v>
+        <v>0.01</v>
       </c>
       <c r="G13" s="3">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H13" s="3">
-        <v>1.05</v>
+        <v>0.03</v>
       </c>
       <c r="I13" s="3">
-        <v>1.38</v>
+        <v>-0.01</v>
       </c>
       <c r="J13" s="3">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K13" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L13" s="3">
-        <v>1.48</v>
+        <v>-0.01</v>
       </c>
       <c r="M13" s="3">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="N13" s="3">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>61</v>
-      </c>
-      <c r="T13" s="3">
-        <v>2.3199999999999998</v>
+        <v>74</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="U13" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="V13" s="3">
-        <v>87</v>
-      </c>
-      <c r="W13" s="3">
-        <v>2.57</v>
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="X13" s="3">
-        <v>1.83</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>89</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>2.35</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="AA13" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>90</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>2.13</v>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="AD13" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>0.01</v>
+        <v>1.27</v>
       </c>
       <c r="C14" s="3">
-        <v>-0.01</v>
+        <v>1.36</v>
       </c>
       <c r="D14" s="3">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
-        <v>0.04</v>
+        <v>1.25</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="G14" s="3">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
-        <v>0.02</v>
+        <v>1.05</v>
       </c>
       <c r="I14" s="3">
-        <v>0.01</v>
+        <v>1.38</v>
       </c>
       <c r="J14" s="3">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L14" s="3">
-        <v>0.01</v>
+        <v>1.48</v>
       </c>
       <c r="M14" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N14" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>1.28</v>
       </c>
       <c r="O14" s="3">
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="P14" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.17</v>
+        <v>1.05</v>
       </c>
       <c r="R14" s="3">
-        <v>0.03</v>
+        <v>0.69</v>
       </c>
       <c r="S14" s="3">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="T14" s="3">
-        <v>-0.01</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="U14" s="3">
-        <v>0.01</v>
+        <v>1.74</v>
       </c>
       <c r="V14" s="3">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="W14" s="3">
-        <v>-0.01</v>
+        <v>2.57</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Y14" s="3">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB14" s="3">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AC14" s="3">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AD14" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE14" s="3">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D15" s="3">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.01</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K15" s="3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M15" s="3">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="N15" s="3">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P15" s="3">
         <v>86</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S15" s="3">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V15" s="3">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -3352,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -3361,392 +3266,392 @@
         <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>536</v>
       </c>
       <c r="B16" s="3">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E16" s="3">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3">
-        <v>1.08</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="3">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K16" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="N16" s="3">
-        <v>1.36</v>
+        <v>0.01</v>
       </c>
       <c r="O16" s="3">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
         <v>86</v>
       </c>
       <c r="Q16" s="3">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T16" s="3">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="U16" s="3">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="W16" s="3">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="3">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="Z16" s="3">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC16" s="3">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>0.94</v>
+        <v>1.28</v>
       </c>
       <c r="C17" s="3">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="D17" s="3">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="F17" s="3">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="G17" s="3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3">
-        <v>0.79</v>
+        <v>1.08</v>
       </c>
       <c r="I17" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="J17" s="3">
         <v>16</v>
       </c>
       <c r="K17" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="O17" s="3">
         <v>0.87</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="M17" s="3">
-        <v>17</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.68</v>
       </c>
       <c r="P17" s="3">
         <v>86</v>
       </c>
       <c r="Q17" s="3">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="R17" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="S17" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T17" s="3">
-        <v>1.68</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="U17" s="3">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="V17" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W17" s="3">
-        <v>1.85</v>
+        <v>2.56</v>
       </c>
       <c r="X17" s="3">
-        <v>1.4</v>
+        <v>1.84</v>
       </c>
       <c r="Y17" s="3">
         <v>88</v>
       </c>
       <c r="Z17" s="3">
-        <v>1.71</v>
+        <v>2.35</v>
       </c>
       <c r="AA17" s="3">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="AB17" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="3">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AD17" s="3">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="AE17" s="3">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="D18" s="3">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G18" s="3">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J18" s="3">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M18" s="3">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P18" s="3">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S18" s="3">
+        <v>64</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="V18" s="3">
+        <v>85</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>88</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>82</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>81</v>
-      </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB18" s="3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE18" s="3">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H19" s="3">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K19" s="3">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N19" s="3">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="T19" s="3">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U19" s="3">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W19" s="3">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="3">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Z19" s="3">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="3">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AC19" s="3">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="3">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="3">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3">
         <v>0.94</v>
@@ -3840,42 +3745,102 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="D21" s="3">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="M21" s="3">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="P21" s="3">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S21" s="3">
+        <v>64</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="V21" s="3">
+        <v>85</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>87</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>87</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3909,516 +3874,516 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3">
-        <v>97.68</v>
-      </c>
-      <c r="C23" s="3">
-        <v>92.84</v>
-      </c>
-      <c r="D23" s="3">
-        <v>84</v>
-      </c>
-      <c r="E23" s="3">
-        <v>97.38</v>
-      </c>
-      <c r="F23" s="3">
-        <v>92.9</v>
-      </c>
-      <c r="G23" s="3">
-        <v>84</v>
-      </c>
-      <c r="H23" s="3">
-        <v>97.39</v>
-      </c>
-      <c r="I23" s="3">
-        <v>93.54</v>
-      </c>
-      <c r="J23" s="3">
-        <v>83</v>
-      </c>
-      <c r="K23" s="3">
-        <v>97.62</v>
-      </c>
-      <c r="L23" s="3">
-        <v>93.3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>86</v>
-      </c>
-      <c r="N23" s="3">
-        <v>97.65</v>
-      </c>
-      <c r="O23" s="3">
-        <v>93.24</v>
-      </c>
-      <c r="P23" s="3">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>97.42</v>
-      </c>
-      <c r="R23" s="3">
-        <v>92.6</v>
-      </c>
-      <c r="S23" s="3">
-        <v>88</v>
-      </c>
-      <c r="T23" s="3">
-        <v>97.6</v>
-      </c>
-      <c r="U23" s="3">
-        <v>91.88</v>
-      </c>
-      <c r="V23" s="3">
-        <v>88</v>
-      </c>
-      <c r="W23" s="3">
-        <v>97.95</v>
-      </c>
-      <c r="X23" s="3">
-        <v>91.95</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>89</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>98.25</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>92.09</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>92</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>98.23</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>92.28</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>91</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>84.88</v>
+        <v>97.68</v>
       </c>
       <c r="C24" s="3">
-        <v>74.45</v>
+        <v>92.84</v>
       </c>
       <c r="D24" s="3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3">
-        <v>84.85</v>
+        <v>97.38</v>
       </c>
       <c r="F24" s="3">
-        <v>74.930000000000007</v>
+        <v>92.9</v>
       </c>
       <c r="G24" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3">
-        <v>84.53</v>
+        <v>97.39</v>
       </c>
       <c r="I24" s="3">
-        <v>76.8</v>
+        <v>93.54</v>
       </c>
       <c r="J24" s="3">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K24" s="3">
-        <v>84.69</v>
+        <v>97.62</v>
       </c>
       <c r="L24" s="3">
-        <v>77.16</v>
+        <v>93.3</v>
       </c>
       <c r="M24" s="3">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N24" s="3">
-        <v>84.53</v>
+        <v>97.65</v>
       </c>
       <c r="O24" s="3">
-        <v>80.62</v>
+        <v>93.24</v>
       </c>
       <c r="P24" s="3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="3">
-        <v>83.12</v>
+        <v>97.42</v>
       </c>
       <c r="R24" s="3">
-        <v>78.47</v>
+        <v>92.6</v>
       </c>
       <c r="S24" s="3">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="T24" s="3">
-        <v>82.36</v>
+        <v>97.6</v>
       </c>
       <c r="U24" s="3">
-        <v>78.349999999999994</v>
+        <v>91.88</v>
       </c>
       <c r="V24" s="3">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="W24" s="3">
-        <v>82.12</v>
+        <v>97.95</v>
       </c>
       <c r="X24" s="3">
-        <v>78.209999999999994</v>
+        <v>91.95</v>
       </c>
       <c r="Y24" s="3">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="Z24" s="3">
-        <v>79.52</v>
+        <v>98.25</v>
       </c>
       <c r="AA24" s="3">
-        <v>77.77</v>
+        <v>92.09</v>
       </c>
       <c r="AB24" s="3">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AC24" s="3">
-        <v>79.34</v>
+        <v>98.23</v>
       </c>
       <c r="AD24" s="3">
-        <v>78.37</v>
+        <v>92.28</v>
       </c>
       <c r="AE24" s="3">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
-        <v>2.72</v>
+        <v>84.88</v>
       </c>
       <c r="C25" s="3">
-        <v>3.11</v>
+        <v>74.45</v>
       </c>
       <c r="D25" s="3">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3">
-        <v>2.31</v>
+        <v>84.85</v>
       </c>
       <c r="F25" s="3">
-        <v>2.42</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="G25" s="3">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H25" s="3">
-        <v>2.08</v>
+        <v>84.53</v>
       </c>
       <c r="I25" s="3">
-        <v>2.2599999999999998</v>
+        <v>76.8</v>
       </c>
       <c r="J25" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="K25" s="3">
-        <v>2.1800000000000002</v>
+        <v>84.69</v>
       </c>
       <c r="L25" s="3">
-        <v>2.29</v>
+        <v>77.16</v>
       </c>
       <c r="M25" s="3">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="N25" s="3">
-        <v>2.76</v>
+        <v>84.53</v>
       </c>
       <c r="O25" s="3">
-        <v>2.73</v>
+        <v>80.62</v>
       </c>
       <c r="P25" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>83.12</v>
+      </c>
+      <c r="R25" s="3">
+        <v>78.47</v>
+      </c>
+      <c r="S25" s="3">
+        <v>75</v>
+      </c>
+      <c r="T25" s="3">
+        <v>82.36</v>
+      </c>
+      <c r="U25" s="3">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="V25" s="3">
+        <v>71</v>
+      </c>
+      <c r="W25" s="3">
+        <v>82.12</v>
+      </c>
+      <c r="X25" s="3">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>67</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>79.52</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>77.77</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>48</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>79.34</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>78.37</v>
+      </c>
+      <c r="AE25" s="3">
         <v>46</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>3.06</v>
-      </c>
-      <c r="R25" s="3">
-        <v>3.79</v>
-      </c>
-      <c r="S25" s="3">
-        <v>9</v>
-      </c>
-      <c r="T25" s="3">
-        <v>3.84</v>
-      </c>
-      <c r="U25" s="3">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="V25" s="3">
-        <v>13</v>
-      </c>
-      <c r="W25" s="3">
-        <v>4.03</v>
-      </c>
-      <c r="X25" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>19</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>4.17</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>0.52</v>
+        <v>2.72</v>
       </c>
       <c r="C26" s="3">
-        <v>0.56999999999999995</v>
+        <v>3.11</v>
       </c>
       <c r="D26" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3">
-        <v>0.1</v>
+        <v>2.31</v>
       </c>
       <c r="F26" s="3">
-        <v>0.17</v>
+        <v>2.42</v>
       </c>
       <c r="G26" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H26" s="3">
-        <v>0.04</v>
+        <v>2.08</v>
       </c>
       <c r="I26" s="3">
-        <v>0.13</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J26" s="3">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K26" s="3">
-        <v>0.03</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>0.14000000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="M26" s="3">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N26" s="3">
-        <v>0.08</v>
+        <v>2.76</v>
       </c>
       <c r="O26" s="3">
-        <v>0.36</v>
+        <v>2.73</v>
       </c>
       <c r="P26" s="3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="3">
-        <v>0.13</v>
+        <v>3.06</v>
       </c>
       <c r="R26" s="3">
-        <v>0.54</v>
+        <v>3.79</v>
       </c>
       <c r="S26" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T26" s="3">
-        <v>0.3</v>
+        <v>3.84</v>
       </c>
       <c r="U26" s="3">
-        <v>0.86</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="V26" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W26" s="3">
-        <v>0.28000000000000003</v>
+        <v>4.03</v>
       </c>
       <c r="X26" s="3">
-        <v>0.89</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z26" s="3">
-        <v>0.08</v>
+        <v>3.69</v>
       </c>
       <c r="AA26" s="3">
-        <v>0.66</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="AB26" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC26" s="3">
-        <v>0.04</v>
+        <v>3.54</v>
       </c>
       <c r="AD26" s="3">
-        <v>0.57999999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="AE26" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D27" s="3">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>34</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M27" s="3">
+        <v>20</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P27" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="V27" s="3">
+        <v>6</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>34</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>2.25</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>43</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="3">
         <v>2.13</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="3">
         <v>45</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K28" s="3">
         <v>2.15</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L28" s="3">
         <v>2.15</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M28" s="3">
         <v>44</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>2.68</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O28" s="3">
         <v>2.37</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P28" s="3">
         <v>56</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q28" s="3">
         <v>2.93</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R28" s="3">
         <v>3.23</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S28" s="3">
         <v>30</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T28" s="3">
         <v>3.54</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U28" s="3">
         <v>3.53</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V28" s="3">
         <v>52</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W28" s="3">
         <v>3.75</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X28" s="3">
         <v>3.62</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y28" s="3">
         <v>62</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z28" s="3">
         <v>3.61</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA28" s="3">
         <v>3.65</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB28" s="3">
         <v>49</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC28" s="3">
         <v>3.5</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD28" s="3">
         <v>3.59</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE28" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4452,678 +4417,618 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D30" s="3">
-        <v>37</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G30" s="3">
-        <v>37</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="J30" s="3">
-        <v>61</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="M30" s="3">
-        <v>93</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="P30" s="3">
-        <v>26</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="S30" s="3">
-        <v>66</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="V30" s="3">
-        <v>74</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>72</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>73</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
-        <v>42.15</v>
+        <v>0.1</v>
       </c>
       <c r="C31" s="3">
-        <v>103.38</v>
+        <v>0.24</v>
       </c>
       <c r="D31" s="3">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3">
-        <v>53.14</v>
+        <v>0.08</v>
       </c>
       <c r="F31" s="3">
-        <v>153.55000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G31" s="3">
+        <v>37</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J31" s="3">
+        <v>61</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M31" s="3">
+        <v>93</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P31" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="S31" s="3">
+        <v>66</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="V31" s="3">
+        <v>74</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y31" s="3">
         <v>72</v>
       </c>
-      <c r="H31" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="I31" s="3">
-        <v>152.69</v>
-      </c>
-      <c r="J31" s="3">
-        <v>65</v>
-      </c>
-      <c r="K31" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>33.86</v>
-      </c>
-      <c r="M31" s="3">
-        <v>28</v>
-      </c>
-      <c r="N31" s="3">
-        <v>16.98</v>
-      </c>
-      <c r="O31" s="3">
-        <v>52.61</v>
-      </c>
-      <c r="P31" s="3">
-        <v>78</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>16.97</v>
-      </c>
-      <c r="R31" s="3">
-        <v>29.81</v>
-      </c>
-      <c r="S31" s="3">
-        <v>55</v>
-      </c>
-      <c r="T31" s="3">
-        <v>21.23</v>
-      </c>
-      <c r="U31" s="3">
-        <v>46.6</v>
-      </c>
-      <c r="V31" s="3">
-        <v>48</v>
-      </c>
-      <c r="W31" s="3">
-        <v>32.35</v>
-      </c>
-      <c r="X31" s="3">
-        <v>48.56</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>57</v>
-      </c>
       <c r="Z31" s="3">
-        <v>24</v>
+        <v>0.22</v>
       </c>
       <c r="AA31" s="3">
-        <v>51.15</v>
+        <v>0.16</v>
       </c>
       <c r="AB31" s="3">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC31" s="3">
-        <v>27.53</v>
+        <v>0.18</v>
       </c>
       <c r="AD31" s="3">
-        <v>44.29</v>
+        <v>0.15</v>
       </c>
       <c r="AE31" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
-        <v>0.86</v>
+        <v>42.15</v>
       </c>
       <c r="C32" s="3">
-        <v>1.24</v>
+        <v>103.38</v>
       </c>
       <c r="D32" s="3">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3">
-        <v>0.77</v>
+        <v>53.14</v>
       </c>
       <c r="F32" s="3">
-        <v>1.1299999999999999</v>
+        <v>153.55000000000001</v>
       </c>
       <c r="G32" s="3">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H32" s="3">
-        <v>0.64</v>
+        <v>15.65</v>
       </c>
       <c r="I32" s="3">
-        <v>1.17</v>
+        <v>152.69</v>
       </c>
       <c r="J32" s="3">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="K32" s="3">
-        <v>0.78</v>
+        <v>8.1</v>
       </c>
       <c r="L32" s="3">
-        <v>1.4</v>
+        <v>33.86</v>
       </c>
       <c r="M32" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N32" s="3">
-        <v>0.99</v>
+        <v>16.98</v>
       </c>
       <c r="O32" s="3">
-        <v>1.78</v>
+        <v>52.61</v>
       </c>
       <c r="P32" s="3">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="3">
-        <v>1.61</v>
+        <v>16.97</v>
       </c>
       <c r="R32" s="3">
-        <v>1.4</v>
+        <v>29.81</v>
       </c>
       <c r="S32" s="3">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="T32" s="3">
-        <v>0.92</v>
+        <v>21.23</v>
       </c>
       <c r="U32" s="3">
-        <v>0.78</v>
+        <v>46.6</v>
       </c>
       <c r="V32" s="3">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="W32" s="3">
-        <v>1.03</v>
+        <v>32.35</v>
       </c>
       <c r="X32" s="3">
-        <v>0.81</v>
+        <v>48.56</v>
       </c>
       <c r="Y32" s="3">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Z32" s="3">
-        <v>0.99</v>
+        <v>24</v>
       </c>
       <c r="AA32" s="3">
-        <v>0.84</v>
+        <v>51.15</v>
       </c>
       <c r="AB32" s="3">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AC32" s="3">
-        <v>1.1000000000000001</v>
+        <v>27.53</v>
       </c>
       <c r="AD32" s="3">
-        <v>0.87</v>
+        <v>44.29</v>
       </c>
       <c r="AE32" s="3">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3">
-        <v>8.9600000000000009</v>
+        <v>0.86</v>
       </c>
       <c r="C33" s="3">
-        <v>15.64</v>
+        <v>1.24</v>
       </c>
       <c r="D33" s="3">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G33" s="3">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="J33" s="3">
+        <v>29</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M33" s="3">
+        <v>27</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="P33" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="S33" s="3">
+        <v>76</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="V33" s="3">
         <v>64</v>
       </c>
-      <c r="E33" s="3">
-        <v>9.73</v>
-      </c>
-      <c r="F33" s="3">
-        <v>18.59</v>
-      </c>
-      <c r="G33" s="3">
-        <v>58</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="I33" s="3">
-        <v>13.77</v>
-      </c>
-      <c r="J33" s="3">
-        <v>10</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="L33" s="3">
-        <v>8.67</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
-        <v>6.06</v>
-      </c>
-      <c r="O33" s="3">
-        <v>8.07</v>
-      </c>
-      <c r="P33" s="3">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>7.35</v>
-      </c>
-      <c r="R33" s="3">
-        <v>15.27</v>
-      </c>
-      <c r="S33" s="3">
-        <v>36</v>
-      </c>
-      <c r="T33" s="3">
-        <v>4.26</v>
-      </c>
-      <c r="U33" s="3">
-        <v>9.67</v>
-      </c>
-      <c r="V33" s="3">
-        <v>36</v>
-      </c>
       <c r="W33" s="3">
-        <v>6.23</v>
+        <v>1.03</v>
       </c>
       <c r="X33" s="3">
-        <v>10.199999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="Y33" s="3">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="3">
-        <v>4.97</v>
+        <v>0.99</v>
       </c>
       <c r="AA33" s="3">
-        <v>12.06</v>
+        <v>0.84</v>
       </c>
       <c r="AB33" s="3">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="AC33" s="3">
-        <v>6.43</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD33" s="3">
-        <v>11.89</v>
+        <v>0.87</v>
       </c>
       <c r="AE33" s="3">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3">
-        <v>4.78</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C34" s="3">
-        <v>3.49</v>
+        <v>15.64</v>
       </c>
       <c r="D34" s="3">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3">
-        <v>5.86</v>
+        <v>9.73</v>
       </c>
       <c r="F34" s="3">
-        <v>2.9</v>
+        <v>18.59</v>
       </c>
       <c r="G34" s="3">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H34" s="3">
-        <v>5.04</v>
+        <v>3.74</v>
       </c>
       <c r="I34" s="3">
-        <v>2.44</v>
+        <v>13.77</v>
       </c>
       <c r="J34" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K34" s="3">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="L34" s="3">
-        <v>2.3199999999999998</v>
+        <v>8.67</v>
       </c>
       <c r="M34" s="3">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N34" s="3">
-        <v>4.3</v>
+        <v>6.06</v>
       </c>
       <c r="O34" s="3">
-        <v>2.48</v>
+        <v>8.07</v>
       </c>
       <c r="P34" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="3">
-        <v>6.25</v>
+        <v>7.35</v>
       </c>
       <c r="R34" s="3">
-        <v>3.41</v>
+        <v>15.27</v>
       </c>
       <c r="S34" s="3">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="T34" s="3">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="U34" s="3">
-        <v>2.2400000000000002</v>
+        <v>9.67</v>
       </c>
       <c r="V34" s="3">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="W34" s="3">
-        <v>3.12</v>
+        <v>6.23</v>
       </c>
       <c r="X34" s="3">
-        <v>2.17</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y34" s="3">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Z34" s="3">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="AA34" s="3">
-        <v>2.44</v>
+        <v>12.06</v>
       </c>
       <c r="AB34" s="3">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AC34" s="3">
-        <v>2.2999999999999998</v>
+        <v>6.43</v>
       </c>
       <c r="AD34" s="3">
-        <v>2.38</v>
+        <v>11.89</v>
       </c>
       <c r="AE34" s="3">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3">
-        <v>0.14000000000000001</v>
+        <v>4.78</v>
       </c>
       <c r="C35" s="3">
-        <v>0.49</v>
+        <v>3.49</v>
       </c>
       <c r="D35" s="3">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3">
-        <v>0.08</v>
+        <v>5.86</v>
       </c>
       <c r="F35" s="3">
-        <v>0.41</v>
+        <v>2.9</v>
       </c>
       <c r="G35" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H35" s="3">
-        <v>0.11</v>
+        <v>5.04</v>
       </c>
       <c r="I35" s="3">
-        <v>0.44</v>
+        <v>2.44</v>
       </c>
       <c r="J35" s="3">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="K35" s="3">
-        <v>0.03</v>
+        <v>5.01</v>
       </c>
       <c r="L35" s="3">
-        <v>0.36</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M35" s="3">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="N35" s="3">
-        <v>0.11</v>
+        <v>4.3</v>
       </c>
       <c r="O35" s="3">
-        <v>0.51</v>
+        <v>2.48</v>
       </c>
       <c r="P35" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="3">
-        <v>0.05</v>
+        <v>6.25</v>
       </c>
       <c r="R35" s="3">
-        <v>0.3</v>
+        <v>3.41</v>
       </c>
       <c r="S35" s="3">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="T35" s="3">
-        <v>0.23</v>
+        <v>2.97</v>
       </c>
       <c r="U35" s="3">
-        <v>0.35</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="V35" s="3">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="W35" s="3">
-        <v>0.14000000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="X35" s="3">
-        <v>0.3</v>
+        <v>2.17</v>
       </c>
       <c r="Y35" s="3">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="Z35" s="3">
-        <v>0.48</v>
+        <v>2.98</v>
       </c>
       <c r="AA35" s="3">
-        <v>0.37</v>
+        <v>2.44</v>
       </c>
       <c r="AB35" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC35" s="3">
-        <v>0.32</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD35" s="3">
-        <v>0.31</v>
+        <v>2.38</v>
       </c>
       <c r="AE35" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="D36" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E36" s="3">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F36" s="3">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="G36" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H36" s="3">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I36" s="3">
-        <v>0.74</v>
+        <v>0.44</v>
       </c>
       <c r="J36" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K36" s="3">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="L36" s="3">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
       <c r="M36" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N36" s="3">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="O36" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="P36" s="3">
         <v>10</v>
       </c>
       <c r="Q36" s="3">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="R36" s="3">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="S36" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T36" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="V36" s="3">
+        <v>36</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>75</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="AD36" s="3">
         <v>0.31</v>
       </c>
-      <c r="U36" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V36" s="3">
-        <v>23</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="X36" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>27</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>29</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>0.64</v>
-      </c>
       <c r="AE36" s="3">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
         <v>0.19</v>
       </c>
       <c r="C37" s="3">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="3">
         <v>21</v>
@@ -5132,7 +5037,7 @@
         <v>0.13</v>
       </c>
       <c r="F37" s="3">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="G37" s="3">
         <v>15</v>
@@ -5141,7 +5046,7 @@
         <v>0.13</v>
       </c>
       <c r="I37" s="3">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J37" s="3">
         <v>16</v>
@@ -5150,7 +5055,7 @@
         <v>0.16</v>
       </c>
       <c r="L37" s="3">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M37" s="3">
         <v>10</v>
@@ -5159,7 +5064,7 @@
         <v>0.23</v>
       </c>
       <c r="O37" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="P37" s="3">
         <v>10</v>
@@ -5168,85 +5073,145 @@
         <v>0.26</v>
       </c>
       <c r="R37" s="3">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="S37" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T37" s="3">
         <v>0.31</v>
       </c>
       <c r="U37" s="3">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V37" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W37" s="3">
         <v>0.33</v>
       </c>
       <c r="X37" s="3">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y37" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z37" s="3">
         <v>0.34</v>
       </c>
       <c r="AA37" s="3">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="AB37" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC37" s="3">
         <v>0.48</v>
       </c>
       <c r="AD37" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D38" s="3">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="G38" s="3">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J38" s="3">
+        <v>16</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="M38" s="3">
+        <v>10</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P38" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="S38" s="3">
+        <v>10</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V38" s="3">
+        <v>20</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="AD38" s="3">
         <v>0.7</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE38" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5280,326 +5245,326 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3">
-        <v>9.34</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="D40" s="3">
-        <v>71</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2.84</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-3.12</v>
-      </c>
-      <c r="G40" s="3">
-        <v>62</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2.29</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-9.17</v>
-      </c>
-      <c r="J40" s="3">
-        <v>74</v>
-      </c>
-      <c r="K40" s="3">
-        <v>-6.85</v>
-      </c>
-      <c r="L40" s="3">
-        <v>-8.09</v>
-      </c>
-      <c r="M40" s="3">
-        <v>55</v>
-      </c>
-      <c r="N40" s="3">
-        <v>-8.77</v>
-      </c>
-      <c r="O40" s="3">
-        <v>-3.65</v>
-      </c>
-      <c r="P40" s="3">
-        <v>40</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>-9.27</v>
-      </c>
-      <c r="R40" s="3">
-        <v>5.68</v>
-      </c>
-      <c r="S40" s="3">
-        <v>12</v>
-      </c>
-      <c r="T40" s="3">
-        <v>-2.23</v>
-      </c>
-      <c r="U40" s="3">
-        <v>12.07</v>
-      </c>
-      <c r="V40" s="3">
-        <v>9</v>
-      </c>
-      <c r="W40" s="3">
-        <v>-10.039999999999999</v>
-      </c>
-      <c r="X40" s="3">
-        <v>13.39</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>-0.23</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>13.84</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>-0.67</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>13.71</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3">
-        <v>35.22</v>
+        <v>9.34</v>
       </c>
       <c r="C41" s="3">
-        <v>50.63</v>
+        <v>1.37</v>
       </c>
       <c r="D41" s="3">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3">
-        <v>33.24</v>
+        <v>2.84</v>
       </c>
       <c r="F41" s="3">
-        <v>49.42</v>
+        <v>-3.12</v>
       </c>
       <c r="G41" s="3">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H41" s="3">
-        <v>31.57</v>
+        <v>2.29</v>
       </c>
       <c r="I41" s="3">
-        <v>46.67</v>
+        <v>-9.17</v>
       </c>
       <c r="J41" s="3">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="K41" s="3">
-        <v>31.23</v>
+        <v>-6.85</v>
       </c>
       <c r="L41" s="3">
-        <v>45</v>
+        <v>-8.09</v>
       </c>
       <c r="M41" s="3">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N41" s="3">
-        <v>39.29</v>
+        <v>-8.77</v>
       </c>
       <c r="O41" s="3">
-        <v>47.39</v>
+        <v>-3.65</v>
       </c>
       <c r="P41" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="3">
-        <v>42.75</v>
+        <v>-9.27</v>
       </c>
       <c r="R41" s="3">
-        <v>66.97</v>
+        <v>5.68</v>
       </c>
       <c r="S41" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T41" s="3">
-        <v>46.96</v>
+        <v>-2.23</v>
       </c>
       <c r="U41" s="3">
-        <v>69.569999999999993</v>
+        <v>12.07</v>
       </c>
       <c r="V41" s="3">
+        <v>9</v>
+      </c>
+      <c r="W41" s="3">
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="X41" s="3">
+        <v>13.39</v>
+      </c>
+      <c r="Y41" s="3">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
-        <v>46.27</v>
-      </c>
-      <c r="X41" s="3">
-        <v>69.81</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3">
-        <v>49.98</v>
+        <v>-0.23</v>
       </c>
       <c r="AA41" s="3">
-        <v>69.400000000000006</v>
+        <v>13.84</v>
       </c>
       <c r="AB41" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC41" s="3">
-        <v>46.68</v>
+        <v>-0.67</v>
       </c>
       <c r="AD41" s="3">
-        <v>69.36</v>
+        <v>13.71</v>
       </c>
       <c r="AE41" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3">
-        <v>41.97</v>
+        <v>35.22</v>
       </c>
       <c r="C42" s="3">
-        <v>61.72</v>
+        <v>50.63</v>
       </c>
       <c r="D42" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E42" s="3">
-        <v>37.03</v>
+        <v>33.24</v>
       </c>
       <c r="F42" s="3">
-        <v>59.38</v>
+        <v>49.42</v>
       </c>
       <c r="G42" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H42" s="3">
-        <v>34.4</v>
+        <v>31.57</v>
       </c>
       <c r="I42" s="3">
-        <v>55.47</v>
+        <v>46.67</v>
       </c>
       <c r="J42" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
-        <v>34.14</v>
+        <v>31.23</v>
       </c>
       <c r="L42" s="3">
-        <v>54.13</v>
+        <v>45</v>
       </c>
       <c r="M42" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N42" s="3">
-        <v>43.35</v>
+        <v>39.29</v>
       </c>
       <c r="O42" s="3">
-        <v>57.02</v>
+        <v>47.39</v>
       </c>
       <c r="P42" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="3">
-        <v>47.48</v>
+        <v>42.75</v>
       </c>
       <c r="R42" s="3">
-        <v>82.29</v>
+        <v>66.97</v>
       </c>
       <c r="S42" s="3">
         <v>6</v>
       </c>
       <c r="T42" s="3">
+        <v>46.96</v>
+      </c>
+      <c r="U42" s="3">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="V42" s="3">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
+        <v>46.27</v>
+      </c>
+      <c r="X42" s="3">
+        <v>69.81</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>49.98</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>46.68</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>69.36</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
+        <v>41.97</v>
+      </c>
+      <c r="C43" s="3">
+        <v>61.72</v>
+      </c>
+      <c r="D43" s="3">
+        <v>18</v>
+      </c>
+      <c r="E43" s="3">
+        <v>37.03</v>
+      </c>
+      <c r="F43" s="3">
+        <v>59.38</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>55.47</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16</v>
+      </c>
+      <c r="K43" s="3">
+        <v>34.14</v>
+      </c>
+      <c r="L43" s="3">
+        <v>54.13</v>
+      </c>
+      <c r="M43" s="3">
+        <v>17</v>
+      </c>
+      <c r="N43" s="3">
+        <v>43.35</v>
+      </c>
+      <c r="O43" s="3">
+        <v>57.02</v>
+      </c>
+      <c r="P43" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>47.48</v>
+      </c>
+      <c r="R43" s="3">
+        <v>82.29</v>
+      </c>
+      <c r="S43" s="3">
+        <v>6</v>
+      </c>
+      <c r="T43" s="3">
         <v>52.18</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U43" s="3">
         <v>88.58</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V43" s="3">
         <v>3</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W43" s="3">
         <v>51.61</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X43" s="3">
         <v>89.33</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y43" s="3">
         <v>3</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z43" s="3">
         <v>56.12</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA43" s="3">
         <v>88.24</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB43" s="3">
         <v>4</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC43" s="3">
         <v>51.88</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD43" s="3">
         <v>88.57</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5633,421 +5598,421 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="3">
-        <v>7.9626000000000001</v>
-      </c>
-      <c r="C45" s="3">
-        <v>8.76</v>
-      </c>
-      <c r="D45" s="3">
-        <v>21</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7.5502000000000002</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>18</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7.2428999999999997</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="J45" s="3">
-        <v>19</v>
-      </c>
-      <c r="K45" s="3">
-        <v>6.9570999999999996</v>
-      </c>
-      <c r="L45" s="3">
-        <v>8.56</v>
-      </c>
-      <c r="M45" s="3">
-        <v>13</v>
-      </c>
-      <c r="N45" s="3">
-        <v>6.4333999999999998</v>
-      </c>
-      <c r="O45" s="3">
-        <v>8.42</v>
-      </c>
-      <c r="P45" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>6.9149000000000003</v>
-      </c>
-      <c r="R45" s="3">
-        <v>9.34</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2</v>
-      </c>
-      <c r="T45" s="3">
-        <v>7.2962999999999996</v>
-      </c>
-      <c r="U45" s="3">
-        <v>10.08</v>
-      </c>
-      <c r="V45" s="3">
-        <v>3</v>
-      </c>
-      <c r="W45" s="3">
-        <v>8.1669</v>
-      </c>
-      <c r="X45" s="3">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>8.1036000000000001</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>10.02</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>7.7217000000000002</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>9.93</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3">
-        <v>16.050699999999999</v>
+        <v>7.9626000000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>15.79</v>
+        <v>8.76</v>
       </c>
       <c r="D46" s="3">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E46" s="3">
-        <v>16.049600000000002</v>
+        <v>7.5502000000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>15.46</v>
+        <v>8.4</v>
       </c>
       <c r="G46" s="3">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H46" s="3">
-        <v>15.4041</v>
+        <v>7.2428999999999997</v>
       </c>
       <c r="I46" s="3">
-        <v>15.74</v>
+        <v>8.25</v>
       </c>
       <c r="J46" s="3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="K46" s="3">
-        <v>14.2568</v>
+        <v>6.9570999999999996</v>
       </c>
       <c r="L46" s="3">
-        <v>15.57</v>
+        <v>8.56</v>
       </c>
       <c r="M46" s="3">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N46" s="3">
-        <v>11.4933</v>
+        <v>6.4333999999999998</v>
       </c>
       <c r="O46" s="3">
-        <v>15.12</v>
+        <v>8.42</v>
       </c>
       <c r="P46" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>6.9149000000000003</v>
+      </c>
+      <c r="R46" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2</v>
+      </c>
+      <c r="T46" s="3">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="U46" s="3">
+        <v>10.08</v>
+      </c>
+      <c r="V46" s="3">
         <v>3</v>
       </c>
-      <c r="Q46" s="3">
-        <v>12.282400000000001</v>
-      </c>
-      <c r="R46" s="3">
-        <v>14.11</v>
-      </c>
-      <c r="S46" s="3">
-        <v>10</v>
-      </c>
-      <c r="T46" s="3">
-        <v>11.958600000000001</v>
-      </c>
-      <c r="U46" s="3">
-        <v>13.75</v>
-      </c>
-      <c r="V46" s="3">
-        <v>14</v>
-      </c>
       <c r="W46" s="3">
-        <v>13.437200000000001</v>
+        <v>8.1669</v>
       </c>
       <c r="X46" s="3">
-        <v>13.68</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Y46" s="3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="Z46" s="3">
-        <v>13.316000000000001</v>
+        <v>8.1036000000000001</v>
       </c>
       <c r="AA46" s="3">
-        <v>13.62</v>
+        <v>10.02</v>
       </c>
       <c r="AB46" s="3">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="AC46" s="3">
-        <v>12.722200000000001</v>
+        <v>7.7217000000000002</v>
       </c>
       <c r="AD46" s="3">
-        <v>13.69</v>
+        <v>9.93</v>
       </c>
       <c r="AE46" s="3">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3">
-        <v>14.53</v>
+        <v>16.050699999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>44.95</v>
+        <v>15.79</v>
       </c>
       <c r="D47" s="3">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>16.049600000000002</v>
       </c>
       <c r="F47" s="3">
-        <v>30.99</v>
+        <v>15.46</v>
       </c>
       <c r="G47" s="3">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>15.4041</v>
       </c>
       <c r="I47" s="3">
-        <v>48.02</v>
+        <v>15.74</v>
       </c>
       <c r="J47" s="3">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>14.2568</v>
       </c>
       <c r="L47" s="3">
-        <v>35.479999999999997</v>
+        <v>15.57</v>
       </c>
       <c r="M47" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N47" s="3">
-        <v>6.05</v>
+        <v>11.4933</v>
       </c>
       <c r="O47" s="3">
-        <v>50.21</v>
+        <v>15.12</v>
       </c>
       <c r="P47" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
-        <v>15.48</v>
+        <v>12.282400000000001</v>
       </c>
       <c r="R47" s="3">
-        <v>69.84</v>
+        <v>14.11</v>
       </c>
       <c r="S47" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="T47" s="3">
-        <v>70.709999999999994</v>
+        <v>11.958600000000001</v>
       </c>
       <c r="U47" s="3">
-        <v>59.28</v>
+        <v>13.75</v>
       </c>
       <c r="V47" s="3">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="W47" s="3">
-        <v>55.48</v>
+        <v>13.437200000000001</v>
       </c>
       <c r="X47" s="3">
-        <v>52.55</v>
+        <v>13.68</v>
       </c>
       <c r="Y47" s="3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Z47" s="3">
-        <v>15</v>
+        <v>13.316000000000001</v>
       </c>
       <c r="AA47" s="3">
-        <v>47.35</v>
+        <v>13.62</v>
       </c>
       <c r="AB47" s="3">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="AC47" s="3">
-        <v>0</v>
+        <v>12.722200000000001</v>
       </c>
       <c r="AD47" s="3">
-        <v>39.89</v>
+        <v>13.69</v>
       </c>
       <c r="AE47" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3">
+        <v>14.53</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44.95</v>
+      </c>
+      <c r="D48" s="3">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>30.99</v>
+      </c>
+      <c r="G48" s="3">
+        <v>31</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>48.02</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="M48" s="3">
+        <v>27</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="O48" s="3">
+        <v>50.21</v>
+      </c>
+      <c r="P48" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>15.48</v>
+      </c>
+      <c r="R48" s="3">
+        <v>69.84</v>
+      </c>
+      <c r="S48" s="3">
+        <v>31</v>
+      </c>
+      <c r="T48" s="3">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="U48" s="3">
+        <v>59.28</v>
+      </c>
+      <c r="V48" s="3">
+        <v>57</v>
+      </c>
+      <c r="W48" s="3">
+        <v>55.48</v>
+      </c>
+      <c r="X48" s="3">
+        <v>52.55</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>52</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>47.35</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>39.89</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3">
         <v>0.79</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="3">
         <v>3.41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>18</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>3.47</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>12</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <v>3.98</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="3">
         <v>16</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="3">
         <v>0.77</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <v>4.5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <v>13</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>1.53</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="3">
         <v>5.79</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <v>16</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="3">
         <v>1.63</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="3">
         <v>4.59</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S49" s="3">
         <v>12</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T49" s="3">
         <v>1.96</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U49" s="3">
         <v>4.13</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V49" s="3">
         <v>17</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W49" s="3">
         <v>1.88</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X49" s="3">
         <v>4.3</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y49" s="3">
         <v>20</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z49" s="3">
         <v>1.97</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA49" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB49" s="3">
         <v>19</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC49" s="3">
         <v>2.82</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AD49" s="3">
         <v>4.82</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AE49" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6081,709 +6046,744 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2.69</v>
-      </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>31.4</v>
-      </c>
-      <c r="F51" s="3">
-        <v>10.32</v>
-      </c>
-      <c r="G51" s="3">
-        <v>84</v>
-      </c>
-      <c r="H51" s="3">
-        <v>83.22</v>
-      </c>
-      <c r="I51" s="3">
-        <v>14.05</v>
-      </c>
-      <c r="J51" s="3">
-        <v>96</v>
-      </c>
-      <c r="K51" s="3">
-        <v>90.79</v>
-      </c>
-      <c r="L51" s="3">
-        <v>9.94</v>
-      </c>
-      <c r="M51" s="3">
-        <v>96</v>
-      </c>
-      <c r="N51" s="3">
-        <v>62.76</v>
-      </c>
-      <c r="O51" s="3">
-        <v>19.18</v>
-      </c>
-      <c r="P51" s="3">
-        <v>96</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="R51" s="3">
-        <v>20.84</v>
-      </c>
-      <c r="S51" s="3">
-        <v>85</v>
-      </c>
-      <c r="T51" s="3">
-        <v>24.59</v>
-      </c>
-      <c r="U51" s="3">
-        <v>11.41</v>
-      </c>
-      <c r="V51" s="3">
-        <v>84</v>
-      </c>
-      <c r="W51" s="3">
-        <v>13.32</v>
-      </c>
-      <c r="X51" s="3">
-        <v>10.26</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>71</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>11.41</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>67</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>15.68</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>11.64</v>
-      </c>
-      <c r="AE51" s="3">
-        <v>71</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3">
-        <v>16.23</v>
+        <v>0.21</v>
       </c>
       <c r="C52" s="3">
-        <v>12.01</v>
+        <v>2.69</v>
       </c>
       <c r="D52" s="3">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E52" s="3">
-        <v>57.88</v>
+        <v>31.4</v>
       </c>
       <c r="F52" s="3">
-        <v>12.34</v>
+        <v>10.32</v>
       </c>
       <c r="G52" s="3">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H52" s="3">
-        <v>123.91</v>
+        <v>83.22</v>
       </c>
       <c r="I52" s="3">
-        <v>12.73</v>
+        <v>14.05</v>
       </c>
       <c r="J52" s="3">
         <v>96</v>
       </c>
       <c r="K52" s="3">
-        <v>95.3</v>
+        <v>90.79</v>
       </c>
       <c r="L52" s="3">
-        <v>11.76</v>
+        <v>9.94</v>
       </c>
       <c r="M52" s="3">
         <v>96</v>
       </c>
       <c r="N52" s="3">
-        <v>31.94</v>
+        <v>62.76</v>
       </c>
       <c r="O52" s="3">
-        <v>7.64</v>
+        <v>19.18</v>
       </c>
       <c r="P52" s="3">
         <v>96</v>
       </c>
       <c r="Q52" s="3">
-        <v>9.27</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="R52" s="3">
-        <v>8.8699999999999992</v>
+        <v>20.84</v>
       </c>
       <c r="S52" s="3">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="T52" s="3">
-        <v>7.49</v>
+        <v>24.59</v>
       </c>
       <c r="U52" s="3">
-        <v>11.53</v>
+        <v>11.41</v>
       </c>
       <c r="V52" s="3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="W52" s="3">
-        <v>16.82</v>
+        <v>13.32</v>
       </c>
       <c r="X52" s="3">
-        <v>11.12</v>
+        <v>10.26</v>
       </c>
       <c r="Y52" s="3">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z52" s="3">
-        <v>21.56</v>
+        <v>11.41</v>
       </c>
       <c r="AA52" s="3">
-        <v>11.5</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="AB52" s="3">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC52" s="3">
-        <v>15.65</v>
+        <v>15.68</v>
       </c>
       <c r="AD52" s="3">
-        <v>13.02</v>
+        <v>11.64</v>
       </c>
       <c r="AE52" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3">
-        <v>11.79</v>
+        <v>16.23</v>
       </c>
       <c r="C53" s="3">
-        <v>12.44</v>
+        <v>12.01</v>
       </c>
       <c r="D53" s="3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3">
-        <v>39.85</v>
+        <v>57.88</v>
       </c>
       <c r="F53" s="3">
-        <v>17.37</v>
+        <v>12.34</v>
       </c>
       <c r="G53" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H53" s="3">
-        <v>47.21</v>
+        <v>123.91</v>
       </c>
       <c r="I53" s="3">
-        <v>13.37</v>
+        <v>12.73</v>
       </c>
       <c r="J53" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K53" s="3">
-        <v>39.380000000000003</v>
+        <v>95.3</v>
       </c>
       <c r="L53" s="3">
-        <v>4.4800000000000004</v>
+        <v>11.76</v>
       </c>
       <c r="M53" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N53" s="3">
-        <v>36.200000000000003</v>
+        <v>31.94</v>
       </c>
       <c r="O53" s="3">
-        <v>4.5</v>
+        <v>7.64</v>
       </c>
       <c r="P53" s="3">
         <v>96</v>
       </c>
       <c r="Q53" s="3">
-        <v>25.09</v>
+        <v>9.27</v>
       </c>
       <c r="R53" s="3">
-        <v>15.99</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="S53" s="3">
+        <v>63</v>
+      </c>
+      <c r="T53" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="U53" s="3">
+        <v>11.53</v>
+      </c>
+      <c r="V53" s="3">
+        <v>41</v>
+      </c>
+      <c r="W53" s="3">
+        <v>16.82</v>
+      </c>
+      <c r="X53" s="3">
+        <v>11.12</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>76</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>21.56</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AB53" s="3">
         <v>81</v>
       </c>
-      <c r="T53" s="3">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="U53" s="3">
-        <v>11.44</v>
-      </c>
-      <c r="V53" s="3">
-        <v>76</v>
-      </c>
-      <c r="W53" s="3">
-        <v>12.32</v>
-      </c>
-      <c r="X53" s="3">
-        <v>10.67</v>
-      </c>
-      <c r="Y53" s="3">
-        <v>71</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>22.78</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>10.99</v>
-      </c>
-      <c r="AB53" s="3">
-        <v>86</v>
-      </c>
       <c r="AC53" s="3">
-        <v>23.96</v>
+        <v>15.65</v>
       </c>
       <c r="AD53" s="3">
-        <v>13.1</v>
+        <v>13.02</v>
       </c>
       <c r="AE53" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3">
-        <v>8.68</v>
+        <v>11.79</v>
       </c>
       <c r="C54" s="3">
-        <v>-17.739999999999998</v>
+        <v>12.44</v>
       </c>
       <c r="D54" s="3">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E54" s="3">
-        <v>-38.64</v>
+        <v>39.85</v>
       </c>
       <c r="F54" s="3">
-        <v>-24.04</v>
+        <v>17.37</v>
       </c>
       <c r="G54" s="3">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="H54" s="3">
-        <v>-27.03</v>
+        <v>47.21</v>
       </c>
       <c r="I54" s="3">
-        <v>10.23</v>
+        <v>13.37</v>
       </c>
       <c r="J54" s="3">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="K54" s="3">
-        <v>68.81</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="L54" s="3">
-        <v>23.82</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M54" s="3">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N54" s="3">
-        <v>112.74</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O54" s="3">
-        <v>219.1</v>
+        <v>4.5</v>
       </c>
       <c r="P54" s="3">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="Q54" s="3">
-        <v>32.11</v>
+        <v>25.09</v>
       </c>
       <c r="R54" s="3">
-        <v>226.49</v>
+        <v>15.99</v>
       </c>
       <c r="S54" s="3">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="T54" s="3">
-        <v>41.73</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="U54" s="3">
-        <v>39.229999999999997</v>
+        <v>11.44</v>
       </c>
       <c r="V54" s="3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="W54" s="3">
-        <v>127.29</v>
+        <v>12.32</v>
       </c>
       <c r="X54" s="3">
-        <v>24.96</v>
+        <v>10.67</v>
       </c>
       <c r="Y54" s="3">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Z54" s="3">
-        <v>12.84</v>
+        <v>22.78</v>
       </c>
       <c r="AA54" s="3">
-        <v>12.77</v>
+        <v>10.99</v>
       </c>
       <c r="AB54" s="3">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AC54" s="3">
-        <v>-25.73</v>
+        <v>23.96</v>
       </c>
       <c r="AD54" s="3">
-        <v>20.09</v>
+        <v>13.1</v>
       </c>
       <c r="AE54" s="3">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="3">
+        <v>8.68</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-17.739999999999998</v>
+      </c>
+      <c r="D55" s="3">
+        <v>68</v>
+      </c>
+      <c r="E55" s="3">
+        <v>-38.64</v>
+      </c>
+      <c r="F55" s="3">
+        <v>-24.04</v>
+      </c>
+      <c r="G55" s="3">
+        <v>34</v>
+      </c>
+      <c r="H55" s="3">
+        <v>-27.03</v>
+      </c>
+      <c r="I55" s="3">
+        <v>10.23</v>
+      </c>
+      <c r="J55" s="3">
+        <v>22</v>
+      </c>
+      <c r="K55" s="3">
+        <v>68.81</v>
+      </c>
+      <c r="L55" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="M55" s="3">
+        <v>79</v>
+      </c>
+      <c r="N55" s="3">
+        <v>112.74</v>
+      </c>
+      <c r="O55" s="3">
+        <v>219.1</v>
+      </c>
+      <c r="P55" s="3">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>32.11</v>
+      </c>
+      <c r="R55" s="3">
+        <v>226.49</v>
+      </c>
+      <c r="S55" s="3">
+        <v>16</v>
+      </c>
+      <c r="T55" s="3">
+        <v>41.73</v>
+      </c>
+      <c r="U55" s="3">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="V55" s="3">
+        <v>63</v>
+      </c>
+      <c r="W55" s="3">
+        <v>127.29</v>
+      </c>
+      <c r="X55" s="3">
+        <v>24.96</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>88</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>12.84</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>56</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>-25.73</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>20.09</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>1171.4000000000001</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C56" s="3">
         <v>159</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="3">
         <v>96</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <v>843.19</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>36.380000000000003</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="3">
         <v>96</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="3">
         <v>148.29</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="3">
         <v>-22.85</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J56" s="3">
         <v>96</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K56" s="3">
         <v>28.41</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L56" s="3">
         <v>-35.39</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M56" s="3">
         <v>96</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N56" s="3">
         <v>259.98</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O56" s="3">
         <v>-22.29</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P56" s="3">
         <v>96</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q56" s="3">
         <v>195.94</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R56" s="3">
         <v>-0.74</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S56" s="3">
         <v>97</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T56" s="3">
         <v>-71.040000000000006</v>
       </c>
-      <c r="U55" s="3">
+      <c r="U56" s="3">
         <v>13.84</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V56" s="3">
         <v>1</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W56" s="3">
         <v>-62.59</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X56" s="3">
         <v>23.21</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y56" s="3">
         <v>1</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z56" s="3">
         <v>-37.14</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA56" s="3">
         <v>21.75</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AB56" s="3">
         <v>4</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AC56" s="3">
         <v>489.9</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AD56" s="3">
         <v>20.65</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AE56" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="5">
-        <v>214666750</v>
-      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="5">
-        <v>215207000</v>
-      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="5">
-        <v>163362694</v>
-      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="5">
-        <v>135562493</v>
-      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="5">
-        <v>83751084</v>
-      </c>
+      <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="5">
-        <v>73654074</v>
-      </c>
+      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="5">
-        <v>61827081</v>
-      </c>
+      <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="5">
-        <v>57809657</v>
-      </c>
+      <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
-      <c r="AA57" s="5">
-        <v>54520639</v>
-      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="5">
-        <v>52733613</v>
-      </c>
+      <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="5">
-        <v>2024000</v>
+        <v>214666750</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="5">
-        <v>1018000</v>
+        <v>215207000</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="5">
-        <v>1294000</v>
+        <v>163362694</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="5">
-        <v>586950</v>
+        <v>135562493</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="5">
-        <v>826243</v>
+        <v>83751084</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="5">
-        <v>322990</v>
+        <v>73654074</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="5">
-        <v>1036618</v>
+        <v>61827081</v>
       </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="5">
-        <v>535341</v>
+        <v>57809657</v>
       </c>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="5">
-        <v>933641</v>
+        <v>54520639</v>
       </c>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="5">
-        <v>414946</v>
+        <v>52733613</v>
       </c>
       <c r="AE58" s="3"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="5">
+        <v>2024000</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="5">
+        <v>1018000</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="5">
+        <v>1294000</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="5">
+        <v>586950</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="O59" s="5">
+        <v>826243</v>
+      </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="R59" s="5">
+        <v>322990</v>
+      </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+      <c r="U59" s="5">
+        <v>1036618</v>
+      </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
+      <c r="X59" s="5">
+        <v>535341</v>
+      </c>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
+      <c r="AA59" s="5">
+        <v>933641</v>
+      </c>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
+      <c r="AD59" s="5">
+        <v>414946</v>
+      </c>
       <c r="AE59" s="3"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3">
-        <v>31</v>
-      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3">
-        <v>31</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3">
-        <v>30</v>
-      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3">
-        <v>28</v>
-      </c>
+      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="3">
-        <v>29</v>
-      </c>
+      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3">
-        <v>101</v>
-      </c>
+      <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="3">
-        <v>94</v>
-      </c>
+      <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="3">
-        <v>93</v>
-      </c>
+      <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-      <c r="AA60" s="3">
-        <v>92</v>
-      </c>
+      <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>31</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
+        <v>30</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3">
+        <v>28</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3">
+        <v>29</v>
+      </c>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3">
+        <v>101</v>
+      </c>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3">
+        <v>94</v>
+      </c>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3">
+        <v>93</v>
+      </c>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3">
+        <v>92</v>
+      </c>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3">
         <v>89</v>
       </c>
-      <c r="AE60" s="3"/>
+      <c r="AE61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6792,10 +6792,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1175DD43-469E-4C3F-B2A6-C6DB3DBA0A7A}">
-  <dimension ref="A2:AD72"/>
+  <dimension ref="A2:AE72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,59 +6832,102 @@
     <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
         <v>44926</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44742</v>
+      </c>
       <c r="F2" s="2">
         <v>44742</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44561</v>
+      </c>
       <c r="I2" s="2">
         <v>44561</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44377</v>
+      </c>
       <c r="L2" s="2">
         <v>44377</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44196</v>
+      </c>
       <c r="O2" s="2">
         <v>44196</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44012</v>
+      </c>
       <c r="R2" s="2">
         <v>44012</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43830</v>
+      </c>
       <c r="U2" s="2">
         <v>43830</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43646</v>
+      </c>
       <c r="X2" s="2">
         <v>43646</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Y2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA2" s="2">
         <v>43465</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="AB2" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD2" s="2">
         <v>43281</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="2">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>363</v>
       </c>
@@ -6976,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>364</v>
       </c>
@@ -7010,7 +7053,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>365</v>
       </c>
@@ -7102,7 +7145,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>122</v>
       </c>
@@ -7194,7 +7237,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>366</v>
       </c>
@@ -7286,7 +7329,7 @@
         <v>178.15</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>367</v>
       </c>
@@ -7320,7 +7363,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>368</v>
       </c>
@@ -7412,7 +7455,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>369</v>
       </c>
@@ -7504,7 +7547,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>370</v>
       </c>
@@ -7596,7 +7639,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>371</v>
       </c>
@@ -7630,7 +7673,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>372</v>
       </c>
@@ -7722,7 +7765,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>373</v>
       </c>
@@ -7814,7 +7857,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>374</v>
       </c>
@@ -7848,7 +7891,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>375</v>
       </c>
@@ -14547,7 +14590,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15842,7 +15885,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15892,7 +15935,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="B3" s="2">
         <v>44926</v>
       </c>
@@ -17919,42 +17964,42 @@
   <dimension ref="A2:AE66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -18024,57 +18069,99 @@
       <c r="AE3" s="3"/>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44926</v>
+      </c>
       <c r="C4" s="2">
         <v>44926</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44742</v>
+      </c>
       <c r="F4" s="2">
         <v>44742</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44561</v>
+      </c>
       <c r="I4" s="2">
         <v>44561</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44377</v>
+      </c>
       <c r="L4" s="2">
         <v>44377</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44196</v>
+      </c>
       <c r="O4" s="2">
         <v>44196</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>44012</v>
+      </c>
       <c r="R4" s="2">
         <v>44012</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="S4" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T4" s="2">
+        <v>43830</v>
+      </c>
       <c r="U4" s="2">
         <v>43830</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W4" s="2">
+        <v>43646</v>
+      </c>
       <c r="X4" s="2">
         <v>43646</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Y4" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA4" s="2">
         <v>43465</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD4" s="2">
         <v>43281</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -23606,7 +23693,7 @@
   <dimension ref="A2:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23623,7 +23710,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="B2" s="2">
         <v>44926</v>
       </c>
@@ -26018,42 +26107,42 @@
   <dimension ref="A2:AF59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -26091,58 +26180,99 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44926</v>
+      </c>
       <c r="C3" s="2">
         <v>44926</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44742</v>
+      </c>
       <c r="F3" s="2">
         <v>44742</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44561</v>
+      </c>
       <c r="I3" s="2">
         <v>44561</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44377</v>
+      </c>
       <c r="L3" s="2">
         <v>44377</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44196</v>
+      </c>
       <c r="O3" s="2">
         <v>44196</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>44012</v>
+      </c>
       <c r="R3" s="2">
         <v>44012</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T3" s="2">
+        <v>43830</v>
+      </c>
       <c r="U3" s="2">
         <v>43830</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="V3" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W3" s="2">
+        <v>43646</v>
+      </c>
       <c r="X3" s="2">
         <v>43646</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Y3" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA3" s="2">
         <v>43465</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD3" s="2">
         <v>43281</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
+      <c r="AE3" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -30850,7 +30980,7 @@
   <dimension ref="A2:AE44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30889,57 +31019,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
         <v>44926</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44742</v>
+      </c>
       <c r="F2" s="2">
         <v>44742</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44561</v>
+      </c>
       <c r="I2" s="2">
         <v>44561</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44377</v>
+      </c>
       <c r="L2" s="2">
         <v>44377</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44196</v>
+      </c>
       <c r="O2" s="2">
         <v>44196</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44012</v>
+      </c>
       <c r="R2" s="2">
         <v>44012</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43830</v>
+      </c>
       <c r="U2" s="2">
         <v>43830</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43646</v>
+      </c>
       <c r="X2" s="2">
         <v>43646</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Y2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA2" s="2">
         <v>43465</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD2" s="2">
         <v>43281</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -34513,7 +34685,7 @@
   <dimension ref="A1:AF43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34552,58 +34724,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44926</v>
+      </c>
       <c r="C1" s="2">
         <v>44926</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44742</v>
+      </c>
       <c r="F1" s="2">
         <v>44742</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="2">
+        <v>44561</v>
+      </c>
       <c r="I1" s="2">
         <v>44561</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="2">
+        <v>44377</v>
+      </c>
       <c r="L1" s="2">
         <v>44377</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="2">
+        <v>44196</v>
+      </c>
       <c r="O1" s="2">
         <v>44196</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>44012</v>
+      </c>
       <c r="R1" s="2">
         <v>44012</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="S1" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="2">
+        <v>43830</v>
+      </c>
       <c r="U1" s="2">
         <v>43830</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="V1" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="2">
+        <v>43646</v>
+      </c>
       <c r="X1" s="2">
         <v>43646</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="Y1" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA1" s="2">
         <v>43465</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="AB1" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD1" s="2">
         <v>43281</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
+      <c r="AE1" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -37909,7 +38122,7 @@
   <dimension ref="A2:AF66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37945,59 +38158,100 @@
     <col min="31" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
         <v>44926</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44742</v>
+      </c>
       <c r="F2" s="2">
         <v>44742</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44561</v>
+      </c>
       <c r="I2" s="2">
         <v>44561</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44377</v>
+      </c>
       <c r="L2" s="2">
         <v>44377</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44196</v>
+      </c>
       <c r="O2" s="2">
         <v>44196</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44012</v>
+      </c>
       <c r="R2" s="2">
         <v>44012</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43830</v>
+      </c>
       <c r="U2" s="2">
         <v>43830</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43646</v>
+      </c>
       <c r="X2" s="2">
         <v>43646</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Y2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA2" s="2">
         <v>43465</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="AB2" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD2" s="2">
         <v>43281</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AE2" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -42503,7 +42757,7 @@
   <dimension ref="A2:AF39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42542,58 +42796,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
         <v>44926</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44742</v>
+      </c>
       <c r="F2" s="2">
         <v>44742</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44561</v>
+      </c>
       <c r="I2" s="2">
         <v>44561</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44377</v>
+      </c>
       <c r="L2" s="2">
         <v>44377</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44196</v>
+      </c>
       <c r="O2" s="2">
         <v>44196</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44012</v>
+      </c>
       <c r="R2" s="2">
         <v>44012</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43830</v>
+      </c>
       <c r="U2" s="2">
         <v>43830</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="2">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43646</v>
+      </c>
       <c r="X2" s="2">
         <v>43646</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Y2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43465</v>
+      </c>
       <c r="AA2" s="2">
         <v>43465</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43281</v>
+      </c>
       <c r="AD2" s="2">
         <v>43281</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="AE2" s="2">
+        <v>43281</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -45644,20 +45939,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45680,14 +45975,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -45702,4 +45989,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Desktop\University\IDMP\IDMP_Submissions\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BED85B-B598-44FF-A474-9BAF7F0845C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78887F74-6200-4EAD-B186-8381472B715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="538">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -2028,7 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
   <dimension ref="A2:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -6795,7 +6795,7 @@
   <dimension ref="A2:AE72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11192,62 +11192,63 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EBA2F8-5743-4D87-849B-12EC8AC65D75}">
-  <dimension ref="A2:L51"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D2" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E2" s="2">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F2" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G2" s="2">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H2" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I2" s="2">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J2" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K2" s="2">
-        <v>43465</v>
-      </c>
-      <c r="L2" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>419</v>
       </c>
@@ -11261,9 +11262,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>420</v>
       </c>
@@ -11277,121 +11277,119 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5">
+        <v>10092000</v>
+      </c>
       <c r="C5" s="5">
-        <v>10092000</v>
+        <v>10022000</v>
       </c>
       <c r="D5" s="5">
-        <v>10022000</v>
+        <v>9265000</v>
       </c>
       <c r="E5" s="5">
-        <v>9265000</v>
+        <v>5455298</v>
       </c>
       <c r="F5" s="5">
-        <v>5455298</v>
+        <v>2203487</v>
       </c>
       <c r="G5" s="5">
-        <v>2203487</v>
+        <v>1466078</v>
       </c>
       <c r="H5" s="5">
-        <v>1466078</v>
+        <v>1447430</v>
       </c>
       <c r="I5" s="5">
-        <v>1447430</v>
+        <v>1418013</v>
       </c>
       <c r="J5" s="5">
-        <v>1418013</v>
+        <v>1408593</v>
       </c>
       <c r="K5" s="5">
-        <v>1408593</v>
-      </c>
-      <c r="L5" s="5">
         <v>1387587</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5">
+        <v>7327000</v>
+      </c>
       <c r="C6" s="5">
-        <v>7327000</v>
+        <v>6615000</v>
       </c>
       <c r="D6" s="5">
-        <v>6615000</v>
+        <v>5617000</v>
       </c>
       <c r="E6" s="5">
-        <v>5617000</v>
+        <v>4886841</v>
       </c>
       <c r="F6" s="5">
-        <v>4886841</v>
+        <v>4315134</v>
       </c>
       <c r="G6" s="5">
-        <v>4315134</v>
+        <v>3841891</v>
       </c>
       <c r="H6" s="5">
-        <v>3841891</v>
+        <v>3501782</v>
       </c>
       <c r="I6" s="5">
-        <v>3501782</v>
+        <v>3436505</v>
       </c>
       <c r="J6" s="5">
-        <v>3436505</v>
+        <v>3198747</v>
       </c>
       <c r="K6" s="5">
-        <v>3198747</v>
-      </c>
-      <c r="L6" s="5">
         <v>2765052</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5">
+        <v>-1903000</v>
+      </c>
       <c r="C7" s="5">
-        <v>-1903000</v>
+        <v>-1191000</v>
       </c>
       <c r="D7" s="5">
-        <v>-1191000</v>
+        <v>-7000</v>
       </c>
       <c r="E7" s="5">
-        <v>-7000</v>
+        <v>142763</v>
       </c>
       <c r="F7" s="5">
-        <v>142763</v>
+        <v>622424</v>
       </c>
       <c r="G7" s="5">
-        <v>622424</v>
+        <v>615345</v>
       </c>
       <c r="H7" s="5">
-        <v>615345</v>
+        <v>84883</v>
       </c>
       <c r="I7" s="5">
-        <v>84883</v>
+        <v>82002</v>
       </c>
       <c r="J7" s="5">
-        <v>82002</v>
+        <v>-52527</v>
       </c>
       <c r="K7" s="5">
-        <v>-52527</v>
-      </c>
-      <c r="L7" s="5">
         <v>-83721</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
@@ -11419,47 +11417,43 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5">
+        <v>15516000</v>
+      </c>
       <c r="C9" s="5">
-        <v>15516000</v>
+        <v>15446000</v>
       </c>
       <c r="D9" s="5">
-        <v>15446000</v>
+        <v>14875000</v>
       </c>
       <c r="E9" s="5">
-        <v>14875000</v>
+        <v>10484902</v>
       </c>
       <c r="F9" s="5">
-        <v>10484902</v>
+        <v>7141045</v>
       </c>
       <c r="G9" s="5">
-        <v>7141045</v>
+        <v>5923314</v>
       </c>
       <c r="H9" s="5">
-        <v>5923314</v>
+        <v>5034095</v>
       </c>
       <c r="I9" s="5">
-        <v>5034095</v>
+        <v>4936520</v>
       </c>
       <c r="J9" s="5">
-        <v>4936520</v>
+        <v>4554813</v>
       </c>
       <c r="K9" s="5">
-        <v>4554813</v>
-      </c>
-      <c r="L9" s="5">
         <v>4068918</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11471,9 +11465,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>426</v>
       </c>
@@ -11487,22 +11480,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5">
+        <v>199000</v>
+      </c>
       <c r="C12" s="5">
         <v>199000</v>
       </c>
       <c r="D12" s="5">
-        <v>199000</v>
-      </c>
-      <c r="E12" s="5">
         <v>200000</v>
       </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -11521,23 +11515,22 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5">
+        <v>61000</v>
+      </c>
       <c r="C13" s="5">
-        <v>61000</v>
+        <v>70000</v>
       </c>
       <c r="D13" s="5">
         <v>70000</v>
       </c>
-      <c r="E13" s="5">
-        <v>70000</v>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -11557,18 +11550,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5">
+      <c r="B14" s="5">
         <v>136000</v>
       </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
@@ -11593,51 +11585,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5">
+        <v>-1875000</v>
+      </c>
       <c r="C15" s="5">
-        <v>-1875000</v>
+        <v>-1172000</v>
       </c>
       <c r="D15" s="5">
-        <v>-1172000</v>
+        <v>-17000</v>
       </c>
       <c r="E15" s="5">
-        <v>-17000</v>
+        <v>129534</v>
       </c>
       <c r="F15" s="5">
-        <v>129534</v>
+        <v>610878</v>
       </c>
       <c r="G15" s="5">
-        <v>610878</v>
+        <v>621144</v>
       </c>
       <c r="H15" s="5">
-        <v>621144</v>
+        <v>84702</v>
       </c>
       <c r="I15" s="5">
-        <v>84702</v>
+        <v>84298</v>
       </c>
       <c r="J15" s="5">
-        <v>84298</v>
+        <v>-49876</v>
       </c>
       <c r="K15" s="5">
-        <v>-49876</v>
-      </c>
-      <c r="L15" s="5">
         <v>-84599</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
@@ -11665,15 +11655,14 @@
       <c r="K16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
@@ -11701,15 +11690,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -11725,8 +11713,8 @@
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>9</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -11737,51 +11725,49 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5">
+        <v>16995000</v>
+      </c>
       <c r="C19" s="5">
-        <v>16995000</v>
+        <v>16349000</v>
       </c>
       <c r="D19" s="5">
-        <v>16349000</v>
+        <v>14622000</v>
       </c>
       <c r="E19" s="5">
-        <v>14622000</v>
+        <v>10355368</v>
       </c>
       <c r="F19" s="5">
-        <v>10355368</v>
+        <v>6530167</v>
       </c>
       <c r="G19" s="5">
-        <v>6530167</v>
+        <v>5302170</v>
       </c>
       <c r="H19" s="5">
-        <v>5302170</v>
+        <v>4949393</v>
       </c>
       <c r="I19" s="5">
-        <v>4949393</v>
+        <v>4852222</v>
       </c>
       <c r="J19" s="5">
-        <v>4852222</v>
+        <v>4604689</v>
       </c>
       <c r="K19" s="5">
-        <v>4604689</v>
-      </c>
-      <c r="L19" s="5">
         <v>4153517</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -11797,8 +11783,8 @@
       <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>9</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -11809,15 +11795,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
@@ -11833,8 +11818,8 @@
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -11845,15 +11830,14 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
@@ -11881,15 +11865,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
@@ -11917,15 +11900,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
@@ -11953,47 +11935,43 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5">
+        <v>16995000</v>
+      </c>
       <c r="C25" s="5">
-        <v>16995000</v>
+        <v>16349000</v>
       </c>
       <c r="D25" s="5">
-        <v>16349000</v>
+        <v>14622000</v>
       </c>
       <c r="E25" s="5">
-        <v>14622000</v>
+        <v>10355368</v>
       </c>
       <c r="F25" s="5">
-        <v>10355368</v>
+        <v>6530167</v>
       </c>
       <c r="G25" s="5">
-        <v>6530167</v>
+        <v>5302170</v>
       </c>
       <c r="H25" s="5">
-        <v>5302170</v>
+        <v>4949393</v>
       </c>
       <c r="I25" s="5">
-        <v>4949393</v>
+        <v>4852222</v>
       </c>
       <c r="J25" s="5">
-        <v>4852222</v>
+        <v>4604689</v>
       </c>
       <c r="K25" s="5">
-        <v>4604689</v>
-      </c>
-      <c r="L25" s="5">
         <v>4153517</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -12005,9 +11983,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>441</v>
       </c>
@@ -12021,13 +11998,14 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
@@ -12055,15 +12033,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
@@ -12091,15 +12068,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
@@ -12127,15 +12103,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
@@ -12163,15 +12138,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
@@ -12199,15 +12173,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
@@ -12235,11 +12208,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -12251,45 +12221,43 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5">
+        <v>16995000</v>
+      </c>
       <c r="C35" s="5">
-        <v>16995000</v>
+        <v>16349000</v>
       </c>
       <c r="D35" s="5">
-        <v>16349000</v>
+        <v>14622000</v>
       </c>
       <c r="E35" s="5">
-        <v>14622000</v>
+        <v>10355368</v>
       </c>
       <c r="F35" s="5">
-        <v>10355368</v>
+        <v>6530167</v>
       </c>
       <c r="G35" s="5">
-        <v>6530167</v>
+        <v>5302170</v>
       </c>
       <c r="H35" s="5">
-        <v>5302170</v>
+        <v>4949393</v>
       </c>
       <c r="I35" s="5">
-        <v>4949393</v>
+        <v>4852222</v>
       </c>
       <c r="J35" s="5">
-        <v>4852222</v>
+        <v>4604689</v>
       </c>
       <c r="K35" s="5">
-        <v>4604689</v>
-      </c>
-      <c r="L35" s="5">
         <v>4153517</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -12301,9 +12269,8 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>448</v>
       </c>
@@ -12317,13 +12284,14 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
@@ -12351,15 +12319,14 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
@@ -12387,15 +12354,14 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
@@ -12423,51 +12389,49 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="5">
+        <v>876000</v>
+      </c>
       <c r="C41" s="5">
-        <v>876000</v>
+        <v>705000</v>
       </c>
       <c r="D41" s="5">
-        <v>705000</v>
+        <v>507000</v>
       </c>
       <c r="E41" s="5">
-        <v>507000</v>
+        <v>450483</v>
       </c>
       <c r="F41" s="5">
-        <v>450483</v>
+        <v>483463</v>
       </c>
       <c r="G41" s="5">
-        <v>483463</v>
+        <v>573492</v>
       </c>
       <c r="H41" s="5">
-        <v>573492</v>
+        <v>372457</v>
       </c>
       <c r="I41" s="5">
-        <v>372457</v>
+        <v>364282</v>
       </c>
       <c r="J41" s="5">
-        <v>364282</v>
+        <v>336086</v>
       </c>
       <c r="K41" s="5">
-        <v>336086</v>
-      </c>
-      <c r="L41" s="5">
         <v>340813</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
@@ -12495,15 +12459,14 @@
       <c r="K42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
@@ -12531,51 +12494,49 @@
       <c r="K43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="5">
+        <v>876000</v>
+      </c>
       <c r="C44" s="5">
-        <v>876000</v>
+        <v>705000</v>
       </c>
       <c r="D44" s="5">
-        <v>705000</v>
+        <v>507000</v>
       </c>
       <c r="E44" s="5">
-        <v>507000</v>
+        <v>450483</v>
       </c>
       <c r="F44" s="5">
-        <v>450483</v>
+        <v>483463</v>
       </c>
       <c r="G44" s="5">
-        <v>483463</v>
+        <v>573492</v>
       </c>
       <c r="H44" s="5">
-        <v>573492</v>
+        <v>372457</v>
       </c>
       <c r="I44" s="5">
-        <v>372457</v>
+        <v>364282</v>
       </c>
       <c r="J44" s="5">
-        <v>364282</v>
+        <v>336086</v>
       </c>
       <c r="K44" s="5">
-        <v>336086</v>
-      </c>
-      <c r="L44" s="5">
         <v>340813</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
@@ -12603,15 +12564,14 @@
       <c r="K45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
@@ -12639,11 +12599,8 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12655,49 +12612,49 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="5">
+        <v>876000</v>
+      </c>
       <c r="C48" s="5">
-        <v>876000</v>
+        <v>705000</v>
       </c>
       <c r="D48" s="5">
-        <v>705000</v>
+        <v>507000</v>
       </c>
       <c r="E48" s="5">
-        <v>507000</v>
+        <v>450483</v>
       </c>
       <c r="F48" s="5">
-        <v>450483</v>
+        <v>483463</v>
       </c>
       <c r="G48" s="5">
-        <v>483463</v>
+        <v>573492</v>
       </c>
       <c r="H48" s="5">
-        <v>573492</v>
+        <v>372457</v>
       </c>
       <c r="I48" s="5">
-        <v>372457</v>
+        <v>364282</v>
       </c>
       <c r="J48" s="5">
-        <v>364282</v>
+        <v>336086</v>
       </c>
       <c r="K48" s="5">
-        <v>336086</v>
-      </c>
-      <c r="L48" s="5">
         <v>340813</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
@@ -12725,51 +12682,49 @@
       <c r="K49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="5">
+        <v>17871000</v>
+      </c>
       <c r="C50" s="5">
-        <v>17871000</v>
+        <v>17054000</v>
       </c>
       <c r="D50" s="5">
-        <v>17054000</v>
+        <v>15129000</v>
       </c>
       <c r="E50" s="5">
-        <v>15129000</v>
+        <v>10805851</v>
       </c>
       <c r="F50" s="5">
-        <v>10805851</v>
+        <v>7013630</v>
       </c>
       <c r="G50" s="5">
-        <v>7013630</v>
+        <v>5875662</v>
       </c>
       <c r="H50" s="5">
-        <v>5875662</v>
+        <v>5321850</v>
       </c>
       <c r="I50" s="5">
-        <v>5321850</v>
+        <v>5216504</v>
       </c>
       <c r="J50" s="5">
-        <v>5216504</v>
+        <v>4940775</v>
       </c>
       <c r="K50" s="5">
-        <v>4940775</v>
-      </c>
-      <c r="L50" s="5">
         <v>4494330</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
@@ -12795,9 +12750,6 @@
         <v>9</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12808,61 +12760,62 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626572BB-DB29-4766-B876-13AE5ACB8D55}">
-  <dimension ref="A2:L55"/>
+  <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44926</v>
+      </c>
       <c r="C2" s="2">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D2" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E2" s="2">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F2" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G2" s="2">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H2" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I2" s="2">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J2" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K2" s="2">
-        <v>43465</v>
-      </c>
-      <c r="L2" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>462</v>
       </c>
@@ -12876,9 +12829,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>463</v>
       </c>
@@ -12892,13 +12844,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
@@ -12926,15 +12879,14 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
@@ -12962,177 +12914,172 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5">
+        <v>15750200</v>
+      </c>
       <c r="C7" s="5">
-        <v>15750200</v>
+        <v>16627800</v>
       </c>
       <c r="D7" s="5">
-        <v>16627800</v>
+        <v>17303400</v>
       </c>
       <c r="E7" s="5">
-        <v>17303400</v>
+        <v>12788400</v>
       </c>
       <c r="F7" s="5">
-        <v>12788400</v>
+        <v>7311571</v>
       </c>
       <c r="G7" s="5">
-        <v>7311571</v>
+        <v>4339969</v>
       </c>
       <c r="H7" s="5">
-        <v>4339969</v>
+        <v>3443819</v>
       </c>
       <c r="I7" s="5">
-        <v>3443819</v>
+        <v>2757979</v>
       </c>
       <c r="J7" s="5">
-        <v>2757979</v>
+        <v>2767248</v>
       </c>
       <c r="K7" s="5">
-        <v>2767248</v>
-      </c>
-      <c r="L7" s="5">
         <v>3163122</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5">
+        <v>4666500</v>
+      </c>
       <c r="C8" s="5">
-        <v>4666500</v>
+        <v>4336500</v>
       </c>
       <c r="D8" s="5">
-        <v>4336500</v>
+        <v>3937000</v>
       </c>
       <c r="E8" s="5">
-        <v>3937000</v>
+        <v>2113885</v>
       </c>
       <c r="F8" s="5">
-        <v>2113885</v>
+        <v>1933426</v>
       </c>
       <c r="G8" s="5">
-        <v>1933426</v>
+        <v>1678207</v>
       </c>
       <c r="H8" s="5">
-        <v>1678207</v>
+        <v>1565219</v>
       </c>
       <c r="I8" s="5">
-        <v>1565219</v>
+        <v>1366220</v>
       </c>
       <c r="J8" s="5">
-        <v>1366220</v>
+        <v>1263414</v>
       </c>
       <c r="K8" s="5">
-        <v>1263414</v>
-      </c>
-      <c r="L8" s="5">
         <v>1197879</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5">
+        <v>68948000</v>
+      </c>
       <c r="C9" s="5">
-        <v>68948000</v>
+        <v>65674000</v>
       </c>
       <c r="D9" s="5">
-        <v>65674000</v>
+        <v>61084000</v>
       </c>
       <c r="E9" s="5">
-        <v>61084000</v>
+        <v>47707621</v>
       </c>
       <c r="F9" s="5">
-        <v>47707621</v>
+        <v>41005897</v>
       </c>
       <c r="G9" s="5">
-        <v>41005897</v>
+        <v>32717740</v>
       </c>
       <c r="H9" s="5">
-        <v>32717740</v>
+        <v>31309789</v>
       </c>
       <c r="I9" s="5">
-        <v>31309789</v>
+        <v>27602783</v>
       </c>
       <c r="J9" s="5">
-        <v>27602783</v>
+        <v>26684482</v>
       </c>
       <c r="K9" s="5">
-        <v>26684482</v>
-      </c>
-      <c r="L9" s="5">
         <v>24469173</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5">
+        <v>10500</v>
+      </c>
       <c r="C10" s="5">
-        <v>10500</v>
+        <v>25500</v>
       </c>
       <c r="D10" s="5">
-        <v>25500</v>
+        <v>54000</v>
       </c>
       <c r="E10" s="5">
-        <v>54000</v>
+        <v>3003</v>
       </c>
       <c r="F10" s="5">
-        <v>3003</v>
+        <v>27545</v>
       </c>
       <c r="G10" s="5">
-        <v>27545</v>
+        <v>5459</v>
       </c>
       <c r="H10" s="5">
-        <v>5459</v>
+        <v>2435</v>
       </c>
       <c r="I10" s="5">
-        <v>2435</v>
+        <v>2199</v>
       </c>
       <c r="J10" s="5">
-        <v>2199</v>
+        <v>1532</v>
       </c>
       <c r="K10" s="5">
-        <v>1532</v>
-      </c>
-      <c r="L10" s="5">
         <v>1658</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5">
+        <v>200000</v>
+      </c>
       <c r="C11" s="5">
-        <v>200000</v>
+        <v>1830000</v>
       </c>
       <c r="D11" s="5">
-        <v>1830000</v>
+        <v>625000</v>
       </c>
       <c r="E11" s="5">
-        <v>625000</v>
+        <v>353258</v>
       </c>
       <c r="F11" s="5">
-        <v>353258</v>
+        <v>1470</v>
       </c>
       <c r="G11" s="5">
-        <v>1470</v>
-      </c>
-      <c r="H11" s="5">
         <v>1085</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
@@ -13142,15 +13089,14 @@
       <c r="K11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -13178,15 +13124,14 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -13214,15 +13159,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -13250,15 +13194,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
@@ -13286,23 +13229,22 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5">
+        <v>23000</v>
+      </c>
       <c r="C16" s="5">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="D16" s="5">
         <v>34000</v>
       </c>
-      <c r="E16" s="5">
-        <v>34000</v>
+      <c r="E16" s="3">
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -13322,15 +13264,14 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
@@ -13358,15 +13299,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
@@ -13394,83 +13334,78 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5">
+        <v>89598200</v>
+      </c>
       <c r="C19" s="5">
-        <v>89598200</v>
+        <v>88527800</v>
       </c>
       <c r="D19" s="5">
-        <v>88527800</v>
+        <v>83037400</v>
       </c>
       <c r="E19" s="5">
-        <v>83037400</v>
+        <v>62966166</v>
       </c>
       <c r="F19" s="5">
-        <v>62966166</v>
+        <v>50279909</v>
       </c>
       <c r="G19" s="5">
-        <v>50279909</v>
+        <v>38742459</v>
       </c>
       <c r="H19" s="5">
-        <v>38742459</v>
+        <v>36321261</v>
       </c>
       <c r="I19" s="5">
-        <v>36321261</v>
+        <v>31729181</v>
       </c>
       <c r="J19" s="5">
-        <v>31729181</v>
+        <v>30716676</v>
       </c>
       <c r="K19" s="5">
-        <v>30716676</v>
-      </c>
-      <c r="L19" s="5">
         <v>28831831</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5">
+        <v>53952000</v>
+      </c>
       <c r="C20" s="5">
-        <v>53952000</v>
+        <v>54825000</v>
       </c>
       <c r="D20" s="5">
-        <v>54825000</v>
+        <v>52144000</v>
       </c>
       <c r="E20" s="5">
-        <v>52144000</v>
+        <v>44455714</v>
       </c>
       <c r="F20" s="5">
-        <v>44455714</v>
+        <v>29536265</v>
       </c>
       <c r="G20" s="5">
-        <v>29536265</v>
+        <v>24833589</v>
       </c>
       <c r="H20" s="5">
-        <v>24833589</v>
+        <v>17176456</v>
       </c>
       <c r="I20" s="5">
-        <v>17176456</v>
+        <v>17569545</v>
       </c>
       <c r="J20" s="5">
-        <v>17569545</v>
+        <v>13034107</v>
       </c>
       <c r="K20" s="5">
-        <v>13034107</v>
-      </c>
-      <c r="L20" s="5">
         <v>12417266</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13482,9 +13417,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>480</v>
       </c>
@@ -13498,24 +13432,25 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5">
+        <v>1600</v>
+      </c>
       <c r="C23" s="5">
-        <v>1600</v>
+        <v>8740</v>
       </c>
       <c r="D23" s="5">
-        <v>8740</v>
-      </c>
-      <c r="E23" s="5">
         <v>3200</v>
       </c>
+      <c r="E23" s="3">
+        <v>550</v>
+      </c>
       <c r="F23" s="3">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -13532,15 +13467,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
@@ -13568,15 +13502,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
@@ -13604,59 +13537,57 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="5">
+        <v>479400</v>
+      </c>
       <c r="C26" s="5">
-        <v>479400</v>
+        <v>497600</v>
       </c>
       <c r="D26" s="5">
-        <v>497600</v>
+        <v>433000</v>
       </c>
       <c r="E26" s="5">
-        <v>433000</v>
+        <v>404912</v>
       </c>
       <c r="F26" s="5">
-        <v>404912</v>
+        <v>456098</v>
       </c>
       <c r="G26" s="5">
-        <v>456098</v>
+        <v>422429</v>
       </c>
       <c r="H26" s="5">
-        <v>422429</v>
+        <v>401145</v>
       </c>
       <c r="I26" s="5">
-        <v>401145</v>
+        <v>342668</v>
       </c>
       <c r="J26" s="5">
-        <v>342668</v>
+        <v>301501</v>
       </c>
       <c r="K26" s="5">
-        <v>301501</v>
-      </c>
-      <c r="L26" s="5">
         <v>232093</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5">
+        <v>33500</v>
+      </c>
       <c r="C27" s="5">
-        <v>33500</v>
+        <v>8500</v>
       </c>
       <c r="D27" s="5">
         <v>8500</v>
       </c>
-      <c r="E27" s="5">
-        <v>8500</v>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -13676,51 +13607,49 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5">
+        <v>21227000</v>
+      </c>
       <c r="C28" s="5">
-        <v>21227000</v>
+        <v>17215000</v>
       </c>
       <c r="D28" s="5">
-        <v>17215000</v>
+        <v>14732000</v>
       </c>
       <c r="E28" s="5">
-        <v>14732000</v>
+        <v>12422956</v>
       </c>
       <c r="F28" s="5">
-        <v>12422956</v>
+        <v>10287455</v>
       </c>
       <c r="G28" s="5">
-        <v>10287455</v>
+        <v>8673292</v>
       </c>
       <c r="H28" s="5">
-        <v>8673292</v>
+        <v>7779743</v>
       </c>
       <c r="I28" s="5">
-        <v>7779743</v>
+        <v>6749395</v>
       </c>
       <c r="J28" s="5">
-        <v>6749395</v>
+        <v>6085904</v>
       </c>
       <c r="K28" s="5">
-        <v>6085904</v>
-      </c>
-      <c r="L28" s="5">
         <v>6262640</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
@@ -13748,15 +13677,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
@@ -13784,15 +13712,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
@@ -13820,15 +13747,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
@@ -13856,15 +13782,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
@@ -13892,15 +13817,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
@@ -13928,15 +13852,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
@@ -13964,15 +13887,14 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
@@ -14000,83 +13922,78 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5">
+        <v>21741500</v>
+      </c>
       <c r="C37" s="5">
-        <v>21741500</v>
+        <v>17729840</v>
       </c>
       <c r="D37" s="5">
-        <v>17729840</v>
+        <v>15176700</v>
       </c>
       <c r="E37" s="5">
-        <v>15176700</v>
+        <v>12828418</v>
       </c>
       <c r="F37" s="5">
-        <v>12828418</v>
+        <v>10743553</v>
       </c>
       <c r="G37" s="5">
-        <v>10743553</v>
+        <v>9095721</v>
       </c>
       <c r="H37" s="5">
-        <v>9095721</v>
+        <v>8180888</v>
       </c>
       <c r="I37" s="5">
-        <v>8180888</v>
+        <v>7092063</v>
       </c>
       <c r="J37" s="5">
-        <v>7092063</v>
+        <v>6387405</v>
       </c>
       <c r="K37" s="5">
-        <v>6387405</v>
-      </c>
-      <c r="L37" s="5">
         <v>6494733</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="5">
+        <v>1548000</v>
+      </c>
       <c r="C38" s="5">
-        <v>1548000</v>
+        <v>736000</v>
       </c>
       <c r="D38" s="5">
-        <v>736000</v>
+        <v>793000</v>
       </c>
       <c r="E38" s="5">
-        <v>793000</v>
+        <v>578100</v>
       </c>
       <c r="F38" s="5">
-        <v>578100</v>
+        <v>148935</v>
       </c>
       <c r="G38" s="5">
-        <v>148935</v>
+        <v>310923</v>
       </c>
       <c r="H38" s="5">
-        <v>310923</v>
+        <v>249517</v>
       </c>
       <c r="I38" s="5">
-        <v>249517</v>
+        <v>240728</v>
       </c>
       <c r="J38" s="5">
-        <v>240728</v>
+        <v>34417</v>
       </c>
       <c r="K38" s="5">
-        <v>34417</v>
-      </c>
-      <c r="L38" s="5">
         <v>37294</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -14088,13 +14005,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
@@ -14122,11 +14040,8 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -14138,49 +14053,49 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5">
+        <v>111341000</v>
+      </c>
       <c r="C42" s="5">
-        <v>111341000</v>
+        <v>106258000</v>
       </c>
       <c r="D42" s="5">
-        <v>106258000</v>
+        <v>98214000</v>
       </c>
       <c r="E42" s="5">
-        <v>98214000</v>
+        <v>75794585</v>
       </c>
       <c r="F42" s="5">
-        <v>75794585</v>
+        <v>61023462</v>
       </c>
       <c r="G42" s="5">
-        <v>61023462</v>
+        <v>47838181</v>
       </c>
       <c r="H42" s="5">
-        <v>47838181</v>
+        <v>44502150</v>
       </c>
       <c r="I42" s="5">
-        <v>44502150</v>
+        <v>38821244</v>
       </c>
       <c r="J42" s="5">
-        <v>38821244</v>
+        <v>37104081</v>
       </c>
       <c r="K42" s="5">
-        <v>37104081</v>
-      </c>
-      <c r="L42" s="5">
         <v>35326565</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
@@ -14208,15 +14123,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
@@ -14244,47 +14158,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="5">
+        <v>111341000</v>
+      </c>
       <c r="C45" s="5">
-        <v>111341000</v>
+        <v>106258000</v>
       </c>
       <c r="D45" s="5">
-        <v>106258000</v>
+        <v>98214000</v>
       </c>
       <c r="E45" s="5">
-        <v>98214000</v>
+        <v>75794585</v>
       </c>
       <c r="F45" s="5">
-        <v>75794585</v>
+        <v>61023462</v>
       </c>
       <c r="G45" s="5">
-        <v>61023462</v>
+        <v>47838181</v>
       </c>
       <c r="H45" s="5">
-        <v>47838181</v>
+        <v>44502150</v>
       </c>
       <c r="I45" s="5">
-        <v>44502150</v>
+        <v>38821244</v>
       </c>
       <c r="J45" s="5">
-        <v>38821244</v>
+        <v>37104081</v>
       </c>
       <c r="K45" s="5">
-        <v>37104081</v>
-      </c>
-      <c r="L45" s="5">
         <v>35326565</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -14296,45 +14206,43 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="5">
+        <v>406000</v>
+      </c>
       <c r="C47" s="5">
-        <v>406000</v>
+        <v>655000</v>
       </c>
       <c r="D47" s="5">
-        <v>655000</v>
+        <v>315000</v>
       </c>
       <c r="E47" s="5">
-        <v>315000</v>
+        <v>142231</v>
       </c>
       <c r="F47" s="5">
-        <v>142231</v>
+        <v>284831</v>
       </c>
       <c r="G47" s="5">
-        <v>284831</v>
+        <v>269348</v>
       </c>
       <c r="H47" s="5">
-        <v>269348</v>
+        <v>167341</v>
       </c>
       <c r="I47" s="5">
-        <v>167341</v>
+        <v>133460</v>
       </c>
       <c r="J47" s="5">
-        <v>133460</v>
+        <v>108901</v>
       </c>
       <c r="K47" s="5">
-        <v>108901</v>
-      </c>
-      <c r="L47" s="5">
         <v>105780</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -14346,9 +14254,8 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>493</v>
       </c>
@@ -14362,193 +14269,189 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="5">
+        <v>28836000</v>
+      </c>
       <c r="C50" s="5">
-        <v>28836000</v>
+        <v>22675000</v>
       </c>
       <c r="D50" s="5">
-        <v>22675000</v>
+        <v>20738000</v>
       </c>
       <c r="E50" s="5">
-        <v>20738000</v>
+        <v>24879499</v>
       </c>
       <c r="F50" s="5">
-        <v>24879499</v>
+        <v>20014953</v>
       </c>
       <c r="G50" s="5">
-        <v>20014953</v>
+        <v>15938821</v>
       </c>
       <c r="H50" s="5">
-        <v>15938821</v>
+        <v>11716968</v>
       </c>
       <c r="I50" s="5">
-        <v>11716968</v>
+        <v>8573793</v>
       </c>
       <c r="J50" s="5">
-        <v>8573793</v>
+        <v>7247647</v>
       </c>
       <c r="K50" s="5">
-        <v>7247647</v>
-      </c>
-      <c r="L50" s="5">
         <v>7227440</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="5">
+        <v>4180000</v>
+      </c>
       <c r="C51" s="5">
-        <v>4180000</v>
+        <v>3399000</v>
       </c>
       <c r="D51" s="5">
-        <v>3399000</v>
+        <v>3204000</v>
       </c>
       <c r="E51" s="5">
-        <v>3204000</v>
+        <v>1655540</v>
       </c>
       <c r="F51" s="5">
-        <v>1655540</v>
+        <v>1094290</v>
       </c>
       <c r="G51" s="5">
-        <v>1094290</v>
+        <v>882648</v>
       </c>
       <c r="H51" s="5">
-        <v>882648</v>
+        <v>1299684</v>
       </c>
       <c r="I51" s="5">
-        <v>1299684</v>
+        <v>1158487</v>
       </c>
       <c r="J51" s="5">
-        <v>1158487</v>
+        <v>1232688</v>
       </c>
       <c r="K51" s="5">
-        <v>1232688</v>
-      </c>
-      <c r="L51" s="5">
         <v>1212288</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="5">
+        <v>24656000</v>
+      </c>
       <c r="C52" s="5">
-        <v>24656000</v>
+        <v>19276000</v>
       </c>
       <c r="D52" s="5">
-        <v>19276000</v>
+        <v>17534000</v>
       </c>
       <c r="E52" s="5">
-        <v>17534000</v>
+        <v>23223959</v>
       </c>
       <c r="F52" s="5">
-        <v>23223959</v>
+        <v>18920663</v>
       </c>
       <c r="G52" s="5">
-        <v>18920663</v>
+        <v>15056173</v>
       </c>
       <c r="H52" s="5">
-        <v>15056173</v>
+        <v>10417284</v>
       </c>
       <c r="I52" s="5">
-        <v>10417284</v>
+        <v>7415306</v>
       </c>
       <c r="J52" s="5">
-        <v>7415306</v>
+        <v>6014959</v>
       </c>
       <c r="K52" s="5">
-        <v>6014959</v>
-      </c>
-      <c r="L52" s="5">
         <v>6015152</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="5">
+        <v>1093000</v>
+      </c>
       <c r="C53" s="5">
-        <v>1093000</v>
+        <v>6808000</v>
       </c>
       <c r="D53" s="5">
-        <v>6808000</v>
+        <v>11758000</v>
       </c>
       <c r="E53" s="5">
-        <v>11758000</v>
-      </c>
-      <c r="F53" s="5">
         <v>13804521</v>
       </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
       <c r="G53" s="3">
         <v>0</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
+      <c r="H53" s="5">
         <v>4995000</v>
       </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
       <c r="J53" s="3">
         <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="5">
+        <v>1093000</v>
+      </c>
       <c r="C54" s="5">
-        <v>1093000</v>
+        <v>6808000</v>
       </c>
       <c r="D54" s="5">
-        <v>6808000</v>
+        <v>11758000</v>
       </c>
       <c r="E54" s="5">
-        <v>11758000</v>
-      </c>
-      <c r="F54" s="5">
         <v>13804521</v>
       </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="H54" s="5">
         <v>4995000</v>
       </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
@@ -14574,9 +14477,6 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -14590,7 +14490,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14608,7 +14508,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="B2" s="2">
         <v>44926</v>
       </c>

--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Desktop\University\IDMP\IDMP_Submissions\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78887F74-6200-4EAD-B186-8381472B715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712980B3-DC10-4B4A-B95D-AD891E07F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="5" activeTab="12" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="3" r:id="rId3"/>
     <sheet name="Balance Sheet $" sheetId="4" r:id="rId4"/>
-    <sheet name="Balance Sheet Percentage Compos" sheetId="5" r:id="rId5"/>
-    <sheet name="Concentrations of Credit" sheetId="6" r:id="rId6"/>
+    <sheet name="Balance Sheet Percentage" sheetId="5" r:id="rId5"/>
+    <sheet name="Credit Concentration" sheetId="6" r:id="rId6"/>
     <sheet name="Interest Rate Risk" sheetId="7" r:id="rId7"/>
-    <sheet name="Liquidity &amp; Funding" sheetId="8" r:id="rId8"/>
-    <sheet name="Liquidity &amp; Investment Portfoli" sheetId="9" r:id="rId9"/>
-    <sheet name="Capital Analysis-a" sheetId="10" r:id="rId10"/>
-    <sheet name="Capital Analysis-b" sheetId="11" r:id="rId11"/>
-    <sheet name="Capital Analysis-c" sheetId="12" r:id="rId12"/>
-    <sheet name="Capital Analysis-d" sheetId="13" r:id="rId13"/>
+    <sheet name="Liquidity and Funding" sheetId="8" r:id="rId8"/>
+    <sheet name="Liquidity and Investment" sheetId="9" r:id="rId9"/>
+    <sheet name="Capital Analysis A" sheetId="10" r:id="rId10"/>
+    <sheet name="Capital Analysis B" sheetId="11" r:id="rId11"/>
+    <sheet name="Capital Analysis C" sheetId="12" r:id="rId12"/>
+    <sheet name="Capital Analysis D" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2032,36 +2031,36 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2094,7 +2093,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>537</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,7 +2318,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>530</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>531</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>532</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>533</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>534</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>535</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>536</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3872,7 +3871,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4415,7 +4414,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5243,7 +5242,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5596,7 +5595,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -5631,7 +5630,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6044,7 +6043,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
@@ -6079,7 +6078,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6587,7 +6586,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -6642,7 +6641,7 @@
       </c>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -6697,7 +6696,7 @@
       </c>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6730,7 +6729,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -6798,41 +6797,41 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>363</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>364</v>
       </c>
@@ -7053,7 +7052,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>365</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>122</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>366</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>178.15</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>367</v>
       </c>
@@ -7363,7 +7362,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>368</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>369</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>370</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>371</v>
       </c>
@@ -7673,7 +7672,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>372</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>373</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>374</v>
       </c>
@@ -7891,7 +7890,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>375</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>376</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>377</v>
       </c>
@@ -8109,7 +8108,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>378</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>379</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>380</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>381</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>382</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8601,7 +8600,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8725,7 +8724,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>383</v>
       </c>
@@ -8759,7 +8758,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>384</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>385</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>386</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9067,7 +9066,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>387</v>
       </c>
@@ -9101,7 +9100,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>384</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>385</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>386</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9409,7 +9408,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>388</v>
       </c>
@@ -9443,7 +9442,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>389</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>390</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>391</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>1382837</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>392</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>2765052</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>393</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>-83721</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>394</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>395</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>4068918</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>396</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>397</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>4068918</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -9961,7 +9960,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>398</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -10047,7 +10046,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>399</v>
       </c>
@@ -10081,7 +10080,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>400</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>3762542</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>401</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>414946</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>402</v>
       </c>
@@ -10243,7 +10242,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>403</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>404</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>405</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>-55000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>406</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>407</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>-54033</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>408</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>4068918</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -10599,7 +10598,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>409</v>
       </c>
@@ -10633,7 +10632,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>410</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>411</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>412</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>413</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>382</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10935,7 +10934,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>414</v>
       </c>
@@ -10969,7 +10968,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>415</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>53790503</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>416</v>
       </c>
@@ -11077,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>417</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>418</v>
       </c>
@@ -11192,65 +11191,80 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EBA2F8-5743-4D87-849B-12EC8AC65D75}">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44926</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44561</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44377</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44012</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43465</v>
-      </c>
-      <c r="K2" s="2">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -11263,198 +11277,198 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10092000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10022000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9265000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5455298</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2203487</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1466078</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1447430</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1418013</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1408593</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1387587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="5">
-        <v>10092000</v>
+        <v>7327000</v>
       </c>
       <c r="C5" s="5">
-        <v>10022000</v>
+        <v>6615000</v>
       </c>
       <c r="D5" s="5">
-        <v>9265000</v>
+        <v>5617000</v>
       </c>
       <c r="E5" s="5">
-        <v>5455298</v>
+        <v>4886841</v>
       </c>
       <c r="F5" s="5">
-        <v>2203487</v>
+        <v>4315134</v>
       </c>
       <c r="G5" s="5">
-        <v>1466078</v>
+        <v>3841891</v>
       </c>
       <c r="H5" s="5">
-        <v>1447430</v>
+        <v>3501782</v>
       </c>
       <c r="I5" s="5">
-        <v>1418013</v>
+        <v>3436505</v>
       </c>
       <c r="J5" s="5">
-        <v>1408593</v>
+        <v>3198747</v>
       </c>
       <c r="K5" s="5">
-        <v>1387587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2765052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" s="5">
-        <v>7327000</v>
+        <v>-1903000</v>
       </c>
       <c r="C6" s="5">
-        <v>6615000</v>
+        <v>-1191000</v>
       </c>
       <c r="D6" s="5">
-        <v>5617000</v>
+        <v>-7000</v>
       </c>
       <c r="E6" s="5">
-        <v>4886841</v>
+        <v>142763</v>
       </c>
       <c r="F6" s="5">
-        <v>4315134</v>
+        <v>622424</v>
       </c>
       <c r="G6" s="5">
-        <v>3841891</v>
+        <v>615345</v>
       </c>
       <c r="H6" s="5">
-        <v>3501782</v>
+        <v>84883</v>
       </c>
       <c r="I6" s="5">
-        <v>3436505</v>
+        <v>82002</v>
       </c>
       <c r="J6" s="5">
-        <v>3198747</v>
+        <v>-52527</v>
       </c>
       <c r="K6" s="5">
-        <v>2765052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-83721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="5">
-        <v>-1903000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-1191000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-7000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>142763</v>
-      </c>
-      <c r="F7" s="5">
-        <v>622424</v>
-      </c>
-      <c r="G7" s="5">
-        <v>615345</v>
-      </c>
-      <c r="H7" s="5">
-        <v>84883</v>
-      </c>
-      <c r="I7" s="5">
-        <v>82002</v>
-      </c>
-      <c r="J7" s="5">
-        <v>-52527</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-83721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B8" s="5">
         <v>15516000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C8" s="5">
         <v>15446000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D8" s="5">
         <v>14875000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E8" s="5">
         <v>10484902</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F8" s="5">
         <v>7141045</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G8" s="5">
         <v>5923314</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H8" s="5">
         <v>5034095</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I8" s="5">
         <v>4936520</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J8" s="5">
         <v>4554813</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K8" s="5">
         <v>4068918</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11466,33 +11480,53 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="B11" s="5">
+        <v>199000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>199000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" s="5">
-        <v>199000</v>
+        <v>61000</v>
       </c>
       <c r="C12" s="5">
-        <v>199000</v>
+        <v>70000</v>
       </c>
       <c r="D12" s="5">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -11516,18 +11550,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" s="5">
-        <v>61000</v>
-      </c>
-      <c r="C13" s="5">
-        <v>70000</v>
-      </c>
-      <c r="D13" s="5">
-        <v>70000</v>
+        <v>136000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -11551,132 +11585,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B14" s="5">
-        <v>136000</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1875000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-1172000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-17000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>129534</v>
+      </c>
+      <c r="F14" s="5">
+        <v>610878</v>
+      </c>
+      <c r="G14" s="5">
+        <v>621144</v>
+      </c>
+      <c r="H14" s="5">
+        <v>84702</v>
+      </c>
+      <c r="I14" s="5">
+        <v>84298</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-49876</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-84599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-1875000</v>
-      </c>
-      <c r="C15" s="5">
-        <v>-1172000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-17000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>129534</v>
-      </c>
-      <c r="F15" s="5">
-        <v>610878</v>
-      </c>
-      <c r="G15" s="5">
-        <v>621144</v>
-      </c>
-      <c r="H15" s="5">
-        <v>84702</v>
-      </c>
-      <c r="I15" s="5">
-        <v>84298</v>
-      </c>
-      <c r="J15" s="5">
-        <v>-49876</v>
-      </c>
-      <c r="K15" s="5">
-        <v>-84599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -11691,288 +11725,268 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16995000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>16349000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>14622000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10355368</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6530167</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5302170</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4949393</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4852222</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4604689</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4153517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B19" s="5">
+        <v>435</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" s="5">
         <v>16995000</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C24" s="5">
         <v>16349000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D24" s="5">
         <v>14622000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E24" s="5">
         <v>10355368</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F24" s="5">
         <v>6530167</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G24" s="5">
         <v>5302170</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H24" s="5">
         <v>4949393</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I24" s="5">
         <v>4852222</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J24" s="5">
         <v>4604689</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K24" s="5">
         <v>4153517</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="5">
-        <v>16995000</v>
-      </c>
-      <c r="C25" s="5">
-        <v>16349000</v>
-      </c>
-      <c r="D25" s="5">
-        <v>14622000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>10355368</v>
-      </c>
-      <c r="F25" s="5">
-        <v>6530167</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5302170</v>
-      </c>
-      <c r="H25" s="5">
-        <v>4949393</v>
-      </c>
-      <c r="I25" s="5">
-        <v>4852222</v>
-      </c>
-      <c r="J25" s="5">
-        <v>4604689</v>
-      </c>
-      <c r="K25" s="5">
-        <v>4153517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -11984,24 +11998,44 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12034,9 +12068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -12069,9 +12103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -12104,9 +12138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -12139,9 +12173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -12174,91 +12208,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B34" s="5">
         <v>16995000</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C34" s="5">
         <v>16349000</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D34" s="5">
         <v>14622000</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E34" s="5">
         <v>10355368</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F34" s="5">
         <v>6530167</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G34" s="5">
         <v>5302170</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H34" s="5">
         <v>4949393</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I34" s="5">
         <v>4852222</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J34" s="5">
         <v>4604689</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K34" s="5">
         <v>4153517</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -12270,24 +12284,44 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -12320,9 +12354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -12355,401 +12389,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="B40" s="5">
+        <v>876000</v>
+      </c>
+      <c r="C40" s="5">
+        <v>705000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>507000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>450483</v>
+      </c>
+      <c r="F40" s="5">
+        <v>483463</v>
+      </c>
+      <c r="G40" s="5">
+        <v>573492</v>
+      </c>
+      <c r="H40" s="5">
+        <v>372457</v>
+      </c>
+      <c r="I40" s="5">
+        <v>364282</v>
+      </c>
+      <c r="J40" s="5">
+        <v>336086</v>
+      </c>
+      <c r="K40" s="5">
+        <v>340813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B41" s="5">
+        <v>453</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" s="5">
         <v>876000</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C43" s="5">
         <v>705000</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D43" s="5">
         <v>507000</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E43" s="5">
         <v>450483</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F43" s="5">
         <v>483463</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G43" s="5">
         <v>573492</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H43" s="5">
         <v>372457</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I43" s="5">
         <v>364282</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J43" s="5">
         <v>336086</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K43" s="5">
         <v>340813</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B44" s="5">
+        <v>456</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B47" s="5">
         <v>876000</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C47" s="5">
         <v>705000</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D47" s="5">
         <v>507000</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E47" s="5">
         <v>450483</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F47" s="5">
         <v>483463</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G47" s="5">
         <v>573492</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H47" s="5">
         <v>372457</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I47" s="5">
         <v>364282</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J47" s="5">
         <v>336086</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K47" s="5">
         <v>340813</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B48" s="5">
-        <v>876000</v>
-      </c>
-      <c r="C48" s="5">
-        <v>705000</v>
-      </c>
-      <c r="D48" s="5">
-        <v>507000</v>
-      </c>
-      <c r="E48" s="5">
-        <v>450483</v>
-      </c>
-      <c r="F48" s="5">
-        <v>483463</v>
-      </c>
-      <c r="G48" s="5">
-        <v>573492</v>
-      </c>
-      <c r="H48" s="5">
-        <v>372457</v>
-      </c>
-      <c r="I48" s="5">
-        <v>364282</v>
-      </c>
-      <c r="J48" s="5">
-        <v>336086</v>
-      </c>
-      <c r="K48" s="5">
-        <v>340813</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="B49" s="5">
+        <v>17871000</v>
+      </c>
+      <c r="C49" s="5">
+        <v>17054000</v>
+      </c>
+      <c r="D49" s="5">
+        <v>15129000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>10805851</v>
+      </c>
+      <c r="F49" s="5">
+        <v>7013630</v>
+      </c>
+      <c r="G49" s="5">
+        <v>5875662</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5321850</v>
+      </c>
+      <c r="I49" s="5">
+        <v>5216504</v>
+      </c>
+      <c r="J49" s="5">
+        <v>4940775</v>
+      </c>
+      <c r="K49" s="5">
+        <v>4494330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B50" s="5">
-        <v>17871000</v>
-      </c>
-      <c r="C50" s="5">
-        <v>17054000</v>
-      </c>
-      <c r="D50" s="5">
-        <v>15129000</v>
-      </c>
-      <c r="E50" s="5">
-        <v>10805851</v>
-      </c>
-      <c r="F50" s="5">
-        <v>7013630</v>
-      </c>
-      <c r="G50" s="5">
-        <v>5875662</v>
-      </c>
-      <c r="H50" s="5">
-        <v>5321850</v>
-      </c>
-      <c r="I50" s="5">
-        <v>5216504</v>
-      </c>
-      <c r="J50" s="5">
-        <v>4940775</v>
-      </c>
-      <c r="K50" s="5">
-        <v>4494330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12766,21 +12765,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>462</v>
       </c>
@@ -12830,7 +12829,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>463</v>
       </c>
@@ -12845,7 +12844,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>464</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>465</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>466</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>3163122</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>467</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>1197879</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>24469173</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>469</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>470</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>471</v>
       </c>
@@ -13125,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>472</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>473</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>474</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>475</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>476</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>477</v>
       </c>
@@ -13335,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>478</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>28831831</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>479</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>12417266</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13418,7 +13417,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>480</v>
       </c>
@@ -13433,7 +13432,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>464</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>465</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>481</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>466</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>232093</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>467</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>468</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>6262640</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>469</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>482</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>483</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>474</v>
       </c>
@@ -13783,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>484</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>485</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>476</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>477</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>486</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>6494733</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>479</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -14006,7 +14005,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>487</v>
       </c>
@@ -14041,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -14054,7 +14053,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>488</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>35326565</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>489</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>490</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>491</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>35326565</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -14207,7 +14206,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>492</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>105780</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -14255,7 +14254,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>493</v>
       </c>
@@ -14270,7 +14269,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>494</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>7227440</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>495</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>1212288</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>496</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>6015152</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>497</v>
       </c>
@@ -14410,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>495</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>496</v>
       </c>
@@ -14489,25 +14488,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0010573-4DD8-439F-8D47-FFA56CA453D2}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>537</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>498</v>
       </c>
@@ -14557,7 +14556,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -14572,7 +14571,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>499</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>500</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>501</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>502</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>503</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>4153517</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -14760,7 +14759,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>504</v>
       </c>
@@ -14775,7 +14774,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>505</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>506</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>507</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>340813</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>508</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>509</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>510</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>340813</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -14998,7 +14997,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>511</v>
       </c>
@@ -15013,7 +15012,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>512</v>
       </c>
@@ -15048,7 +15047,7 @@
         <v>4494330</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>513</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>514</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>515</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>4494330</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -15166,7 +15165,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>516</v>
       </c>
@@ -15181,7 +15180,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>517</v>
       </c>
@@ -15196,7 +15195,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>518</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>3163122</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>519</v>
       </c>
@@ -15266,7 +15265,7 @@
         <v>1197879</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>520</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>24469173</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>521</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>28831831</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>522</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>12417266</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -15384,7 +15383,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>523</v>
       </c>
@@ -15399,7 +15398,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>518</v>
       </c>
@@ -15434,7 +15433,7 @@
         <v>232093</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>519</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>520</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>6262640</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>524</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>6494733</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>522</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -15587,7 +15586,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>525</v>
       </c>
@@ -15602,7 +15601,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>488</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>35326565</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>526</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>527</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>528</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>529</v>
       </c>
@@ -15790,23 +15789,23 @@
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -15820,7 +15819,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -15836,7 +15835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>537</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>-7.49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>-7.51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -16078,7 +16077,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>31.93</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -16320,7 +16319,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -16358,7 +16357,7 @@
         <v>-55.57</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -16396,7 +16395,7 @@
         <v>-75.53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -16472,7 +16471,7 @@
         <v>-39.18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -16486,7 +16485,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>-3.84</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -16538,7 +16537,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>-57.56</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>-39.71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>-23.13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -16690,7 +16689,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -16728,7 +16727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -16780,7 +16779,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>-41.11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -16832,7 +16831,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>-3.51</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -16946,7 +16945,7 @@
         <v>-1.65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -16960,7 +16959,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
@@ -16998,7 +16997,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -17036,7 +17035,7 @@
         <v>-12.66</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>572.66</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>-47.87</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -17164,7 +17163,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
@@ -17202,7 +17201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>1666.33</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>83</v>
       </c>
@@ -17278,7 +17277,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>-39.32</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -17330,7 +17329,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>-40.26</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>86</v>
       </c>
@@ -17406,7 +17405,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>87</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -17482,7 +17481,7 @@
         <v>-38.42</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -17496,7 +17495,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>89</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>-39.67</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -17548,7 +17547,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>91</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>92</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>-39.67</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -17676,7 +17675,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>93</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>-83.16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>94</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>-66.489999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -17828,7 +17827,7 @@
         <v>4957.1400000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -17842,7 +17841,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -17869,42 +17868,42 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -17937,7 +17936,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -17970,7 +17969,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>537</v>
       </c>
@@ -18065,7 +18064,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -18160,7 +18159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
@@ -18445,7 +18444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
@@ -18635,7 +18634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -18825,7 +18824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
@@ -18920,7 +18919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -19015,7 +19014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -19300,7 +19299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
@@ -19490,7 +19489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>112</v>
       </c>
@@ -19585,7 +19584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
@@ -19680,7 +19679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -19965,7 +19964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -20060,7 +20059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -20155,7 +20154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -20250,7 +20249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -20283,7 +20282,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -20378,7 +20377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>121</v>
       </c>
@@ -20473,7 +20472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>122</v>
       </c>
@@ -20568,7 +20567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -20663,7 +20662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>124</v>
       </c>
@@ -20758,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -20791,7 +20790,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>125</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -20919,7 +20918,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>126</v>
       </c>
@@ -20954,7 +20953,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
@@ -21049,7 +21048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>128</v>
       </c>
@@ -21144,7 +21143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -21239,7 +21238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>130</v>
       </c>
@@ -21334,7 +21333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
@@ -21429,7 +21428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>132</v>
       </c>
@@ -21524,7 +21523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>134</v>
       </c>
@@ -21714,7 +21713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -21809,7 +21808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>136</v>
       </c>
@@ -21904,7 +21903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>137</v>
       </c>
@@ -21999,7 +21998,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>138</v>
       </c>
@@ -22094,7 +22093,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>139</v>
       </c>
@@ -22189,7 +22188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>140</v>
       </c>
@@ -22284,7 +22283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>141</v>
       </c>
@@ -22379,7 +22378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>142</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>143</v>
       </c>
@@ -22569,7 +22568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>144</v>
       </c>
@@ -22664,7 +22663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>145</v>
       </c>
@@ -22759,7 +22758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>146</v>
       </c>
@@ -22854,7 +22853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>147</v>
       </c>
@@ -22949,7 +22948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -22982,7 +22981,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -23077,7 +23076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
@@ -23172,7 +23171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -23267,7 +23266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>148</v>
       </c>
@@ -23362,7 +23361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -23490,7 +23489,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>149</v>
       </c>
@@ -23598,20 +23597,20 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>537</v>
       </c>
@@ -23652,7 +23651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -23669,7 +23668,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -23710,7 +23709,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -23751,7 +23750,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -23792,7 +23791,7 @@
         <v>-5.57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -23833,7 +23832,7 @@
         <v>257.10000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -23874,7 +23873,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -23915,7 +23914,7 @@
         <v>95.44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -23956,7 +23955,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -24038,7 +24037,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -24079,7 +24078,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -24120,7 +24119,7 @@
         <v>144.54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -24161,7 +24160,7 @@
         <v>95.24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -24202,7 +24201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -24243,7 +24242,7 @@
         <v>59.71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
@@ -24284,7 +24283,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>165</v>
       </c>
@@ -24325,7 +24324,7 @@
         <v>103.47</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>166</v>
       </c>
@@ -24366,7 +24365,7 @@
         <v>43.57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>167</v>
       </c>
@@ -24407,7 +24406,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -24422,7 +24421,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>168</v>
       </c>
@@ -24463,7 +24462,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>169</v>
       </c>
@@ -24504,7 +24503,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>170</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
@@ -24627,7 +24626,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>173</v>
       </c>
@@ -24668,7 +24667,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
@@ -24709,7 +24708,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>175</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -24765,7 +24764,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>176</v>
       </c>
@@ -24782,7 +24781,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>177</v>
       </c>
@@ -24823,7 +24822,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>178</v>
       </c>
@@ -24864,7 +24863,7 @@
         <v>-9.98</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>179</v>
       </c>
@@ -24905,7 +24904,7 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>180</v>
       </c>
@@ -24946,7 +24945,7 @@
         <v>87.66</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>181</v>
       </c>
@@ -24987,7 +24986,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>182</v>
       </c>
@@ -25028,7 +25027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>183</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>184</v>
       </c>
@@ -25110,7 +25109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>185</v>
       </c>
@@ -25151,7 +25150,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>186</v>
       </c>
@@ -25192,7 +25191,7 @@
         <v>39.07</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
@@ -25233,7 +25232,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>188</v>
       </c>
@@ -25274,7 +25273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>189</v>
       </c>
@@ -25315,7 +25314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>190</v>
       </c>
@@ -25356,7 +25355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>191</v>
       </c>
@@ -25397,7 +25396,7 @@
         <v>496.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>192</v>
       </c>
@@ -25438,7 +25437,7 @@
         <v>-13.33</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>193</v>
       </c>
@@ -25479,7 +25478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>194</v>
       </c>
@@ -25520,7 +25519,7 @@
         <v>73.98</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>195</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>196</v>
       </c>
@@ -25602,7 +25601,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>197</v>
       </c>
@@ -25643,7 +25642,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -25658,7 +25657,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>198</v>
       </c>
@@ -25675,7 +25674,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>199</v>
       </c>
@@ -25712,7 +25711,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>200</v>
       </c>
@@ -25753,7 +25752,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>201</v>
       </c>
@@ -25794,7 +25793,7 @@
         <v>-13.52</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>202</v>
       </c>
@@ -25835,7 +25834,7 @@
         <v>136.28</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>203</v>
       </c>
@@ -25876,7 +25875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>204</v>
       </c>
@@ -25917,7 +25916,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>205</v>
       </c>
@@ -25958,7 +25957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>206</v>
       </c>
@@ -26012,42 +26011,42 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -26081,7 +26080,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>537</v>
       </c>
@@ -26176,7 +26175,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>207</v>
       </c>
@@ -26272,7 +26271,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>208</v>
       </c>
@@ -26368,7 +26367,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>209</v>
       </c>
@@ -26464,7 +26463,7 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>210</v>
       </c>
@@ -26560,7 +26559,7 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
@@ -26656,7 +26655,7 @@
       </c>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -26690,7 +26689,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -26786,7 +26785,7 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -26882,7 +26881,7 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>165</v>
       </c>
@@ -26978,7 +26977,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -27074,7 +27073,7 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -27170,7 +27169,7 @@
       </c>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>202</v>
       </c>
@@ -27266,7 +27265,7 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>211</v>
       </c>
@@ -27362,7 +27361,7 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -27396,7 +27395,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>167</v>
       </c>
@@ -27492,7 +27491,7 @@
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -27526,7 +27525,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -27622,7 +27621,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>212</v>
       </c>
@@ -27718,7 +27717,7 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>170</v>
       </c>
@@ -27814,7 +27813,7 @@
       </c>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -27910,7 +27909,7 @@
       </c>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
@@ -28006,7 +28005,7 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -28102,7 +28101,7 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
@@ -28198,7 +28197,7 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
@@ -28294,7 +28293,7 @@
       </c>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -28328,7 +28327,7 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>216</v>
       </c>
@@ -28424,7 +28423,7 @@
       </c>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -28458,7 +28457,7 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>217</v>
       </c>
@@ -28494,7 +28493,7 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>177</v>
       </c>
@@ -28590,7 +28589,7 @@
       </c>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>218</v>
       </c>
@@ -28686,7 +28685,7 @@
       </c>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>179</v>
       </c>
@@ -28782,7 +28781,7 @@
       </c>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>219</v>
       </c>
@@ -28878,7 +28877,7 @@
       </c>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>220</v>
       </c>
@@ -28974,7 +28973,7 @@
       </c>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>182</v>
       </c>
@@ -29070,7 +29069,7 @@
       </c>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>183</v>
       </c>
@@ -29166,7 +29165,7 @@
       </c>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>184</v>
       </c>
@@ -29262,7 +29261,7 @@
       </c>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>185</v>
       </c>
@@ -29358,7 +29357,7 @@
       </c>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>186</v>
       </c>
@@ -29454,7 +29453,7 @@
       </c>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>187</v>
       </c>
@@ -29550,7 +29549,7 @@
       </c>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -29584,7 +29583,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -29680,7 +29679,7 @@
       </c>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>222</v>
       </c>
@@ -29776,7 +29775,7 @@
       </c>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>223</v>
       </c>
@@ -29872,7 +29871,7 @@
       </c>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>224</v>
       </c>
@@ -29968,7 +29967,7 @@
       </c>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -30002,7 +30001,7 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>193</v>
       </c>
@@ -30098,7 +30097,7 @@
       </c>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>194</v>
       </c>
@@ -30194,7 +30193,7 @@
       </c>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>195</v>
       </c>
@@ -30290,7 +30289,7 @@
       </c>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -30324,7 +30323,7 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>196</v>
       </c>
@@ -30420,7 +30419,7 @@
       </c>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>197</v>
       </c>
@@ -30516,7 +30515,7 @@
       </c>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -30550,7 +30549,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>225</v>
       </c>
@@ -30646,7 +30645,7 @@
       </c>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>226</v>
       </c>
@@ -30742,7 +30741,7 @@
       </c>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -30776,7 +30775,7 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>227</v>
       </c>
@@ -30885,42 +30884,42 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -31015,7 +31014,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>228</v>
       </c>
@@ -31110,7 +31109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -31205,7 +31204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>229</v>
       </c>
@@ -31300,7 +31299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>230</v>
       </c>
@@ -31395,7 +31394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>231</v>
       </c>
@@ -31490,7 +31489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -31585,7 +31584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>233</v>
       </c>
@@ -31680,7 +31679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>234</v>
       </c>
@@ -31775,7 +31774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>235</v>
       </c>
@@ -31870,7 +31869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>236</v>
       </c>
@@ -31965,7 +31964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>237</v>
       </c>
@@ -32060,7 +32059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>238</v>
       </c>
@@ -32155,7 +32154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>239</v>
       </c>
@@ -32250,7 +32249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>240</v>
       </c>
@@ -32345,7 +32344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>241</v>
       </c>
@@ -32440,7 +32439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -32473,7 +32472,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>242</v>
       </c>
@@ -32568,7 +32567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>155</v>
       </c>
@@ -32663,7 +32662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>243</v>
       </c>
@@ -32758,7 +32757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>244</v>
       </c>
@@ -32853,7 +32852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>245</v>
       </c>
@@ -32948,7 +32947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>246</v>
       </c>
@@ -33043,7 +33042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>247</v>
       </c>
@@ -33138,7 +33137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>248</v>
       </c>
@@ -33233,7 +33232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>249</v>
       </c>
@@ -33328,7 +33327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>250</v>
       </c>
@@ -33423,7 +33422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>251</v>
       </c>
@@ -33518,7 +33517,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>252</v>
       </c>
@@ -33613,7 +33612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -33646,7 +33645,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>253</v>
       </c>
@@ -33681,7 +33680,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>254</v>
       </c>
@@ -33776,7 +33775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>255</v>
       </c>
@@ -33871,7 +33870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -33904,7 +33903,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>256</v>
       </c>
@@ -33939,7 +33938,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -34034,7 +34033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>258</v>
       </c>
@@ -34129,7 +34128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>259</v>
       </c>
@@ -34224,7 +34223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -34257,7 +34256,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>260</v>
       </c>
@@ -34292,7 +34291,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>261</v>
       </c>
@@ -34387,7 +34386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>257</v>
       </c>
@@ -34482,7 +34481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>259</v>
       </c>
@@ -34590,42 +34589,42 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>537</v>
       </c>
@@ -34720,7 +34719,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>262</v>
       </c>
@@ -34816,7 +34815,7 @@
       </c>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>263</v>
       </c>
@@ -34912,7 +34911,7 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>264</v>
       </c>
@@ -35008,7 +35007,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>265</v>
       </c>
@@ -35104,7 +35103,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -35138,7 +35137,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>266</v>
       </c>
@@ -35234,7 +35233,7 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>264</v>
       </c>
@@ -35330,7 +35329,7 @@
       </c>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>265</v>
       </c>
@@ -35426,7 +35425,7 @@
       </c>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>267</v>
       </c>
@@ -35522,7 +35521,7 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -35556,7 +35555,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>268</v>
       </c>
@@ -35652,7 +35651,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>269</v>
       </c>
@@ -35748,7 +35747,7 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -35782,7 +35781,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>270</v>
       </c>
@@ -35878,7 +35877,7 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>271</v>
       </c>
@@ -35974,7 +35973,7 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>272</v>
       </c>
@@ -36070,7 +36069,7 @@
       </c>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -36104,7 +36103,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>273</v>
       </c>
@@ -36140,7 +36139,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>274</v>
       </c>
@@ -36236,7 +36235,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>275</v>
       </c>
@@ -36332,7 +36331,7 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>276</v>
       </c>
@@ -36428,7 +36427,7 @@
       </c>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -36462,7 +36461,7 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>277</v>
       </c>
@@ -36558,7 +36557,7 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>278</v>
       </c>
@@ -36654,7 +36653,7 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -36688,7 +36687,7 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>279</v>
       </c>
@@ -36724,7 +36723,7 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>280</v>
       </c>
@@ -36820,7 +36819,7 @@
       </c>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>281</v>
       </c>
@@ -36916,7 +36915,7 @@
       </c>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>282</v>
       </c>
@@ -37012,7 +37011,7 @@
       </c>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -37046,7 +37045,7 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>283</v>
       </c>
@@ -37142,7 +37141,7 @@
       </c>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>284</v>
       </c>
@@ -37238,7 +37237,7 @@
       </c>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>285</v>
       </c>
@@ -37334,7 +37333,7 @@
       </c>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -37368,7 +37367,7 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>286</v>
       </c>
@@ -37464,7 +37463,7 @@
       </c>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>287</v>
       </c>
@@ -37560,7 +37559,7 @@
       </c>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>282</v>
       </c>
@@ -37656,7 +37655,7 @@
       </c>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -37690,7 +37689,7 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>288</v>
       </c>
@@ -37726,7 +37725,7 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>270</v>
       </c>
@@ -37822,7 +37821,7 @@
       </c>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>271</v>
       </c>
@@ -37918,7 +37917,7 @@
       </c>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>272</v>
       </c>
@@ -38027,40 +38026,40 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -38155,7 +38154,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
@@ -38251,7 +38250,7 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>290</v>
       </c>
@@ -38347,7 +38346,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
@@ -38443,7 +38442,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>292</v>
       </c>
@@ -38539,7 +38538,7 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>293</v>
       </c>
@@ -38635,7 +38634,7 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>294</v>
       </c>
@@ -38731,7 +38730,7 @@
       </c>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>295</v>
       </c>
@@ -38827,7 +38826,7 @@
       </c>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -38861,7 +38860,7 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>296</v>
       </c>
@@ -38957,7 +38956,7 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>297</v>
       </c>
@@ -39053,7 +39052,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>298</v>
       </c>
@@ -39149,7 +39148,7 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>299</v>
       </c>
@@ -39245,7 +39244,7 @@
       </c>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>186</v>
       </c>
@@ -39341,7 +39340,7 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>187</v>
       </c>
@@ -39437,7 +39436,7 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -39471,7 +39470,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>300</v>
       </c>
@@ -39507,7 +39506,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>301</v>
       </c>
@@ -39603,7 +39602,7 @@
       </c>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>302</v>
       </c>
@@ -39699,7 +39698,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -39795,7 +39794,7 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>303</v>
       </c>
@@ -39891,7 +39890,7 @@
       </c>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>304</v>
       </c>
@@ -39987,7 +39986,7 @@
       </c>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>305</v>
       </c>
@@ -40083,7 +40082,7 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -40179,7 +40178,7 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>306</v>
       </c>
@@ -40275,7 +40274,7 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>307</v>
       </c>
@@ -40371,7 +40370,7 @@
       </c>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>308</v>
       </c>
@@ -40467,7 +40466,7 @@
       </c>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>309</v>
       </c>
@@ -40563,7 +40562,7 @@
       </c>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>310</v>
       </c>
@@ -40659,7 +40658,7 @@
       </c>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>311</v>
       </c>
@@ -40755,7 +40754,7 @@
       </c>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>312</v>
       </c>
@@ -40851,7 +40850,7 @@
       </c>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -40885,7 +40884,7 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>313</v>
       </c>
@@ -40921,7 +40920,7 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>290</v>
       </c>
@@ -40977,7 +40976,7 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>291</v>
       </c>
@@ -41033,7 +41032,7 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>292</v>
       </c>
@@ -41089,7 +41088,7 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>293</v>
       </c>
@@ -41145,7 +41144,7 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>294</v>
       </c>
@@ -41201,7 +41200,7 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>187</v>
       </c>
@@ -41257,7 +41256,7 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -41291,7 +41290,7 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>296</v>
       </c>
@@ -41347,7 +41346,7 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>297</v>
       </c>
@@ -41403,7 +41402,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>298</v>
       </c>
@@ -41459,7 +41458,7 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>299</v>
       </c>
@@ -41515,7 +41514,7 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>186</v>
       </c>
@@ -41571,7 +41570,7 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>187</v>
       </c>
@@ -41627,7 +41626,7 @@
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -41661,7 +41660,7 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>314</v>
       </c>
@@ -41697,7 +41696,7 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>315</v>
       </c>
@@ -41753,7 +41752,7 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -41809,7 +41808,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>302</v>
       </c>
@@ -41865,7 +41864,7 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>316</v>
       </c>
@@ -41921,7 +41920,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>317</v>
       </c>
@@ -41977,7 +41976,7 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>318</v>
       </c>
@@ -42033,7 +42032,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>319</v>
       </c>
@@ -42089,7 +42088,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>320</v>
       </c>
@@ -42145,7 +42144,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>321</v>
       </c>
@@ -42201,7 +42200,7 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>322</v>
       </c>
@@ -42257,7 +42256,7 @@
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>323</v>
       </c>
@@ -42313,7 +42312,7 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>324</v>
       </c>
@@ -42369,7 +42368,7 @@
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>325</v>
       </c>
@@ -42425,7 +42424,7 @@
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>326</v>
       </c>
@@ -42481,7 +42480,7 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>327</v>
       </c>
@@ -42537,7 +42536,7 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>328</v>
       </c>
@@ -42593,7 +42592,7 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>329</v>
       </c>
@@ -42662,42 +42661,42 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -42792,7 +42791,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>330</v>
       </c>
@@ -42888,7 +42887,7 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -42984,7 +42983,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>331</v>
       </c>
@@ -43080,7 +43079,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>332</v>
       </c>
@@ -43176,7 +43175,7 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
@@ -43272,7 +43271,7 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -43306,7 +43305,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>334</v>
       </c>
@@ -43342,7 +43341,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>335</v>
       </c>
@@ -43378,7 +43377,7 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>336</v>
       </c>
@@ -43474,7 +43473,7 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>337</v>
       </c>
@@ -43570,7 +43569,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>338</v>
       </c>
@@ -43666,7 +43665,7 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>339</v>
       </c>
@@ -43762,7 +43761,7 @@
       </c>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>340</v>
       </c>
@@ -43858,7 +43857,7 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>341</v>
       </c>
@@ -43954,7 +43953,7 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>342</v>
       </c>
@@ -44050,7 +44049,7 @@
       </c>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>343</v>
       </c>
@@ -44146,7 +44145,7 @@
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>344</v>
       </c>
@@ -44242,7 +44241,7 @@
       </c>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>345</v>
       </c>
@@ -44338,7 +44337,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>346</v>
       </c>
@@ -44434,7 +44433,7 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -44468,7 +44467,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>347</v>
       </c>
@@ -44504,7 +44503,7 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>348</v>
       </c>
@@ -44600,7 +44599,7 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>349</v>
       </c>
@@ -44696,7 +44695,7 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>350</v>
       </c>
@@ -44792,7 +44791,7 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>351</v>
       </c>
@@ -44888,7 +44887,7 @@
       </c>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>352</v>
       </c>
@@ -44984,7 +44983,7 @@
       </c>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>353</v>
       </c>
@@ -45080,7 +45079,7 @@
       </c>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>354</v>
       </c>
@@ -45176,7 +45175,7 @@
       </c>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -45210,7 +45209,7 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>355</v>
       </c>
@@ -45266,7 +45265,7 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>356</v>
       </c>
@@ -45322,7 +45321,7 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>357</v>
       </c>
@@ -45378,7 +45377,7 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>358</v>
       </c>
@@ -45434,7 +45433,7 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>359</v>
       </c>
@@ -45490,7 +45489,7 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>360</v>
       </c>
@@ -45546,7 +45545,7 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>361</v>
       </c>
@@ -45602,7 +45601,7 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>362</v>
       </c>
@@ -45664,6 +45663,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0DE6589DD34254188178090449037BF" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2563db0a538b14c487eabd6652bcd898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730d41e5-c164-45c3-bb6c-41d9e94615f1" xmlns:ns4="b8b0a607-b9ac-4786-8bb5-b92c3ab51463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="def8795802d7894f1ead6a01262118ab" ns3:_="" ns4:_="">
     <xsd:import namespace="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
@@ -45840,38 +45856,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87582B45-A2AF-4695-8865-205C9496AE35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
-    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45894,9 +45882,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87582B45-A2AF-4695-8865-205C9496AE35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
+    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248BB615-5756-48F9-9833-F49FA18527D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33710D3-2E8E-4680-868B-E98E0B0D9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
@@ -1269,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
-  <dimension ref="A3:AE61"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,1344 +1305,1534 @@
     <col min="32" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B1" s="2">
         <v>44926</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C1" s="2">
         <v>44926</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D1" s="2">
         <v>44926</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E1" s="2">
         <v>44742</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F1" s="2">
         <v>44742</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G1" s="2">
         <v>44742</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H1" s="2">
         <v>44561</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I1" s="2">
         <v>44561</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J1" s="2">
         <v>44561</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K1" s="2">
         <v>44377</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L1" s="2">
         <v>44377</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M1" s="2">
         <v>44377</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N1" s="2">
         <v>44196</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O1" s="2">
         <v>44196</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P1" s="2">
         <v>44196</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q1" s="2">
         <v>44012</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R1" s="2">
         <v>44012</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S1" s="2">
         <v>44012</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T1" s="2">
         <v>43830</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U1" s="2">
         <v>43830</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V1" s="2">
         <v>43830</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W1" s="2">
         <v>43646</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X1" s="2">
         <v>43646</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y1" s="2">
         <v>43646</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z1" s="2">
         <v>43465</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA1" s="2">
         <v>43465</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB1" s="2">
         <v>43465</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC1" s="2">
         <v>43281</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD1" s="2">
         <v>43281</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE1" s="2">
         <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="D4" s="3">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="J4" s="3">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="P4" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="S4" s="3">
+        <v>14</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="U4" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="V4" s="3">
+        <v>22</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="X4" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J5" s="3">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="M5" s="3">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V5" s="3">
+        <v>8</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>2.66</v>
+        <v>2.15</v>
       </c>
       <c r="C6" s="3">
-        <v>2.88</v>
+        <v>2.34</v>
       </c>
       <c r="D6" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="F6" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="G6" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="I6" s="3">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="J6" s="3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K6" s="3">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="L6" s="3">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N6" s="3">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="O6" s="3">
-        <v>2.54</v>
+        <v>2.21</v>
       </c>
       <c r="P6" s="3">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="3">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="R6" s="3">
-        <v>3.49</v>
+        <v>2.97</v>
       </c>
       <c r="S6" s="3">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="T6" s="3">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="U6" s="3">
-        <v>4.03</v>
+        <v>3.23</v>
       </c>
       <c r="V6" s="3">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="W6" s="3">
-        <v>3.95</v>
+        <v>3.67</v>
       </c>
       <c r="X6" s="3">
-        <v>4.12</v>
+        <v>3.31</v>
       </c>
       <c r="Y6" s="3">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="Z6" s="3">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="AA6" s="3">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="AB6" s="3">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="3">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="AD6" s="3">
-        <v>3.83</v>
+        <v>3.31</v>
       </c>
       <c r="AE6" s="3">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" s="3">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="C7" s="3">
-        <v>0.54</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="F7" s="3">
-        <v>0.16</v>
+        <v>1.23</v>
       </c>
       <c r="G7" s="3">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3">
-        <v>0.04</v>
+        <v>0.49</v>
       </c>
       <c r="I7" s="3">
-        <v>0.13</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7" s="3">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="L7" s="3">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="M7" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N7" s="3">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="O7" s="3">
-        <v>0.34</v>
+        <v>1.27</v>
       </c>
       <c r="P7" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.13</v>
+        <v>0.84</v>
       </c>
       <c r="R7" s="3">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="S7" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="T7" s="3">
-        <v>0.28999999999999998</v>
+        <v>1.07</v>
       </c>
       <c r="U7" s="3">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="V7" s="3">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="W7" s="3">
-        <v>0.27</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="X7" s="3">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="Y7" s="3">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.08</v>
+        <v>0.99</v>
       </c>
       <c r="AA7" s="3">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="AB7" s="3">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AC7" s="3">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="AD7" s="3">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="AE7" s="3">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="B8" s="3">
-        <v>2.15</v>
+        <v>1.27</v>
       </c>
       <c r="C8" s="3">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="D8" s="3">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="F8" s="3">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="G8" s="3">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3">
-        <v>1.99</v>
+        <v>1.35</v>
       </c>
       <c r="I8" s="3">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="J8" s="3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K8" s="3">
-        <v>2.09</v>
+        <v>1.41</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N8" s="3">
-        <v>2.62</v>
+        <v>1.86</v>
       </c>
       <c r="O8" s="3">
-        <v>2.21</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="P8" s="3">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="3">
-        <v>2.85</v>
+        <v>1.82</v>
       </c>
       <c r="R8" s="3">
-        <v>2.97</v>
+        <v>2.38</v>
       </c>
       <c r="S8" s="3">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T8" s="3">
-        <v>3.45</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="U8" s="3">
-        <v>3.23</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="V8" s="3">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="W8" s="3">
-        <v>3.67</v>
+        <v>2.06</v>
       </c>
       <c r="X8" s="3">
-        <v>3.31</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Y8" s="3">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="3">
-        <v>3.55</v>
+        <v>2.04</v>
       </c>
       <c r="AA8" s="3">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="AB8" s="3">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="AC8" s="3">
-        <v>3.43</v>
+        <v>2.04</v>
       </c>
       <c r="AD8" s="3">
-        <v>3.31</v>
+        <v>2.36</v>
       </c>
       <c r="AE8" s="3">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0.59</v>
+        <v>1.47</v>
       </c>
       <c r="C9" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="D9" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3">
-        <v>0.53</v>
+        <v>1.45</v>
       </c>
       <c r="F9" s="3">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="G9" s="3">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3">
-        <v>0.49</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I9" s="3">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="J9" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3">
-        <v>0.53</v>
+        <v>1.22</v>
       </c>
       <c r="L9" s="3">
         <v>1.27</v>
       </c>
       <c r="M9" s="3">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3">
-        <v>0.75</v>
+        <v>1.51</v>
       </c>
       <c r="O9" s="3">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="P9" s="3">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.84</v>
+        <v>1.87</v>
       </c>
       <c r="R9" s="3">
-        <v>0.82</v>
+        <v>1.53</v>
       </c>
       <c r="S9" s="3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="T9" s="3">
-        <v>1.07</v>
+        <v>2.48</v>
       </c>
       <c r="U9" s="3">
-        <v>0.84</v>
+        <v>1.87</v>
       </c>
       <c r="V9" s="3">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="W9" s="3">
-        <v>1.1100000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="X9" s="3">
-        <v>0.84</v>
+        <v>1.94</v>
       </c>
       <c r="Y9" s="3">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.99</v>
+        <v>2.5</v>
       </c>
       <c r="AA9" s="3">
-        <v>0.86</v>
+        <v>1.91</v>
       </c>
       <c r="AB9" s="3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="AC9" s="3">
-        <v>0.95</v>
+        <v>2.34</v>
       </c>
       <c r="AD9" s="3">
-        <v>0.89</v>
+        <v>1.89</v>
       </c>
       <c r="AE9" s="3">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" s="3">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="C10" s="3">
-        <v>1.98</v>
+        <v>0.21</v>
       </c>
       <c r="D10" s="3">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
-        <v>1.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>1.96</v>
+        <v>0.11</v>
       </c>
       <c r="G10" s="3">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3">
-        <v>1.35</v>
+        <v>0.04</v>
       </c>
       <c r="I10" s="3">
-        <v>1.92</v>
+        <v>-0.1</v>
       </c>
       <c r="J10" s="3">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="K10" s="3">
-        <v>1.41</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>-0.2</v>
       </c>
       <c r="M10" s="3">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N10" s="3">
-        <v>1.86</v>
+        <v>0.23</v>
       </c>
       <c r="O10" s="3">
-        <v>2.1800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="P10" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="3">
-        <v>1.82</v>
+        <v>0.82</v>
       </c>
       <c r="R10" s="3">
-        <v>2.38</v>
+        <v>0.82</v>
       </c>
       <c r="S10" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="T10" s="3">
-        <v>2.0499999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="U10" s="3">
-        <v>2.2400000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="V10" s="3">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="W10" s="3">
-        <v>2.06</v>
+        <v>0.15</v>
       </c>
       <c r="X10" s="3">
-        <v>2.2400000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="Y10" s="3">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="3">
-        <v>2.04</v>
+        <v>0.15</v>
       </c>
       <c r="AA10" s="3">
-        <v>2.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB10" s="3">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AC10" s="3">
-        <v>2.04</v>
+        <v>0.21</v>
       </c>
       <c r="AD10" s="3">
-        <v>2.36</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE10" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="B11" s="3">
-        <v>1.47</v>
+        <v>0.06</v>
       </c>
       <c r="C11" s="3">
-        <v>1.55</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="3">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3">
-        <v>1.45</v>
+        <v>0.05</v>
       </c>
       <c r="F11" s="3">
-        <v>1.36</v>
+        <v>0.01</v>
       </c>
       <c r="G11" s="3">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H11" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I11" s="3">
-        <v>1.27</v>
+        <v>-0.01</v>
       </c>
       <c r="J11" s="3">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="K11" s="3">
-        <v>1.22</v>
+        <v>0.01</v>
       </c>
       <c r="L11" s="3">
-        <v>1.27</v>
+        <v>-0.01</v>
       </c>
       <c r="M11" s="3">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N11" s="3">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="3">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>70</v>
-      </c>
-      <c r="T11" s="3">
-        <v>2.48</v>
+        <v>74</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="U11" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="V11" s="3">
-        <v>87</v>
-      </c>
-      <c r="W11" s="3">
-        <v>2.73</v>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="X11" s="3">
-        <v>1.94</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="AA11" s="3">
-        <v>1.91</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>89</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>2.34</v>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="AD11" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="C12" s="3">
-        <v>0.21</v>
+        <v>1.36</v>
       </c>
       <c r="D12" s="3">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="F12" s="3">
-        <v>0.11</v>
+        <v>1.23</v>
       </c>
       <c r="G12" s="3">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3">
-        <v>0.04</v>
+        <v>1.05</v>
       </c>
       <c r="I12" s="3">
-        <v>-0.1</v>
+        <v>1.38</v>
       </c>
       <c r="J12" s="3">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="M12" s="3">
+        <v>27</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="P12" s="3">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="S12" s="3">
+        <v>61</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="V12" s="3">
         <v>87</v>
       </c>
-      <c r="K12" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>93</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="P12" s="3">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="S12" s="3">
-        <v>58</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="V12" s="3">
-        <v>70</v>
-      </c>
       <c r="W12" s="3">
-        <v>0.15</v>
+        <v>2.57</v>
       </c>
       <c r="X12" s="3">
-        <v>0.12</v>
+        <v>1.83</v>
       </c>
       <c r="Y12" s="3">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Z12" s="3">
-        <v>0.15</v>
+        <v>2.35</v>
       </c>
       <c r="AA12" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="AB12" s="3">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AD12" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="AE12" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B13" s="3">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="D13" s="3">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>96</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.01</v>
       </c>
-      <c r="D13" s="3">
-        <v>89</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
+        <v>77</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
         <v>0.01</v>
       </c>
-      <c r="G13" s="3">
-        <v>93</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
+        <v>34</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.03</v>
       </c>
-      <c r="I13" s="3">
+      <c r="P13" s="3">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="S13" s="3">
+        <v>95</v>
+      </c>
+      <c r="T13" s="3">
         <v>-0.01</v>
       </c>
-      <c r="J13" s="3">
-        <v>92</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="U13" s="3">
         <v>0.01</v>
       </c>
-      <c r="L13" s="3">
+      <c r="V13" s="3">
+        <v>17</v>
+      </c>
+      <c r="W13" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M13" s="3">
-        <v>74</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>74</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="X13" s="3">
         <v>0</v>
       </c>
-      <c r="Y13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>9</v>
+      <c r="Y13" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>9</v>
+      <c r="AB13" s="3">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
       </c>
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>9</v>
+      <c r="AE13" s="3">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="B14" s="3">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H14" s="3">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="I14" s="3">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="K14" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="L14" s="3">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="N14" s="3">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="O14" s="3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="T14" s="3">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="W14" s="3">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>48</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>89</v>
       </c>
-      <c r="Z14" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>90</v>
-      </c>
       <c r="AC14" s="3">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>0.01</v>
+        <v>1.28</v>
       </c>
       <c r="C15" s="3">
-        <v>-0.01</v>
+        <v>1.36</v>
       </c>
       <c r="D15" s="3">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
-        <v>0.04</v>
+        <v>1.3</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="G15" s="3">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3">
-        <v>0.02</v>
+        <v>1.08</v>
       </c>
       <c r="I15" s="3">
-        <v>0.01</v>
+        <v>1.4</v>
       </c>
       <c r="J15" s="3">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L15" s="3">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
       <c r="M15" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N15" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>1.36</v>
       </c>
       <c r="O15" s="3">
-        <v>0.03</v>
+        <v>0.87</v>
       </c>
       <c r="P15" s="3">
         <v>86</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.17</v>
+        <v>1.22</v>
       </c>
       <c r="R15" s="3">
-        <v>0.03</v>
+        <v>0.73</v>
       </c>
       <c r="S15" s="3">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="T15" s="3">
-        <v>-0.01</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="U15" s="3">
-        <v>0.01</v>
+        <v>1.76</v>
       </c>
       <c r="V15" s="3">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="W15" s="3">
-        <v>-0.01</v>
+        <v>2.56</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Y15" s="3">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AA15" s="3">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB15" s="3">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="3">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AD15" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE15" s="3">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="D16" s="3">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G16" s="3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3">
-        <v>0.01</v>
+        <v>0.79</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J16" s="3">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K16" s="3">
-        <v>0.02</v>
+        <v>0.87</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M16" s="3">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="N16" s="3">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P16" s="3">
         <v>86</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S16" s="3">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U16" s="3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V16" s="3">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y16" s="3">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="Z16" s="3">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AA16" s="3">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB16" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC16" s="3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD16" s="3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE16" s="3">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>71</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>67</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>72</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>56</v>
       </c>
-      <c r="H17" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="3">
-        <v>24</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="P17" s="3">
-        <v>86</v>
-      </c>
       <c r="Q17" s="3">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="T17" s="3">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W17" s="3">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z17" s="3">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AC17" s="3">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>0.94</v>
@@ -2711,16 +2901,16 @@
         <v>1.85</v>
       </c>
       <c r="X18" s="3">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Y18" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="3">
         <v>1.71</v>
       </c>
       <c r="AA18" s="3">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AB18" s="3">
         <v>87</v>
@@ -2729,7 +2919,7 @@
         <v>1.57</v>
       </c>
       <c r="AD18" s="3">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AE18" s="3">
         <v>78</v>
@@ -2737,2791 +2927,2601 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="D19" s="3">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G19" s="3">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J19" s="3">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M19" s="3">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P19" s="3">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S19" s="3">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="T19" s="3">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U19" s="3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V19" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="X19" s="3">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Y19" s="3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="3">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AA19" s="3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB19" s="3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AC19" s="3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD19" s="3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE19" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="D20" s="3">
-        <v>34</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="G20" s="3">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J20" s="3">
-        <v>16</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="M20" s="3">
-        <v>17</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="P20" s="3">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S20" s="3">
-        <v>64</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="V20" s="3">
-        <v>85</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1.41</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>87</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="AE20" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="D21" s="3">
-        <v>34</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="G21" s="3">
-        <v>46</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J21" s="3">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="M21" s="3">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="B22" s="3">
+        <v>97.68</v>
+      </c>
+      <c r="C22" s="3">
+        <v>92.84</v>
+      </c>
+      <c r="D22" s="3">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3">
+        <v>97.38</v>
+      </c>
+      <c r="F22" s="3">
+        <v>92.9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>84</v>
+      </c>
+      <c r="H22" s="3">
+        <v>97.39</v>
+      </c>
+      <c r="I22" s="3">
+        <v>93.54</v>
+      </c>
+      <c r="J22" s="3">
+        <v>83</v>
+      </c>
+      <c r="K22" s="3">
+        <v>97.62</v>
+      </c>
+      <c r="L22" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="M22" s="3">
         <v>86</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S21" s="3">
-        <v>64</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="V21" s="3">
-        <v>85</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1.41</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>87</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>87</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>78</v>
+      <c r="N22" s="3">
+        <v>97.65</v>
+      </c>
+      <c r="O22" s="3">
+        <v>93.24</v>
+      </c>
+      <c r="P22" s="3">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>97.42</v>
+      </c>
+      <c r="R22" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="S22" s="3">
+        <v>88</v>
+      </c>
+      <c r="T22" s="3">
+        <v>97.6</v>
+      </c>
+      <c r="U22" s="3">
+        <v>91.88</v>
+      </c>
+      <c r="V22" s="3">
+        <v>88</v>
+      </c>
+      <c r="W22" s="3">
+        <v>97.95</v>
+      </c>
+      <c r="X22" s="3">
+        <v>91.95</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>98.25</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>92.09</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>92</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>98.23</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>92.28</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>84.88</v>
+      </c>
+      <c r="C23" s="3">
+        <v>74.45</v>
+      </c>
+      <c r="D23" s="3">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3">
+        <v>84.85</v>
+      </c>
+      <c r="F23" s="3">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="G23" s="3">
+        <v>81</v>
+      </c>
+      <c r="H23" s="3">
+        <v>84.53</v>
+      </c>
+      <c r="I23" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>70</v>
+      </c>
+      <c r="K23" s="3">
+        <v>84.69</v>
+      </c>
+      <c r="L23" s="3">
+        <v>77.16</v>
+      </c>
+      <c r="M23" s="3">
+        <v>75</v>
+      </c>
+      <c r="N23" s="3">
+        <v>84.53</v>
+      </c>
+      <c r="O23" s="3">
+        <v>80.62</v>
+      </c>
+      <c r="P23" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>83.12</v>
+      </c>
+      <c r="R23" s="3">
+        <v>78.47</v>
+      </c>
+      <c r="S23" s="3">
+        <v>75</v>
+      </c>
+      <c r="T23" s="3">
+        <v>82.36</v>
+      </c>
+      <c r="U23" s="3">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="V23" s="3">
+        <v>71</v>
+      </c>
+      <c r="W23" s="3">
+        <v>82.12</v>
+      </c>
+      <c r="X23" s="3">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>67</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>79.52</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>77.77</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>48</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>79.34</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>78.37</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>97.68</v>
+        <v>2.72</v>
       </c>
       <c r="C24" s="3">
-        <v>92.84</v>
+        <v>3.11</v>
       </c>
       <c r="D24" s="3">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3">
-        <v>97.38</v>
+        <v>2.31</v>
       </c>
       <c r="F24" s="3">
-        <v>92.9</v>
+        <v>2.42</v>
       </c>
       <c r="G24" s="3">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3">
-        <v>97.39</v>
+        <v>2.08</v>
       </c>
       <c r="I24" s="3">
-        <v>93.54</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J24" s="3">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="K24" s="3">
-        <v>97.62</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L24" s="3">
-        <v>93.3</v>
+        <v>2.29</v>
       </c>
       <c r="M24" s="3">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="N24" s="3">
-        <v>97.65</v>
+        <v>2.76</v>
       </c>
       <c r="O24" s="3">
-        <v>93.24</v>
+        <v>2.73</v>
       </c>
       <c r="P24" s="3">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="3">
-        <v>97.42</v>
+        <v>3.06</v>
       </c>
       <c r="R24" s="3">
-        <v>92.6</v>
+        <v>3.79</v>
       </c>
       <c r="S24" s="3">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="T24" s="3">
-        <v>97.6</v>
+        <v>3.84</v>
       </c>
       <c r="U24" s="3">
-        <v>91.88</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="V24" s="3">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="W24" s="3">
-        <v>97.95</v>
+        <v>4.03</v>
       </c>
       <c r="X24" s="3">
-        <v>91.95</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" s="3">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Z24" s="3">
-        <v>98.25</v>
+        <v>3.69</v>
       </c>
       <c r="AA24" s="3">
-        <v>92.09</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="AB24" s="3">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="AC24" s="3">
-        <v>98.23</v>
+        <v>3.54</v>
       </c>
       <c r="AD24" s="3">
-        <v>92.28</v>
+        <v>4.17</v>
       </c>
       <c r="AE24" s="3">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
-        <v>84.88</v>
+        <v>0.52</v>
       </c>
       <c r="C25" s="3">
-        <v>74.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D25" s="3">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E25" s="3">
-        <v>84.85</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="3">
-        <v>74.930000000000007</v>
+        <v>0.17</v>
       </c>
       <c r="G25" s="3">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H25" s="3">
-        <v>84.53</v>
+        <v>0.04</v>
       </c>
       <c r="I25" s="3">
-        <v>76.8</v>
+        <v>0.13</v>
       </c>
       <c r="J25" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="K25" s="3">
-        <v>84.69</v>
+        <v>0.03</v>
       </c>
       <c r="L25" s="3">
-        <v>77.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N25" s="3">
-        <v>84.53</v>
+        <v>0.08</v>
       </c>
       <c r="O25" s="3">
-        <v>80.62</v>
+        <v>0.36</v>
       </c>
       <c r="P25" s="3">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="3">
-        <v>83.12</v>
+        <v>0.13</v>
       </c>
       <c r="R25" s="3">
-        <v>78.47</v>
+        <v>0.54</v>
       </c>
       <c r="S25" s="3">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="T25" s="3">
-        <v>82.36</v>
+        <v>0.3</v>
       </c>
       <c r="U25" s="3">
-        <v>78.349999999999994</v>
+        <v>0.86</v>
       </c>
       <c r="V25" s="3">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="W25" s="3">
-        <v>82.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X25" s="3">
-        <v>78.209999999999994</v>
+        <v>0.89</v>
       </c>
       <c r="Y25" s="3">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="3">
-        <v>79.52</v>
+        <v>0.08</v>
       </c>
       <c r="AA25" s="3">
-        <v>77.77</v>
+        <v>0.66</v>
       </c>
       <c r="AB25" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="3">
-        <v>79.34</v>
+        <v>0.04</v>
       </c>
       <c r="AD25" s="3">
-        <v>78.37</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE25" s="3">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
-        <v>2.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C26" s="3">
-        <v>3.11</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3">
-        <v>2.31</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F26" s="3">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="G26" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3">
-        <v>2.08</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I26" s="3">
-        <v>2.2599999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="J26" s="3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K26" s="3">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="L26" s="3">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="M26" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N26" s="3">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="O26" s="3">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="P26" s="3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="3">
-        <v>3.06</v>
+        <v>2.93</v>
       </c>
       <c r="R26" s="3">
-        <v>3.79</v>
+        <v>3.23</v>
       </c>
       <c r="S26" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="T26" s="3">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="U26" s="3">
-        <v>4.3899999999999997</v>
+        <v>3.53</v>
       </c>
       <c r="V26" s="3">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="W26" s="3">
-        <v>4.03</v>
+        <v>3.75</v>
       </c>
       <c r="X26" s="3">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="Y26" s="3">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="Z26" s="3">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="AA26" s="3">
-        <v>4.3099999999999996</v>
+        <v>3.65</v>
       </c>
       <c r="AB26" s="3">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AC26" s="3">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" s="3">
-        <v>4.17</v>
+        <v>3.59</v>
       </c>
       <c r="AE26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D27" s="3">
-        <v>56</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="G27" s="3">
-        <v>34</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="J27" s="3">
-        <v>22</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M27" s="3">
-        <v>20</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="P27" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="S27" s="3">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="V27" s="3">
-        <v>6</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <v>34</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="G28" s="3">
-        <v>43</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="J28" s="3">
-        <v>45</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="M28" s="3">
-        <v>44</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="O28" s="3">
-        <v>2.37</v>
-      </c>
-      <c r="P28" s="3">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>2.93</v>
-      </c>
-      <c r="R28" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="S28" s="3">
-        <v>30</v>
-      </c>
-      <c r="T28" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="U28" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="V28" s="3">
-        <v>52</v>
-      </c>
-      <c r="W28" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="X28" s="3">
-        <v>3.62</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>62</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>49</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>3.59</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>44</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>37</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J29" s="3">
+        <v>61</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M29" s="3">
+        <v>93</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P29" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="S29" s="3">
+        <v>66</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="V29" s="3">
+        <v>74</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>72</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>73</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42.15</v>
+      </c>
+      <c r="C30" s="3">
+        <v>103.38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>75</v>
+      </c>
+      <c r="E30" s="3">
+        <v>53.14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>72</v>
+      </c>
+      <c r="H30" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="I30" s="3">
+        <v>152.69</v>
+      </c>
+      <c r="J30" s="3">
+        <v>65</v>
+      </c>
+      <c r="K30" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>33.86</v>
+      </c>
+      <c r="M30" s="3">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3">
+        <v>16.98</v>
+      </c>
+      <c r="O30" s="3">
+        <v>52.61</v>
+      </c>
+      <c r="P30" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>16.97</v>
+      </c>
+      <c r="R30" s="3">
+        <v>29.81</v>
+      </c>
+      <c r="S30" s="3">
+        <v>55</v>
+      </c>
+      <c r="T30" s="3">
+        <v>21.23</v>
+      </c>
+      <c r="U30" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="V30" s="3">
+        <v>48</v>
+      </c>
+      <c r="W30" s="3">
+        <v>32.35</v>
+      </c>
+      <c r="X30" s="3">
+        <v>48.56</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>57</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>51.15</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>57</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>27.53</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>44.29</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="D31" s="3">
+        <v>34</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>31</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="J31" s="3">
+        <v>29</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M31" s="3">
+        <v>27</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="P31" s="3">
         <v>23</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D31" s="3">
-        <v>37</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G31" s="3">
-        <v>37</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="J31" s="3">
-        <v>61</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="M31" s="3">
-        <v>93</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="P31" s="3">
-        <v>26</v>
-      </c>
       <c r="Q31" s="3">
-        <v>0.23</v>
+        <v>1.61</v>
       </c>
       <c r="R31" s="3">
-        <v>0.22</v>
+        <v>1.4</v>
       </c>
       <c r="S31" s="3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="T31" s="3">
-        <v>0.24</v>
+        <v>0.92</v>
       </c>
       <c r="U31" s="3">
-        <v>0.15</v>
+        <v>0.78</v>
       </c>
       <c r="V31" s="3">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="W31" s="3">
-        <v>0.17</v>
+        <v>1.03</v>
       </c>
       <c r="X31" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y31" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z31" s="3">
-        <v>0.22</v>
+        <v>0.99</v>
       </c>
       <c r="AA31" s="3">
-        <v>0.16</v>
+        <v>0.84</v>
       </c>
       <c r="AB31" s="3">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC31" s="3">
-        <v>0.18</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD31" s="3">
-        <v>0.15</v>
+        <v>0.87</v>
       </c>
       <c r="AE31" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>42.15</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C32" s="3">
-        <v>103.38</v>
+        <v>15.64</v>
       </c>
       <c r="D32" s="3">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3">
-        <v>53.14</v>
+        <v>9.73</v>
       </c>
       <c r="F32" s="3">
-        <v>153.55000000000001</v>
+        <v>18.59</v>
       </c>
       <c r="G32" s="3">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H32" s="3">
-        <v>15.65</v>
+        <v>3.74</v>
       </c>
       <c r="I32" s="3">
-        <v>152.69</v>
+        <v>13.77</v>
       </c>
       <c r="J32" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K32" s="3">
-        <v>8.1</v>
+        <v>1.95</v>
       </c>
       <c r="L32" s="3">
-        <v>33.86</v>
+        <v>8.67</v>
       </c>
       <c r="M32" s="3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N32" s="3">
-        <v>16.98</v>
+        <v>6.06</v>
       </c>
       <c r="O32" s="3">
-        <v>52.61</v>
+        <v>8.07</v>
       </c>
       <c r="P32" s="3">
         <v>78</v>
       </c>
       <c r="Q32" s="3">
-        <v>16.97</v>
+        <v>7.35</v>
       </c>
       <c r="R32" s="3">
-        <v>29.81</v>
+        <v>15.27</v>
       </c>
       <c r="S32" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="T32" s="3">
-        <v>21.23</v>
+        <v>4.26</v>
       </c>
       <c r="U32" s="3">
-        <v>46.6</v>
+        <v>9.67</v>
       </c>
       <c r="V32" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W32" s="3">
-        <v>32.35</v>
+        <v>6.23</v>
       </c>
       <c r="X32" s="3">
-        <v>48.56</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y32" s="3">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Z32" s="3">
-        <v>24</v>
+        <v>4.97</v>
       </c>
       <c r="AA32" s="3">
-        <v>51.15</v>
+        <v>12.06</v>
       </c>
       <c r="AB32" s="3">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AC32" s="3">
-        <v>27.53</v>
+        <v>6.43</v>
       </c>
       <c r="AD32" s="3">
-        <v>44.29</v>
+        <v>11.89</v>
       </c>
       <c r="AE32" s="3">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3">
-        <v>0.86</v>
+        <v>4.78</v>
       </c>
       <c r="C33" s="3">
-        <v>1.24</v>
+        <v>3.49</v>
       </c>
       <c r="D33" s="3">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3">
-        <v>0.77</v>
+        <v>5.86</v>
       </c>
       <c r="F33" s="3">
-        <v>1.1299999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="G33" s="3">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="H33" s="3">
-        <v>0.64</v>
+        <v>5.04</v>
       </c>
       <c r="I33" s="3">
-        <v>1.17</v>
+        <v>2.44</v>
       </c>
       <c r="J33" s="3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K33" s="3">
-        <v>0.78</v>
+        <v>5.01</v>
       </c>
       <c r="L33" s="3">
-        <v>1.4</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M33" s="3">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="N33" s="3">
-        <v>0.99</v>
+        <v>4.3</v>
       </c>
       <c r="O33" s="3">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="P33" s="3">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="3">
-        <v>1.61</v>
+        <v>6.25</v>
       </c>
       <c r="R33" s="3">
-        <v>1.4</v>
+        <v>3.41</v>
       </c>
       <c r="S33" s="3">
+        <v>86</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="U33" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V33" s="3">
+        <v>75</v>
+      </c>
+      <c r="W33" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="X33" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="AB33" s="3">
         <v>76</v>
       </c>
-      <c r="T33" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="V33" s="3">
-        <v>64</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>75</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>69</v>
-      </c>
       <c r="AC33" s="3">
-        <v>1.1000000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD33" s="3">
-        <v>0.87</v>
+        <v>2.38</v>
       </c>
       <c r="AE33" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3">
-        <v>8.9600000000000009</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>15.64</v>
+        <v>0.49</v>
       </c>
       <c r="D34" s="3">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3">
-        <v>9.73</v>
+        <v>0.08</v>
       </c>
       <c r="F34" s="3">
-        <v>18.59</v>
+        <v>0.41</v>
       </c>
       <c r="G34" s="3">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3">
-        <v>3.74</v>
+        <v>0.11</v>
       </c>
       <c r="I34" s="3">
-        <v>13.77</v>
+        <v>0.44</v>
       </c>
       <c r="J34" s="3">
+        <v>12</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="M34" s="3">
+        <v>17</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="P34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="L34" s="3">
-        <v>8.67</v>
-      </c>
-      <c r="M34" s="3">
-        <v>4</v>
-      </c>
-      <c r="N34" s="3">
-        <v>6.06</v>
-      </c>
-      <c r="O34" s="3">
-        <v>8.07</v>
-      </c>
-      <c r="P34" s="3">
-        <v>78</v>
-      </c>
       <c r="Q34" s="3">
-        <v>7.35</v>
+        <v>0.05</v>
       </c>
       <c r="R34" s="3">
-        <v>15.27</v>
+        <v>0.3</v>
       </c>
       <c r="S34" s="3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="T34" s="3">
-        <v>4.26</v>
+        <v>0.23</v>
       </c>
       <c r="U34" s="3">
-        <v>9.67</v>
+        <v>0.35</v>
       </c>
       <c r="V34" s="3">
         <v>36</v>
       </c>
       <c r="W34" s="3">
-        <v>6.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X34" s="3">
-        <v>10.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y34" s="3">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="Z34" s="3">
-        <v>4.97</v>
+        <v>0.48</v>
       </c>
       <c r="AA34" s="3">
-        <v>12.06</v>
+        <v>0.37</v>
       </c>
       <c r="AB34" s="3">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AC34" s="3">
-        <v>6.43</v>
+        <v>0.32</v>
       </c>
       <c r="AD34" s="3">
-        <v>11.89</v>
+        <v>0.31</v>
       </c>
       <c r="AE34" s="3">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G35" s="3">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M35" s="3">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="S35" s="3">
+        <v>12</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V35" s="3">
+        <v>23</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y35" s="3">
         <v>27</v>
       </c>
-      <c r="B35" s="3">
-        <v>4.78</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="D35" s="3">
-        <v>80</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.86</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G35" s="3">
-        <v>90</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5.04</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2.44</v>
-      </c>
-      <c r="J35" s="3">
-        <v>90</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5.01</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="M35" s="3">
-        <v>92</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2.48</v>
-      </c>
-      <c r="P35" s="3">
-        <v>82</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3.41</v>
-      </c>
-      <c r="S35" s="3">
-        <v>86</v>
-      </c>
-      <c r="T35" s="3">
-        <v>2.97</v>
-      </c>
-      <c r="U35" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="V35" s="3">
-        <v>75</v>
-      </c>
-      <c r="W35" s="3">
-        <v>3.12</v>
-      </c>
-      <c r="X35" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>77</v>
-      </c>
       <c r="Z35" s="3">
-        <v>2.98</v>
+        <v>0.34</v>
       </c>
       <c r="AA35" s="3">
-        <v>2.44</v>
+        <v>0.59</v>
       </c>
       <c r="AB35" s="3">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="AC35" s="3">
-        <v>2.2999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="AD35" s="3">
-        <v>2.38</v>
+        <v>0.64</v>
       </c>
       <c r="AE35" s="3">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C36" s="3">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="D36" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F36" s="3">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="G36" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H36" s="3">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I36" s="3">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="J36" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K36" s="3">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="L36" s="3">
-        <v>0.36</v>
+        <v>0.91</v>
       </c>
       <c r="M36" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N36" s="3">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O36" s="3">
-        <v>0.51</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P36" s="3">
         <v>10</v>
       </c>
       <c r="Q36" s="3">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="R36" s="3">
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
       <c r="S36" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T36" s="3">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="U36" s="3">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="V36" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="W36" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="X36" s="3">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="Y36" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z36" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC36" s="3">
         <v>0.48</v>
       </c>
-      <c r="AA36" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>75</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0.32</v>
-      </c>
       <c r="AD36" s="3">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="AE36" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>21</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G37" s="3">
-        <v>15</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="J37" s="3">
-        <v>16</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="M37" s="3">
-        <v>10</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="P37" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="R37" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="S37" s="3">
-        <v>12</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="U37" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V37" s="3">
-        <v>23</v>
-      </c>
-      <c r="W37" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>27</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>29</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="D38" s="3">
-        <v>21</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G38" s="3">
-        <v>15</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="J38" s="3">
-        <v>16</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="M38" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="D39" s="3">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-3.12</v>
+      </c>
+      <c r="G39" s="3">
+        <v>62</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-9.17</v>
+      </c>
+      <c r="J39" s="3">
+        <v>74</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-6.85</v>
+      </c>
+      <c r="L39" s="3">
+        <v>-8.09</v>
+      </c>
+      <c r="M39" s="3">
+        <v>55</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-8.77</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-3.65</v>
+      </c>
+      <c r="P39" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-9.27</v>
+      </c>
+      <c r="R39" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="S39" s="3">
+        <v>12</v>
+      </c>
+      <c r="T39" s="3">
+        <v>-2.23</v>
+      </c>
+      <c r="U39" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="V39" s="3">
+        <v>9</v>
+      </c>
+      <c r="W39" s="3">
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="X39" s="3">
+        <v>13.39</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>13.84</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>-0.67</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>13.71</v>
+      </c>
+      <c r="AE39" s="3">
         <v>10</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P38" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="S38" s="3">
-        <v>10</v>
-      </c>
-      <c r="T38" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="U38" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="V38" s="3">
-        <v>20</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="X38" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>22</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>25</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B40" s="3">
+        <v>35.22</v>
+      </c>
+      <c r="C40" s="3">
+        <v>50.63</v>
+      </c>
+      <c r="D40" s="3">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>33.24</v>
+      </c>
+      <c r="F40" s="3">
+        <v>49.42</v>
+      </c>
+      <c r="G40" s="3">
+        <v>21</v>
+      </c>
+      <c r="H40" s="3">
+        <v>31.57</v>
+      </c>
+      <c r="I40" s="3">
+        <v>46.67</v>
+      </c>
+      <c r="J40" s="3">
+        <v>19</v>
+      </c>
+      <c r="K40" s="3">
+        <v>31.23</v>
+      </c>
+      <c r="L40" s="3">
+        <v>45</v>
+      </c>
+      <c r="M40" s="3">
+        <v>24</v>
+      </c>
+      <c r="N40" s="3">
+        <v>39.29</v>
+      </c>
+      <c r="O40" s="3">
+        <v>47.39</v>
+      </c>
+      <c r="P40" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>42.75</v>
+      </c>
+      <c r="R40" s="3">
+        <v>66.97</v>
+      </c>
+      <c r="S40" s="3">
+        <v>6</v>
+      </c>
+      <c r="T40" s="3">
+        <v>46.96</v>
+      </c>
+      <c r="U40" s="3">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="V40" s="3">
+        <v>5</v>
+      </c>
+      <c r="W40" s="3">
+        <v>46.27</v>
+      </c>
+      <c r="X40" s="3">
+        <v>69.81</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>49.98</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>46.68</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>69.36</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3">
-        <v>9.34</v>
+        <v>41.97</v>
       </c>
       <c r="C41" s="3">
-        <v>1.37</v>
+        <v>61.72</v>
       </c>
       <c r="D41" s="3">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E41" s="3">
-        <v>2.84</v>
+        <v>37.03</v>
       </c>
       <c r="F41" s="3">
-        <v>-3.12</v>
+        <v>59.38</v>
       </c>
       <c r="G41" s="3">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="H41" s="3">
-        <v>2.29</v>
+        <v>34.4</v>
       </c>
       <c r="I41" s="3">
-        <v>-9.17</v>
+        <v>55.47</v>
       </c>
       <c r="J41" s="3">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="K41" s="3">
-        <v>-6.85</v>
+        <v>34.14</v>
       </c>
       <c r="L41" s="3">
-        <v>-8.09</v>
+        <v>54.13</v>
       </c>
       <c r="M41" s="3">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N41" s="3">
-        <v>-8.77</v>
+        <v>43.35</v>
       </c>
       <c r="O41" s="3">
-        <v>-3.65</v>
+        <v>57.02</v>
       </c>
       <c r="P41" s="3">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="3">
-        <v>-9.27</v>
+        <v>47.48</v>
       </c>
       <c r="R41" s="3">
-        <v>5.68</v>
+        <v>82.29</v>
       </c>
       <c r="S41" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T41" s="3">
-        <v>-2.23</v>
+        <v>52.18</v>
       </c>
       <c r="U41" s="3">
-        <v>12.07</v>
+        <v>88.58</v>
       </c>
       <c r="V41" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W41" s="3">
-        <v>-10.039999999999999</v>
+        <v>51.61</v>
       </c>
       <c r="X41" s="3">
-        <v>13.39</v>
+        <v>89.33</v>
       </c>
       <c r="Y41" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="3">
-        <v>-0.23</v>
+        <v>56.12</v>
       </c>
       <c r="AA41" s="3">
-        <v>13.84</v>
+        <v>88.24</v>
       </c>
       <c r="AB41" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AC41" s="3">
-        <v>-0.67</v>
+        <v>51.88</v>
       </c>
       <c r="AD41" s="3">
-        <v>13.71</v>
+        <v>88.57</v>
       </c>
       <c r="AE41" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3">
-        <v>35.22</v>
-      </c>
-      <c r="C42" s="3">
-        <v>50.63</v>
-      </c>
-      <c r="D42" s="3">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3">
-        <v>33.24</v>
-      </c>
-      <c r="F42" s="3">
-        <v>49.42</v>
-      </c>
-      <c r="G42" s="3">
-        <v>21</v>
-      </c>
-      <c r="H42" s="3">
-        <v>31.57</v>
-      </c>
-      <c r="I42" s="3">
-        <v>46.67</v>
-      </c>
-      <c r="J42" s="3">
-        <v>19</v>
-      </c>
-      <c r="K42" s="3">
-        <v>31.23</v>
-      </c>
-      <c r="L42" s="3">
-        <v>45</v>
-      </c>
-      <c r="M42" s="3">
-        <v>24</v>
-      </c>
-      <c r="N42" s="3">
-        <v>39.29</v>
-      </c>
-      <c r="O42" s="3">
-        <v>47.39</v>
-      </c>
-      <c r="P42" s="3">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>42.75</v>
-      </c>
-      <c r="R42" s="3">
-        <v>66.97</v>
-      </c>
-      <c r="S42" s="3">
-        <v>6</v>
-      </c>
-      <c r="T42" s="3">
-        <v>46.96</v>
-      </c>
-      <c r="U42" s="3">
-        <v>69.569999999999993</v>
-      </c>
-      <c r="V42" s="3">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
-        <v>46.27</v>
-      </c>
-      <c r="X42" s="3">
-        <v>69.81</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>49.98</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>46.68</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>69.36</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3">
-        <v>41.97</v>
-      </c>
-      <c r="C43" s="3">
-        <v>61.72</v>
-      </c>
-      <c r="D43" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7.9626000000000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8.76</v>
+      </c>
+      <c r="D44" s="3">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7.5502000000000002</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="G44" s="3">
         <v>18</v>
       </c>
-      <c r="E43" s="3">
-        <v>37.03</v>
-      </c>
-      <c r="F43" s="3">
-        <v>59.38</v>
-      </c>
-      <c r="G43" s="3">
-        <v>15</v>
-      </c>
-      <c r="H43" s="3">
-        <v>34.4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>55.47</v>
-      </c>
-      <c r="J43" s="3">
-        <v>16</v>
-      </c>
-      <c r="K43" s="3">
-        <v>34.14</v>
-      </c>
-      <c r="L43" s="3">
-        <v>54.13</v>
-      </c>
-      <c r="M43" s="3">
-        <v>17</v>
-      </c>
-      <c r="N43" s="3">
-        <v>43.35</v>
-      </c>
-      <c r="O43" s="3">
-        <v>57.02</v>
-      </c>
-      <c r="P43" s="3">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>47.48</v>
-      </c>
-      <c r="R43" s="3">
-        <v>82.29</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="H44" s="3">
+        <v>7.2428999999999997</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="J44" s="3">
+        <v>19</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6.9570999999999996</v>
+      </c>
+      <c r="L44" s="3">
+        <v>8.56</v>
+      </c>
+      <c r="M44" s="3">
+        <v>13</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6.4333999999999998</v>
+      </c>
+      <c r="O44" s="3">
+        <v>8.42</v>
+      </c>
+      <c r="P44" s="3">
         <v>6</v>
       </c>
-      <c r="T43" s="3">
-        <v>52.18</v>
-      </c>
-      <c r="U43" s="3">
-        <v>88.58</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="Q44" s="3">
+        <v>6.9149000000000003</v>
+      </c>
+      <c r="R44" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2</v>
+      </c>
+      <c r="T44" s="3">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="U44" s="3">
+        <v>10.08</v>
+      </c>
+      <c r="V44" s="3">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>51.61</v>
-      </c>
-      <c r="X43" s="3">
-        <v>89.33</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>56.12</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>88.24</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="W44" s="3">
+        <v>8.1669</v>
+      </c>
+      <c r="X44" s="3">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Y44" s="3">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
-        <v>51.88</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>88.57</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>3</v>
+      <c r="Z44" s="3">
+        <v>8.1036000000000001</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>7.7217000000000002</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>9.93</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B45" s="3">
+        <v>16.050699999999999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>15.79</v>
+      </c>
+      <c r="D45" s="3">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16.049600000000002</v>
+      </c>
+      <c r="F45" s="3">
+        <v>15.46</v>
+      </c>
+      <c r="G45" s="3">
+        <v>65</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15.4041</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15.74</v>
+      </c>
+      <c r="J45" s="3">
+        <v>58</v>
+      </c>
+      <c r="K45" s="3">
+        <v>14.2568</v>
+      </c>
+      <c r="L45" s="3">
+        <v>15.57</v>
+      </c>
+      <c r="M45" s="3">
+        <v>48</v>
+      </c>
+      <c r="N45" s="3">
+        <v>11.4933</v>
+      </c>
+      <c r="O45" s="3">
+        <v>15.12</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>12.282400000000001</v>
+      </c>
+      <c r="R45" s="3">
+        <v>14.11</v>
+      </c>
+      <c r="S45" s="3">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
+        <v>11.958600000000001</v>
+      </c>
+      <c r="U45" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="V45" s="3">
+        <v>14</v>
+      </c>
+      <c r="W45" s="3">
+        <v>13.437200000000001</v>
+      </c>
+      <c r="X45" s="3">
+        <v>13.68</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>13.316000000000001</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>13.62</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>12.722200000000001</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>13.69</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3">
-        <v>7.9626000000000001</v>
+        <v>14.53</v>
       </c>
       <c r="C46" s="3">
-        <v>8.76</v>
+        <v>44.95</v>
       </c>
       <c r="D46" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E46" s="3">
-        <v>7.5502000000000002</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>8.4</v>
+        <v>30.99</v>
       </c>
       <c r="G46" s="3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H46" s="3">
-        <v>7.2428999999999997</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>8.25</v>
+        <v>48.02</v>
       </c>
       <c r="J46" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K46" s="3">
-        <v>6.9570999999999996</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>8.56</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="M46" s="3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N46" s="3">
-        <v>6.4333999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="O46" s="3">
-        <v>8.42</v>
+        <v>50.21</v>
       </c>
       <c r="P46" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="3">
-        <v>6.9149000000000003</v>
+        <v>15.48</v>
       </c>
       <c r="R46" s="3">
-        <v>9.34</v>
+        <v>69.84</v>
       </c>
       <c r="S46" s="3">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="T46" s="3">
-        <v>7.2962999999999996</v>
+        <v>70.709999999999994</v>
       </c>
       <c r="U46" s="3">
-        <v>10.08</v>
+        <v>59.28</v>
       </c>
       <c r="V46" s="3">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="W46" s="3">
-        <v>8.1669</v>
+        <v>55.48</v>
       </c>
       <c r="X46" s="3">
-        <v>10.119999999999999</v>
+        <v>52.55</v>
       </c>
       <c r="Y46" s="3">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="Z46" s="3">
-        <v>8.1036000000000001</v>
+        <v>15</v>
       </c>
       <c r="AA46" s="3">
-        <v>10.02</v>
+        <v>47.35</v>
       </c>
       <c r="AB46" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AC46" s="3">
-        <v>7.7217000000000002</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
-        <v>9.93</v>
+        <v>39.89</v>
       </c>
       <c r="AE46" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3">
-        <v>16.050699999999999</v>
+        <v>0.79</v>
       </c>
       <c r="C47" s="3">
-        <v>15.79</v>
+        <v>3.41</v>
       </c>
       <c r="D47" s="3">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E47" s="3">
-        <v>16.049600000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F47" s="3">
-        <v>15.46</v>
+        <v>3.47</v>
       </c>
       <c r="G47" s="3">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H47" s="3">
-        <v>15.4041</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I47" s="3">
-        <v>15.74</v>
+        <v>3.98</v>
       </c>
       <c r="J47" s="3">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="K47" s="3">
-        <v>14.2568</v>
+        <v>0.77</v>
       </c>
       <c r="L47" s="3">
-        <v>15.57</v>
+        <v>4.5</v>
       </c>
       <c r="M47" s="3">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N47" s="3">
-        <v>11.4933</v>
+        <v>1.53</v>
       </c>
       <c r="O47" s="3">
-        <v>15.12</v>
+        <v>5.79</v>
       </c>
       <c r="P47" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
-        <v>12.282400000000001</v>
+        <v>1.63</v>
       </c>
       <c r="R47" s="3">
-        <v>14.11</v>
+        <v>4.59</v>
       </c>
       <c r="S47" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T47" s="3">
-        <v>11.958600000000001</v>
+        <v>1.96</v>
       </c>
       <c r="U47" s="3">
-        <v>13.75</v>
+        <v>4.13</v>
       </c>
       <c r="V47" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="W47" s="3">
-        <v>13.437200000000001</v>
+        <v>1.88</v>
       </c>
       <c r="X47" s="3">
-        <v>13.68</v>
+        <v>4.3</v>
       </c>
       <c r="Y47" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Z47" s="3">
-        <v>13.316000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="AA47" s="3">
-        <v>13.62</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AB47" s="3">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="AC47" s="3">
-        <v>12.722200000000001</v>
+        <v>2.82</v>
       </c>
       <c r="AD47" s="3">
-        <v>13.69</v>
+        <v>4.82</v>
       </c>
       <c r="AE47" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="3">
-        <v>14.53</v>
-      </c>
-      <c r="C48" s="3">
-        <v>44.95</v>
-      </c>
-      <c r="D48" s="3">
-        <v>28</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>30.99</v>
-      </c>
-      <c r="G48" s="3">
-        <v>31</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>48.02</v>
-      </c>
-      <c r="J48" s="3">
         <v>25</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="M48" s="3">
-        <v>27</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="O48" s="3">
-        <v>50.21</v>
-      </c>
-      <c r="P48" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>15.48</v>
-      </c>
-      <c r="R48" s="3">
-        <v>69.84</v>
-      </c>
-      <c r="S48" s="3">
-        <v>31</v>
-      </c>
-      <c r="T48" s="3">
-        <v>70.709999999999994</v>
-      </c>
-      <c r="U48" s="3">
-        <v>59.28</v>
-      </c>
-      <c r="V48" s="3">
-        <v>57</v>
-      </c>
-      <c r="W48" s="3">
-        <v>55.48</v>
-      </c>
-      <c r="X48" s="3">
-        <v>52.55</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>52</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>15</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>47.35</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>39.89</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3.41</v>
-      </c>
-      <c r="D49" s="3">
-        <v>18</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3.98</v>
-      </c>
-      <c r="J49" s="3">
-        <v>16</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="M49" s="3">
-        <v>13</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="O49" s="3">
-        <v>5.79</v>
-      </c>
-      <c r="P49" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="R49" s="3">
-        <v>4.59</v>
-      </c>
-      <c r="S49" s="3">
-        <v>12</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="U49" s="3">
-        <v>4.13</v>
-      </c>
-      <c r="V49" s="3">
-        <v>17</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="X49" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>20</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1.97</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>19</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>2.82</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>4.82</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>25</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="G50" s="3">
+        <v>84</v>
+      </c>
+      <c r="H50" s="3">
+        <v>83.22</v>
+      </c>
+      <c r="I50" s="3">
+        <v>14.05</v>
+      </c>
+      <c r="J50" s="3">
+        <v>96</v>
+      </c>
+      <c r="K50" s="3">
+        <v>90.79</v>
+      </c>
+      <c r="L50" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="M50" s="3">
+        <v>96</v>
+      </c>
+      <c r="N50" s="3">
+        <v>62.76</v>
+      </c>
+      <c r="O50" s="3">
+        <v>19.18</v>
+      </c>
+      <c r="P50" s="3">
+        <v>96</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="R50" s="3">
+        <v>20.84</v>
+      </c>
+      <c r="S50" s="3">
+        <v>85</v>
+      </c>
+      <c r="T50" s="3">
+        <v>24.59</v>
+      </c>
+      <c r="U50" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="V50" s="3">
+        <v>84</v>
+      </c>
+      <c r="W50" s="3">
+        <v>13.32</v>
+      </c>
+      <c r="X50" s="3">
+        <v>10.26</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>71</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>67</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>15.68</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>11.64</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B51" s="3">
+        <v>16.23</v>
+      </c>
+      <c r="C51" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>71</v>
+      </c>
+      <c r="E51" s="3">
+        <v>57.88</v>
+      </c>
+      <c r="F51" s="3">
+        <v>12.34</v>
+      </c>
+      <c r="G51" s="3">
+        <v>90</v>
+      </c>
+      <c r="H51" s="3">
+        <v>123.91</v>
+      </c>
+      <c r="I51" s="3">
+        <v>12.73</v>
+      </c>
+      <c r="J51" s="3">
+        <v>96</v>
+      </c>
+      <c r="K51" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="L51" s="3">
+        <v>11.76</v>
+      </c>
+      <c r="M51" s="3">
+        <v>96</v>
+      </c>
+      <c r="N51" s="3">
+        <v>31.94</v>
+      </c>
+      <c r="O51" s="3">
+        <v>7.64</v>
+      </c>
+      <c r="P51" s="3">
+        <v>96</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>9.27</v>
+      </c>
+      <c r="R51" s="3">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="S51" s="3">
+        <v>63</v>
+      </c>
+      <c r="T51" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="U51" s="3">
+        <v>11.53</v>
+      </c>
+      <c r="V51" s="3">
+        <v>41</v>
+      </c>
+      <c r="W51" s="3">
+        <v>16.82</v>
+      </c>
+      <c r="X51" s="3">
+        <v>11.12</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>76</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>21.56</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>81</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>13.02</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3">
-        <v>0.21</v>
+        <v>11.79</v>
       </c>
       <c r="C52" s="3">
-        <v>2.69</v>
+        <v>12.44</v>
       </c>
       <c r="D52" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E52" s="3">
-        <v>31.4</v>
+        <v>39.85</v>
       </c>
       <c r="F52" s="3">
-        <v>10.32</v>
+        <v>17.37</v>
       </c>
       <c r="G52" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H52" s="3">
-        <v>83.22</v>
+        <v>47.21</v>
       </c>
       <c r="I52" s="3">
-        <v>14.05</v>
+        <v>13.37</v>
       </c>
       <c r="J52" s="3">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K52" s="3">
-        <v>90.79</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="L52" s="3">
-        <v>9.94</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M52" s="3">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N52" s="3">
-        <v>62.76</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O52" s="3">
-        <v>19.18</v>
+        <v>4.5</v>
       </c>
       <c r="P52" s="3">
         <v>96</v>
       </c>
       <c r="Q52" s="3">
-        <v>35.380000000000003</v>
+        <v>25.09</v>
       </c>
       <c r="R52" s="3">
-        <v>20.84</v>
+        <v>15.99</v>
       </c>
       <c r="S52" s="3">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T52" s="3">
-        <v>24.59</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="U52" s="3">
-        <v>11.41</v>
+        <v>11.44</v>
       </c>
       <c r="V52" s="3">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W52" s="3">
-        <v>13.32</v>
+        <v>12.32</v>
       </c>
       <c r="X52" s="3">
-        <v>10.26</v>
+        <v>10.67</v>
       </c>
       <c r="Y52" s="3">
         <v>71</v>
       </c>
       <c r="Z52" s="3">
-        <v>11.41</v>
+        <v>22.78</v>
       </c>
       <c r="AA52" s="3">
-        <v>10.029999999999999</v>
+        <v>10.99</v>
       </c>
       <c r="AB52" s="3">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="AC52" s="3">
-        <v>15.68</v>
+        <v>23.96</v>
       </c>
       <c r="AD52" s="3">
-        <v>11.64</v>
+        <v>13.1</v>
       </c>
       <c r="AE52" s="3">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3">
-        <v>16.23</v>
+        <v>8.68</v>
       </c>
       <c r="C53" s="3">
-        <v>12.01</v>
+        <v>-17.739999999999998</v>
       </c>
       <c r="D53" s="3">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E53" s="3">
-        <v>57.88</v>
+        <v>-38.64</v>
       </c>
       <c r="F53" s="3">
-        <v>12.34</v>
+        <v>-24.04</v>
       </c>
       <c r="G53" s="3">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H53" s="3">
-        <v>123.91</v>
+        <v>-27.03</v>
       </c>
       <c r="I53" s="3">
-        <v>12.73</v>
+        <v>10.23</v>
       </c>
       <c r="J53" s="3">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K53" s="3">
-        <v>95.3</v>
+        <v>68.81</v>
       </c>
       <c r="L53" s="3">
-        <v>11.76</v>
+        <v>23.82</v>
       </c>
       <c r="M53" s="3">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="N53" s="3">
-        <v>31.94</v>
+        <v>112.74</v>
       </c>
       <c r="O53" s="3">
-        <v>7.64</v>
+        <v>219.1</v>
       </c>
       <c r="P53" s="3">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="3">
-        <v>9.27</v>
+        <v>32.11</v>
       </c>
       <c r="R53" s="3">
-        <v>8.8699999999999992</v>
+        <v>226.49</v>
       </c>
       <c r="S53" s="3">
+        <v>16</v>
+      </c>
+      <c r="T53" s="3">
+        <v>41.73</v>
+      </c>
+      <c r="U53" s="3">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="V53" s="3">
         <v>63</v>
       </c>
-      <c r="T53" s="3">
-        <v>7.49</v>
-      </c>
-      <c r="U53" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="V53" s="3">
-        <v>41</v>
-      </c>
       <c r="W53" s="3">
-        <v>16.82</v>
+        <v>127.29</v>
       </c>
       <c r="X53" s="3">
-        <v>11.12</v>
+        <v>24.96</v>
       </c>
       <c r="Y53" s="3">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Z53" s="3">
-        <v>21.56</v>
+        <v>12.84</v>
       </c>
       <c r="AA53" s="3">
-        <v>11.5</v>
+        <v>12.77</v>
       </c>
       <c r="AB53" s="3">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="AC53" s="3">
-        <v>15.65</v>
+        <v>-25.73</v>
       </c>
       <c r="AD53" s="3">
-        <v>13.02</v>
+        <v>20.09</v>
       </c>
       <c r="AE53" s="3">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="3">
-        <v>11.79</v>
+        <v>45</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1171.4000000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>12.44</v>
+        <v>159</v>
       </c>
       <c r="D54" s="3">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E54" s="3">
-        <v>39.85</v>
+        <v>843.19</v>
       </c>
       <c r="F54" s="3">
-        <v>17.37</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="G54" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H54" s="3">
-        <v>47.21</v>
+        <v>148.29</v>
       </c>
       <c r="I54" s="3">
-        <v>13.37</v>
+        <v>-22.85</v>
       </c>
       <c r="J54" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K54" s="3">
-        <v>39.380000000000003</v>
+        <v>28.41</v>
       </c>
       <c r="L54" s="3">
-        <v>4.4800000000000004</v>
+        <v>-35.39</v>
       </c>
       <c r="M54" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N54" s="3">
-        <v>36.200000000000003</v>
+        <v>259.98</v>
       </c>
       <c r="O54" s="3">
-        <v>4.5</v>
+        <v>-22.29</v>
       </c>
       <c r="P54" s="3">
         <v>96</v>
       </c>
       <c r="Q54" s="3">
-        <v>25.09</v>
+        <v>195.94</v>
       </c>
       <c r="R54" s="3">
-        <v>15.99</v>
+        <v>-0.74</v>
       </c>
       <c r="S54" s="3">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="T54" s="3">
-        <v>17.059999999999999</v>
+        <v>-71.040000000000006</v>
       </c>
       <c r="U54" s="3">
-        <v>11.44</v>
+        <v>13.84</v>
       </c>
       <c r="V54" s="3">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="W54" s="3">
-        <v>12.32</v>
+        <v>-62.59</v>
       </c>
       <c r="X54" s="3">
-        <v>10.67</v>
+        <v>23.21</v>
       </c>
       <c r="Y54" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="Z54" s="3">
-        <v>22.78</v>
+        <v>-37.14</v>
       </c>
       <c r="AA54" s="3">
-        <v>10.99</v>
+        <v>21.75</v>
       </c>
       <c r="AB54" s="3">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="AC54" s="3">
-        <v>23.96</v>
+        <v>489.9</v>
       </c>
       <c r="AD54" s="3">
-        <v>13.1</v>
+        <v>20.65</v>
       </c>
       <c r="AE54" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="3">
-        <v>8.68</v>
-      </c>
-      <c r="C55" s="3">
-        <v>-17.739999999999998</v>
-      </c>
-      <c r="D55" s="3">
-        <v>68</v>
-      </c>
-      <c r="E55" s="3">
-        <v>-38.64</v>
-      </c>
-      <c r="F55" s="3">
-        <v>-24.04</v>
-      </c>
-      <c r="G55" s="3">
-        <v>34</v>
-      </c>
-      <c r="H55" s="3">
-        <v>-27.03</v>
-      </c>
-      <c r="I55" s="3">
-        <v>10.23</v>
-      </c>
-      <c r="J55" s="3">
-        <v>22</v>
-      </c>
-      <c r="K55" s="3">
-        <v>68.81</v>
-      </c>
-      <c r="L55" s="3">
-        <v>23.82</v>
-      </c>
-      <c r="M55" s="3">
-        <v>79</v>
-      </c>
-      <c r="N55" s="3">
-        <v>112.74</v>
-      </c>
-      <c r="O55" s="3">
-        <v>219.1</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>32.11</v>
-      </c>
-      <c r="R55" s="3">
-        <v>226.49</v>
-      </c>
-      <c r="S55" s="3">
-        <v>16</v>
-      </c>
-      <c r="T55" s="3">
-        <v>41.73</v>
-      </c>
-      <c r="U55" s="3">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="V55" s="3">
-        <v>63</v>
-      </c>
-      <c r="W55" s="3">
-        <v>127.29</v>
-      </c>
-      <c r="X55" s="3">
-        <v>24.96</v>
-      </c>
-      <c r="Y55" s="3">
-        <v>88</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>12.84</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>12.77</v>
-      </c>
-      <c r="AB55" s="3">
-        <v>56</v>
-      </c>
-      <c r="AC55" s="3">
-        <v>-25.73</v>
-      </c>
-      <c r="AD55" s="3">
-        <v>20.09</v>
-      </c>
-      <c r="AE55" s="3">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1171.4000000000001</v>
-      </c>
-      <c r="C56" s="3">
-        <v>159</v>
-      </c>
-      <c r="D56" s="3">
-        <v>96</v>
-      </c>
-      <c r="E56" s="3">
-        <v>843.19</v>
-      </c>
-      <c r="F56" s="3">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="G56" s="3">
-        <v>96</v>
-      </c>
-      <c r="H56" s="3">
-        <v>148.29</v>
-      </c>
-      <c r="I56" s="3">
-        <v>-22.85</v>
-      </c>
-      <c r="J56" s="3">
-        <v>96</v>
-      </c>
-      <c r="K56" s="3">
-        <v>28.41</v>
-      </c>
-      <c r="L56" s="3">
-        <v>-35.39</v>
-      </c>
-      <c r="M56" s="3">
-        <v>96</v>
-      </c>
-      <c r="N56" s="3">
-        <v>259.98</v>
-      </c>
-      <c r="O56" s="3">
-        <v>-22.29</v>
-      </c>
-      <c r="P56" s="3">
-        <v>96</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>195.94</v>
-      </c>
-      <c r="R56" s="3">
-        <v>-0.74</v>
-      </c>
-      <c r="S56" s="3">
-        <v>97</v>
-      </c>
-      <c r="T56" s="3">
-        <v>-71.040000000000006</v>
-      </c>
-      <c r="U56" s="3">
-        <v>13.84</v>
-      </c>
-      <c r="V56" s="3">
-        <v>1</v>
-      </c>
-      <c r="W56" s="3">
-        <v>-62.59</v>
-      </c>
-      <c r="X56" s="3">
-        <v>23.21</v>
-      </c>
-      <c r="Y56" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>-37.14</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>21.75</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC56" s="3">
-        <v>489.9</v>
-      </c>
-      <c r="AD56" s="3">
-        <v>20.65</v>
-      </c>
-      <c r="AE56" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="5">
+      <c r="B56" s="5">
         <v>214666750</v>
       </c>
-      <c r="F58" s="5">
+      <c r="E56" s="5">
         <v>215207000</v>
       </c>
-      <c r="I58" s="5">
+      <c r="H56" s="5">
         <v>163362694</v>
       </c>
-      <c r="L58" s="5">
+      <c r="K56" s="5">
         <v>135562493</v>
       </c>
-      <c r="O58" s="5">
+      <c r="N56" s="5">
         <v>83751084</v>
       </c>
-      <c r="R58" s="5">
+      <c r="Q56" s="5">
         <v>73654074</v>
       </c>
-      <c r="U58" s="5">
+      <c r="T56" s="5">
         <v>61827081</v>
       </c>
-      <c r="X58" s="5">
+      <c r="W56" s="5">
         <v>57809657</v>
       </c>
-      <c r="AA58" s="5">
+      <c r="Z56" s="5">
         <v>54520639</v>
       </c>
-      <c r="AD58" s="5">
+      <c r="AC56" s="5">
         <v>52733613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2024000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1018000</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1294000</v>
+      </c>
+      <c r="K57" s="5">
+        <v>586950</v>
+      </c>
+      <c r="N57" s="5">
+        <v>826243</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>322990</v>
+      </c>
+      <c r="T57" s="5">
+        <v>1036618</v>
+      </c>
+      <c r="W57" s="5">
+        <v>535341</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>933641</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>414946</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2024000</v>
-      </c>
-      <c r="F59" s="5">
-        <v>1018000</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1294000</v>
-      </c>
-      <c r="L59" s="5">
-        <v>586950</v>
-      </c>
-      <c r="O59" s="5">
-        <v>826243</v>
-      </c>
-      <c r="R59" s="5">
-        <v>322990</v>
-      </c>
-      <c r="U59" s="5">
-        <v>1036618</v>
-      </c>
-      <c r="X59" s="5">
-        <v>535341</v>
-      </c>
-      <c r="AA59" s="5">
-        <v>933641</v>
-      </c>
-      <c r="AD59" s="5">
-        <v>414946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="3">
+      <c r="B59" s="3">
         <v>31</v>
       </c>
-      <c r="F61" s="3">
+      <c r="E59" s="3">
         <v>31</v>
       </c>
-      <c r="I61" s="3">
+      <c r="H59" s="3">
         <v>30</v>
       </c>
-      <c r="L61" s="3">
+      <c r="K59" s="3">
         <v>28</v>
       </c>
-      <c r="O61" s="3">
+      <c r="N59" s="3">
         <v>29</v>
       </c>
-      <c r="R61" s="3">
+      <c r="Q59" s="3">
         <v>101</v>
       </c>
-      <c r="U61" s="3">
+      <c r="T59" s="3">
         <v>94</v>
       </c>
-      <c r="X61" s="3">
+      <c r="W59" s="3">
         <v>93</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="Z59" s="3">
         <v>92</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AC59" s="3">
         <v>89</v>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
   <dimension ref="A1:AE63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="2" sqref="A1:XFD1 A2:XFD2 A3:XFD3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11198,7 +11198,7 @@
   <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16037,42 +16037,22 @@
   <dimension ref="A1:AF43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19473,41 +19453,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B128C57-62F1-4E64-931E-7E4F949A4815}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22375,53 +22345,52 @@
       <c r="A34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5">
+      <c r="B34" s="5">
         <v>175240000</v>
       </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5">
+      <c r="E34" s="5">
         <v>190020000</v>
       </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5">
+      <c r="H34" s="5">
         <v>191285000</v>
       </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="5">
+      <c r="K34" s="5">
         <v>147470421</v>
       </c>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="5">
+      <c r="N34" s="5">
         <v>103194107</v>
       </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="5">
+      <c r="Q34" s="5">
         <v>76081804</v>
       </c>
+      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="5">
+      <c r="T34" s="5">
         <v>62943752</v>
       </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="5">
+      <c r="W34" s="5">
         <v>55948589</v>
       </c>
+      <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="5">
+      <c r="Z34" s="5">
         <v>49991939</v>
       </c>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="5">
+      <c r="AC34" s="5">
         <v>49553926</v>
       </c>
       <c r="AE34" s="3"/>
@@ -22431,53 +22400,52 @@
       <c r="A35" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5">
+      <c r="B35" s="5">
         <v>131000</v>
       </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5">
+      <c r="E35" s="5">
         <v>123000</v>
       </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5">
+      <c r="H35" s="5">
         <v>137000</v>
       </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3">
+      <c r="AC35" s="3">
         <v>0</v>
       </c>
       <c r="AE35" s="3"/>
@@ -22487,53 +22455,52 @@
       <c r="A36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5">
+      <c r="B36" s="5">
         <v>7000</v>
       </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <v>10000</v>
       </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5">
+      <c r="H36" s="5">
         <v>9000</v>
       </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3">
-        <v>0</v>
-      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3">
+      <c r="AC36" s="3">
         <v>0</v>
       </c>
       <c r="AE36" s="3"/>
@@ -22543,53 +22510,52 @@
       <c r="A37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3">
-        <v>0</v>
-      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3">
+      <c r="AC37" s="3">
         <v>0</v>
       </c>
       <c r="AE37" s="3"/>
@@ -22599,53 +22565,52 @@
       <c r="A38" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
+      <c r="T38" s="3">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3">
+      <c r="AC38" s="3">
         <v>0</v>
       </c>
       <c r="AE38" s="3"/>
@@ -22655,53 +22620,52 @@
       <c r="A39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5">
+      <c r="B39" s="5">
         <v>175378000</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
         <v>190153000</v>
       </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5">
+      <c r="H39" s="5">
         <v>191431000</v>
       </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="5">
+      <c r="K39" s="5">
         <v>147470421</v>
       </c>
+      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="5">
+      <c r="N39" s="5">
         <v>103194107</v>
       </c>
+      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="5">
+      <c r="Q39" s="5">
         <v>76081804</v>
       </c>
+      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="5">
+      <c r="T39" s="5">
         <v>62943752</v>
       </c>
+      <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="5">
+      <c r="W39" s="5">
         <v>55948589</v>
       </c>
+      <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="5">
+      <c r="Z39" s="5">
         <v>49991939</v>
       </c>
+      <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="5">
+      <c r="AC39" s="5">
         <v>49553926</v>
       </c>
       <c r="AE39" s="3"/>
@@ -22737,7 +22701,6 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
@@ -22745,53 +22708,52 @@
       <c r="A41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="5">
+      <c r="B41" s="5">
         <v>10432000</v>
       </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5">
+      <c r="E41" s="5">
         <v>7439000</v>
       </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="5">
+      <c r="H41" s="5">
         <v>7231000</v>
       </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5">
+      <c r="K41" s="5">
         <v>6319563</v>
       </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="5">
+      <c r="N41" s="5">
         <v>5337447</v>
       </c>
+      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="5">
+      <c r="Q41" s="5">
         <v>3965107</v>
       </c>
+      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="5">
+      <c r="T41" s="5">
         <v>3998803</v>
       </c>
+      <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="5">
+      <c r="W41" s="5">
         <v>3823339</v>
       </c>
+      <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="5">
+      <c r="Z41" s="5">
         <v>3743219</v>
       </c>
+      <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="5">
+      <c r="AC41" s="5">
         <v>5849019</v>
       </c>
       <c r="AE41" s="3"/>
@@ -22801,53 +22763,52 @@
       <c r="A42" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5">
+      <c r="B42" s="5">
         <v>55000</v>
       </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="5">
+      <c r="E42" s="5">
         <v>56000</v>
       </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="5">
+      <c r="H42" s="5">
         <v>68000</v>
       </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="5">
+      <c r="K42" s="5">
         <v>5201</v>
       </c>
+      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="5">
+      <c r="N42" s="5">
         <v>6842</v>
       </c>
+      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="5">
+      <c r="Q42" s="5">
         <v>2020</v>
       </c>
+      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="5">
+      <c r="T42" s="5">
         <v>4439</v>
       </c>
+      <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="5">
+      <c r="W42" s="5">
         <v>2244</v>
       </c>
+      <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="5">
+      <c r="Z42" s="5">
         <v>4303</v>
       </c>
+      <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="5">
+      <c r="AC42" s="5">
         <v>5373</v>
       </c>
       <c r="AE42" s="3"/>
@@ -22857,53 +22818,52 @@
       <c r="A43" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="5">
+      <c r="B43" s="5">
         <v>150992000</v>
       </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
         <v>167462000</v>
       </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="5">
+      <c r="H43" s="5">
         <v>168079000</v>
       </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="5">
+      <c r="K43" s="5">
         <v>128059739</v>
       </c>
+      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="5">
+      <c r="N43" s="5">
         <v>89423965</v>
       </c>
+      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="5">
+      <c r="Q43" s="5">
         <v>65335217</v>
       </c>
+      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="5">
+      <c r="T43" s="5">
         <v>52591906</v>
       </c>
+      <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="5">
+      <c r="W43" s="5">
         <v>47247986</v>
       </c>
+      <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="5">
+      <c r="Z43" s="5">
         <v>41509132</v>
       </c>
+      <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="5">
+      <c r="AC43" s="5">
         <v>40056091</v>
       </c>
       <c r="AE43" s="3"/>
@@ -22913,53 +22873,52 @@
       <c r="A44" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5">
+      <c r="B44" s="5">
         <v>161479000</v>
       </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
         <v>174957000</v>
       </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="5">
+      <c r="H44" s="5">
         <v>175378000</v>
       </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="5">
+      <c r="K44" s="5">
         <v>134384503</v>
       </c>
+      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="5">
+      <c r="N44" s="5">
         <v>94768254</v>
       </c>
+      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="5">
+      <c r="Q44" s="5">
         <v>69302344</v>
       </c>
+      <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="5">
+      <c r="T44" s="5">
         <v>56595148</v>
       </c>
+      <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="5">
+      <c r="W44" s="5">
         <v>51073569</v>
       </c>
+      <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="5">
+      <c r="Z44" s="5">
         <v>45256654</v>
       </c>
+      <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="5">
+      <c r="AC44" s="5">
         <v>45910483</v>
       </c>
       <c r="AE44" s="3"/>
@@ -22969,53 +22928,52 @@
       <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="5">
+      <c r="B45" s="5">
         <v>13899000</v>
       </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5">
+      <c r="E45" s="5">
         <v>15196000</v>
       </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="5">
+      <c r="H45" s="5">
         <v>16053000</v>
       </c>
+      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="5">
+      <c r="K45" s="5">
         <v>13085918</v>
       </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="5">
+      <c r="N45" s="5">
         <v>8425853</v>
       </c>
+      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="5">
+      <c r="Q45" s="5">
         <v>6779460</v>
       </c>
+      <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="5">
+      <c r="T45" s="5">
         <v>6348604</v>
       </c>
+      <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="5">
+      <c r="W45" s="5">
         <v>4875020</v>
       </c>
+      <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="5">
+      <c r="Z45" s="5">
         <v>4735285</v>
       </c>
+      <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="5">
+      <c r="AC45" s="5">
         <v>3643443</v>
       </c>
       <c r="AE45" s="3"/>
@@ -23025,53 +22983,52 @@
       <c r="A46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5">
+      <c r="B46" s="5">
         <v>175378000</v>
       </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
         <v>190153000</v>
       </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="5">
+      <c r="H46" s="5">
         <v>191431000</v>
       </c>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="5">
+      <c r="K46" s="5">
         <v>147470421</v>
       </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="5">
+      <c r="N46" s="5">
         <v>103194107</v>
       </c>
+      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="5">
+      <c r="Q46" s="5">
         <v>76081804</v>
       </c>
+      <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="5">
+      <c r="T46" s="5">
         <v>62943752</v>
       </c>
+      <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="5">
+      <c r="W46" s="5">
         <v>55948589</v>
       </c>
+      <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="5">
+      <c r="Z46" s="5">
         <v>49991939</v>
       </c>
+      <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="5">
+      <c r="AC46" s="5">
         <v>49553926</v>
       </c>
       <c r="AE46" s="3"/>
@@ -23107,7 +23064,6 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
@@ -23143,7 +23099,6 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
@@ -23151,53 +23106,52 @@
       <c r="A49" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5">
+      <c r="B49" s="5">
         <v>30867000</v>
       </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5">
+      <c r="E49" s="5">
         <v>19148000</v>
       </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="5">
+      <c r="H49" s="5">
         <v>16456000</v>
       </c>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="5">
+      <c r="K49" s="5">
         <v>13148197</v>
       </c>
+      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="5">
+      <c r="N49" s="5">
         <v>8493246</v>
       </c>
+      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="5">
+      <c r="Q49" s="5">
         <v>6993648</v>
       </c>
+      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="5">
+      <c r="T49" s="5">
         <v>6479604</v>
       </c>
+      <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="5">
+      <c r="W49" s="5">
         <v>5010064</v>
       </c>
+      <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="5">
+      <c r="Z49" s="5">
         <v>5384153</v>
       </c>
+      <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="5">
+      <c r="AC49" s="5">
         <v>4080846</v>
       </c>
       <c r="AE49" s="3"/>
@@ -23207,53 +23161,52 @@
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="5">
+      <c r="B50" s="5">
         <v>22186000</v>
       </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5">
+      <c r="E50" s="5">
         <v>6322000</v>
       </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="5">
+      <c r="H50" s="5">
         <v>1745000</v>
       </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="5">
+      <c r="K50" s="5">
         <v>670280</v>
       </c>
+      <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="5">
+      <c r="N50" s="5">
         <v>702800</v>
       </c>
+      <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="5">
+      <c r="Q50" s="5">
         <v>521985</v>
       </c>
+      <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="5">
+      <c r="T50" s="5">
         <v>195233</v>
       </c>
+      <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="5">
+      <c r="W50" s="5">
         <v>176382</v>
       </c>
+      <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="5">
+      <c r="Z50" s="5">
         <v>674061</v>
       </c>
+      <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="5">
+      <c r="AC50" s="5">
         <v>471516</v>
       </c>
       <c r="AE50" s="3"/>
@@ -23263,53 +23216,52 @@
       <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="5">
+      <c r="B51" s="5">
         <v>160075000</v>
       </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="5">
+      <c r="E51" s="5">
         <v>174708000</v>
       </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="5">
+      <c r="H51" s="5">
         <v>175096000</v>
       </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="5">
+      <c r="K51" s="5">
         <v>134356007</v>
       </c>
+      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="5">
+      <c r="N51" s="5">
         <v>94722320</v>
       </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="5">
+      <c r="Q51" s="5">
         <v>69241887</v>
       </c>
+      <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="5">
+      <c r="T51" s="5">
         <v>56569328</v>
       </c>
+      <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="5">
+      <c r="W51" s="5">
         <v>51052878</v>
       </c>
+      <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="5">
+      <c r="Z51" s="5">
         <v>45239580</v>
       </c>
+      <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="5">
+      <c r="AC51" s="5">
         <v>45891693</v>
       </c>
       <c r="AE51" s="3"/>
@@ -23319,53 +23271,52 @@
       <c r="A52" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="5">
+      <c r="B52" s="5">
         <v>61000</v>
       </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="5">
+      <c r="E52" s="5">
         <v>68000</v>
       </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="5">
+      <c r="H52" s="5">
         <v>91000</v>
       </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="5">
+      <c r="K52" s="5">
         <v>5251</v>
       </c>
+      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="5">
+      <c r="N52" s="5">
         <v>7020</v>
       </c>
+      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="5">
+      <c r="Q52" s="5">
         <v>8184</v>
       </c>
+      <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="5">
+      <c r="T52" s="5">
         <v>7939</v>
       </c>
+      <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="5">
+      <c r="W52" s="5">
         <v>7565</v>
       </c>
+      <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="5">
+      <c r="Z52" s="5">
         <v>8459</v>
       </c>
+      <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="5">
+      <c r="AC52" s="5">
         <v>9101</v>
       </c>
       <c r="AE52" s="3"/>
@@ -23375,53 +23326,52 @@
       <c r="A53" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="5">
+      <c r="B53" s="5">
         <v>4000</v>
       </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5">
+      <c r="E53" s="5">
         <v>5000</v>
       </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="5">
+      <c r="H53" s="5">
         <v>5000</v>
       </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3">
+      <c r="K53" s="3">
         <v>104</v>
       </c>
+      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3">
+      <c r="N53" s="3">
         <v>100</v>
       </c>
+      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3">
+      <c r="T53" s="3">
         <v>101</v>
       </c>
+      <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3">
+      <c r="W53" s="3">
         <v>100</v>
       </c>
+      <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3">
+      <c r="AC53" s="3">
         <v>0</v>
       </c>
       <c r="AE53" s="3"/>
@@ -23431,53 +23381,52 @@
       <c r="A54" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="5">
+      <c r="B54" s="5">
         <v>1398000</v>
       </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="5">
+      <c r="E54" s="5">
         <v>222000</v>
       </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="5">
+      <c r="H54" s="5">
         <v>263000</v>
       </c>
+      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="5">
+      <c r="K54" s="5">
         <v>25392</v>
       </c>
+      <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="5">
+      <c r="N54" s="5">
         <v>45934</v>
       </c>
+      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="5">
+      <c r="Q54" s="5">
         <v>59394</v>
       </c>
+      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="5">
+      <c r="T54" s="5">
         <v>22815</v>
       </c>
+      <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="5">
+      <c r="W54" s="5">
         <v>20690</v>
       </c>
+      <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="5">
+      <c r="Z54" s="5">
         <v>17074</v>
       </c>
+      <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="5">
+      <c r="AC54" s="5">
         <v>18791</v>
       </c>
       <c r="AE54" s="3"/>
@@ -23487,53 +23436,52 @@
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="5">
+      <c r="B55" s="5">
         <v>6000</v>
       </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5">
+      <c r="E55" s="5">
         <v>27000</v>
       </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="5">
+      <c r="H55" s="5">
         <v>19000</v>
       </c>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="5">
+      <c r="K55" s="5">
         <v>3104</v>
       </c>
+      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3">
-        <v>0</v>
-      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="5">
+      <c r="Q55" s="5">
         <v>1063</v>
       </c>
+      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="5">
+      <c r="T55" s="5">
         <v>3005</v>
       </c>
+      <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3">
-        <v>0</v>
-      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3">
+      <c r="AC55" s="3">
         <v>0</v>
       </c>
       <c r="AE55" s="3"/>
@@ -23543,53 +23491,52 @@
       <c r="A56" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="5">
+      <c r="B56" s="5">
         <v>15000000</v>
       </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="5">
+      <c r="E56" s="5">
         <v>3500000</v>
       </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="5">
-        <v>0</v>
-      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3">
-        <v>0</v>
-      </c>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3">
-        <v>0</v>
-      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="5">
+      <c r="Z56" s="5">
         <v>300000</v>
       </c>
+      <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="5">
+      <c r="AC56" s="5">
         <v>400000</v>
       </c>
       <c r="AE56" s="3"/>
@@ -23599,53 +23546,52 @@
       <c r="A57" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3">
+      <c r="AC57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3"/>
@@ -23655,53 +23601,52 @@
       <c r="A58" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="5">
+      <c r="B58" s="5">
         <v>40000</v>
       </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5">
+      <c r="E58" s="5">
         <v>153000</v>
       </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="5">
+      <c r="H58" s="5">
         <v>60000</v>
       </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="5">
+      <c r="K58" s="5">
         <v>33783</v>
       </c>
+      <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="5">
+      <c r="N58" s="5">
         <v>21459</v>
       </c>
+      <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="5">
+      <c r="Q58" s="5">
         <v>153731</v>
       </c>
+      <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="5">
+      <c r="T58" s="5">
         <v>18185</v>
       </c>
+      <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="5">
+      <c r="W58" s="5">
         <v>25781</v>
       </c>
+      <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="5">
+      <c r="Z58" s="5">
         <v>12380</v>
       </c>
+      <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="5">
+      <c r="AC58" s="5">
         <v>18612</v>
       </c>
       <c r="AE58" s="3"/>
@@ -23711,53 +23656,52 @@
       <c r="A59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="5">
+      <c r="B59" s="5">
         <v>332000</v>
       </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="5">
+      <c r="E59" s="5">
         <v>420000</v>
       </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5">
+      <c r="H59" s="5">
         <v>236000</v>
       </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="5">
+      <c r="K59" s="5">
         <v>214382</v>
       </c>
+      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="5">
+      <c r="N59" s="5">
         <v>216912</v>
       </c>
+      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="5">
+      <c r="Q59" s="5">
         <v>170743</v>
       </c>
+      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="5">
+      <c r="T59" s="5">
         <v>222825</v>
       </c>
+      <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="5">
+      <c r="W59" s="5">
         <v>197014</v>
       </c>
+      <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="5">
+      <c r="Z59" s="5">
         <v>96956</v>
       </c>
+      <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="5">
+      <c r="AC59" s="5">
         <v>356796</v>
       </c>
       <c r="AE59" s="3"/>
@@ -23767,53 +23711,52 @@
       <c r="A60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="5">
+      <c r="B60" s="5">
         <v>40000</v>
       </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5">
+      <c r="E60" s="5">
         <v>153000</v>
       </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5">
+      <c r="H60" s="5">
         <v>60000</v>
       </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="5">
+      <c r="K60" s="5">
         <v>33780</v>
       </c>
+      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="5">
+      <c r="N60" s="5">
         <v>20553</v>
       </c>
+      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="5">
+      <c r="Q60" s="5">
         <v>50924</v>
       </c>
+      <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="5">
+      <c r="T60" s="5">
         <v>104884</v>
       </c>
+      <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="5">
+      <c r="W60" s="5">
         <v>114354</v>
       </c>
+      <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="5">
+      <c r="Z60" s="5">
         <v>11998</v>
       </c>
+      <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3">
+      <c r="AC60" s="3">
         <v>0</v>
       </c>
       <c r="AE60" s="3"/>
@@ -23823,53 +23766,52 @@
       <c r="A61" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3">
+      <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3"/>
@@ -23879,53 +23821,52 @@
       <c r="A62" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3">
-        <v>0</v>
-      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3">
+      <c r="AC62" s="3">
         <v>0</v>
       </c>
       <c r="AE62" s="3"/>
@@ -23935,53 +23876,52 @@
       <c r="A63" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3">
-        <v>0</v>
-      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3">
-        <v>0</v>
-      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3">
-        <v>0</v>
-      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3">
-        <v>0</v>
-      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3">
+      <c r="AC63" s="3">
         <v>0</v>
       </c>
       <c r="AE63" s="3"/>
@@ -23991,53 +23931,52 @@
       <c r="A64" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3">
-        <v>0</v>
-      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3">
-        <v>0</v>
-      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3">
+      <c r="AC64" s="3">
         <v>0</v>
       </c>
       <c r="AE64" s="3"/>
@@ -24047,53 +23986,52 @@
       <c r="A65" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3">
-        <v>0</v>
-      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3">
-        <v>0</v>
-      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3">
+      <c r="AC65" s="3">
         <v>0</v>
       </c>
       <c r="AE65" s="3"/>
@@ -24108,43 +24046,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D08D3-32A3-4189-B6EE-4C0616B51C4B}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26664,53 +26587,52 @@
       <c r="A31" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5">
+      <c r="B31" s="5">
         <v>13140000</v>
       </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5">
+      <c r="E31" s="5">
         <v>13699000</v>
       </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5">
+      <c r="H31" s="5">
         <v>12091000</v>
       </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="5">
+      <c r="K31" s="5">
         <v>22325119</v>
       </c>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="5">
+      <c r="N31" s="5">
         <v>16569229</v>
       </c>
+      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="5">
+      <c r="Q31" s="5">
         <v>13224929</v>
       </c>
+      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="5">
+      <c r="T31" s="5">
         <v>7788572</v>
       </c>
+      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="5">
+      <c r="W31" s="5">
         <v>10010548</v>
       </c>
+      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="5">
+      <c r="Z31" s="5">
         <v>5495418</v>
       </c>
+      <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="5">
+      <c r="AC31" s="5">
         <v>4404319</v>
       </c>
       <c r="AE31" s="3"/>
@@ -26720,53 +26642,52 @@
       <c r="A32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5">
+      <c r="B32" s="5">
         <v>56078000</v>
       </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5">
+      <c r="E32" s="5">
         <v>56583000</v>
       </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5">
+      <c r="H32" s="5">
         <v>52598000</v>
       </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="5">
+      <c r="K32" s="5">
         <v>54951196</v>
       </c>
+      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="5">
+      <c r="N32" s="5">
         <v>44056220</v>
       </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="5">
+      <c r="Q32" s="5">
         <v>33259800</v>
       </c>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="5">
+      <c r="T32" s="5">
         <v>28119449</v>
       </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="5">
+      <c r="W32" s="5">
         <v>27149133</v>
       </c>
+      <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="5">
+      <c r="Z32" s="5">
         <v>21680742</v>
       </c>
+      <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="5">
+      <c r="AC32" s="5">
         <v>18532327</v>
       </c>
       <c r="AE32" s="3"/>
@@ -26776,53 +26697,52 @@
       <c r="A33" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3">
+      <c r="AC33" s="3">
         <v>0</v>
       </c>
       <c r="AE33" s="3"/>
@@ -26832,53 +26752,52 @@
       <c r="A34" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3">
-        <v>0</v>
-      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3">
+      <c r="AC34" s="3">
         <v>0</v>
       </c>
       <c r="AE34" s="3"/>
@@ -26888,53 +26807,52 @@
       <c r="A35" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3">
+      <c r="AC35" s="3">
         <v>0</v>
       </c>
       <c r="AE35" s="3"/>
@@ -26944,53 +26862,52 @@
       <c r="A36" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5">
+      <c r="B36" s="5">
         <v>55358000</v>
       </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <v>11256000</v>
       </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5">
+      <c r="H36" s="5">
         <v>4483000</v>
       </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5">
+      <c r="K36" s="5">
         <v>4368496</v>
       </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="5">
+      <c r="N36" s="5">
         <v>4543516</v>
       </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="5">
+      <c r="Q36" s="5">
         <v>4623614</v>
       </c>
+      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="5">
+      <c r="T36" s="5">
         <v>3138965</v>
       </c>
+      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="5">
+      <c r="W36" s="5">
         <v>2934106</v>
       </c>
+      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="5">
+      <c r="Z36" s="5">
         <v>3564029</v>
       </c>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="5">
+      <c r="AC36" s="5">
         <v>3150480</v>
       </c>
       <c r="AE36" s="3"/>
@@ -27000,53 +26917,52 @@
       <c r="A37" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5">
+      <c r="B37" s="5">
         <v>5421000</v>
       </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
         <v>4799000</v>
       </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5">
+      <c r="H37" s="5">
         <v>4062000</v>
       </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="5">
+      <c r="K37" s="5">
         <v>3639921</v>
       </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="5">
+      <c r="N37" s="5">
         <v>3251281</v>
       </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="5">
+      <c r="Q37" s="5">
         <v>2808004</v>
       </c>
+      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="5">
+      <c r="T37" s="5">
         <v>2609279</v>
       </c>
+      <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="5">
+      <c r="W37" s="5">
         <v>2317954</v>
       </c>
+      <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="5">
+      <c r="Z37" s="5">
         <v>2181988</v>
       </c>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="5">
+      <c r="AC37" s="5">
         <v>2033290</v>
       </c>
       <c r="AE37" s="3"/>
@@ -27056,53 +26972,52 @@
       <c r="A38" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
+      <c r="T38" s="3">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3">
-        <v>0</v>
-      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3">
+      <c r="AC38" s="3">
         <v>0</v>
       </c>
       <c r="AE38" s="3"/>
@@ -28411,6 +28326,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0DE6589DD34254188178090449037BF" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2563db0a538b14c487eabd6652bcd898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730d41e5-c164-45c3-bb6c-41d9e94615f1" xmlns:ns4="b8b0a607-b9ac-4786-8bb5-b92c3ab51463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="def8795802d7894f1ead6a01262118ab" ns3:_="" ns4:_="">
     <xsd:import namespace="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
@@ -28587,14 +28510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28605,6 +28520,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87582B45-A2AF-4695-8865-205C9496AE35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28623,23 +28555,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
   <ds:schemaRefs>

--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33710D3-2E8E-4680-868B-E98E0B0D9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE4EF1-FF0D-4957-9442-C8F4453D3EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="287">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>Number of banks in Peer Group</t>
   </si>
   <si>
     <t>YIELD ON OR COST OF:</t>
@@ -1269,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="3">
         <v>0.51</v>
@@ -1787,7 +1784,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="3">
         <v>0.59</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="3">
         <v>1.27</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3">
         <v>0.13</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="3">
         <v>0.06</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3">
         <v>0.01</v>
@@ -2452,7 +2449,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -5488,41 +5485,6 @@
       </c>
       <c r="AC57" s="5">
         <v>414946</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3">
-        <v>31</v>
-      </c>
-      <c r="E59" s="3">
-        <v>31</v>
-      </c>
-      <c r="H59" s="3">
-        <v>30</v>
-      </c>
-      <c r="K59" s="3">
-        <v>28</v>
-      </c>
-      <c r="N59" s="3">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>101</v>
-      </c>
-      <c r="T59" s="3">
-        <v>94</v>
-      </c>
-      <c r="W59" s="3">
-        <v>93</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>92</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5575,7 +5537,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -5670,7 +5632,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5765,7 +5727,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3">
         <v>4.57</v>
@@ -5860,7 +5822,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3">
         <v>4.5999999999999996</v>
@@ -5955,7 +5917,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
         <v>2.87</v>
@@ -6050,7 +6012,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
         <v>2.52</v>
@@ -6145,7 +6107,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>3.72</v>
@@ -6240,7 +6202,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3">
         <v>6.66</v>
@@ -6335,7 +6297,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3">
         <v>4.16</v>
@@ -6430,7 +6392,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6525,7 +6487,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -6620,7 +6582,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3">
         <v>4.2699999999999996</v>
@@ -6715,7 +6677,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3">
         <v>1.84</v>
@@ -6810,7 +6772,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3">
         <v>1.82</v>
@@ -6905,7 +6867,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3">
         <v>1.34</v>
@@ -7000,7 +6962,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
         <v>1.89</v>
@@ -7095,7 +7057,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3">
         <v>1.96</v>
@@ -7190,7 +7152,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3">
         <v>1.44</v>
@@ -7285,7 +7247,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3">
         <v>1.4</v>
@@ -7380,7 +7342,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3">
         <v>0.49</v>
@@ -7475,7 +7437,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3">
         <v>1.48</v>
@@ -7570,7 +7532,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3">
         <v>0.47</v>
@@ -7665,7 +7627,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3">
         <v>2.15</v>
@@ -7760,7 +7722,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3">
         <v>0.65</v>
@@ -7888,7 +7850,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>1.8</v>
@@ -7983,7 +7945,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3">
         <v>3.91</v>
@@ -8078,7 +8040,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -8173,7 +8135,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
@@ -8268,7 +8230,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3">
         <v>0.6</v>
@@ -8396,7 +8358,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
         <v>2.2599999999999998</v>
@@ -8524,7 +8486,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8559,7 +8521,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3">
         <v>32.729999999999997</v>
@@ -8654,7 +8616,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="3">
         <v>29.41</v>
@@ -8749,7 +8711,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3">
         <v>5.59</v>
@@ -8844,7 +8806,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3">
         <v>3.92</v>
@@ -8939,7 +8901,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3">
         <v>1.67</v>
@@ -9034,7 +8996,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3">
         <v>7.38</v>
@@ -9129,7 +9091,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3">
         <v>0.24</v>
@@ -9224,7 +9186,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9319,7 +9281,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9414,7 +9376,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3">
         <v>3.32</v>
@@ -9509,7 +9471,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3">
         <v>57.82</v>
@@ -9604,7 +9566,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>8.4700000000000006</v>
@@ -9699,7 +9661,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="3">
         <v>45.34</v>
@@ -9794,7 +9756,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3">
         <v>4.01</v>
@@ -9889,7 +9851,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="3">
         <v>6.63</v>
@@ -9984,7 +9946,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3">
         <v>0.13</v>
@@ -10079,7 +10041,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="3">
         <v>81.260000000000005</v>
@@ -10174,7 +10136,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="3">
         <v>0.66</v>
@@ -10269,7 +10231,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="3">
         <v>75.39</v>
@@ -10364,7 +10326,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="3">
         <v>0.32</v>
@@ -10459,7 +10421,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3">
         <v>4.8899999999999997</v>
@@ -10587,7 +10549,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3">
         <v>1.53</v>
@@ -10682,7 +10644,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3">
         <v>2.1</v>
@@ -10777,7 +10739,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -10872,7 +10834,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3">
         <v>2.1</v>
@@ -10967,7 +10929,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="3">
         <v>84.88</v>
@@ -11095,7 +11057,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3">
         <v>0.28999999999999998</v>
@@ -11238,7 +11200,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -11333,7 +11295,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -11429,7 +11391,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -11525,7 +11487,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3">
         <v>33.31</v>
@@ -11621,7 +11583,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3">
         <v>0.24</v>
@@ -11717,7 +11679,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
         <v>33.07</v>
@@ -11847,7 +11809,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>6.11</v>
@@ -11943,7 +11905,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>0.25</v>
@@ -12039,7 +12001,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3">
         <v>0.1</v>
@@ -12135,7 +12097,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3">
         <v>45.14</v>
@@ -12231,7 +12193,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -12327,7 +12289,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3">
         <v>12.46</v>
@@ -12423,7 +12385,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -12553,7 +12515,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3">
         <v>97.13</v>
@@ -12683,7 +12645,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3">
         <v>0.75</v>
@@ -12779,7 +12741,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3">
         <v>0.08</v>
@@ -12875,7 +12837,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -12971,7 +12933,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3">
         <v>0.54</v>
@@ -13067,7 +13029,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3">
         <v>7.0000000000000007E-2</v>
@@ -13163,7 +13125,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3">
         <v>1.43</v>
@@ -13259,7 +13221,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>2.87</v>
@@ -13355,7 +13317,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3">
         <v>100</v>
@@ -13485,7 +13447,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3">
         <v>1.78</v>
@@ -13615,7 +13577,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -13651,7 +13613,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3">
         <v>4.22</v>
@@ -13747,7 +13709,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3">
         <v>0.03</v>
@@ -13843,7 +13805,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3">
         <v>75.63</v>
@@ -13939,7 +13901,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="3">
         <v>1.0900000000000001</v>
@@ -14035,7 +13997,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="3">
         <v>0.04</v>
@@ -14131,7 +14093,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -14227,7 +14189,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3">
         <v>81</v>
@@ -14323,7 +14285,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -14419,7 +14381,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="3">
         <v>0.32</v>
@@ -14515,7 +14477,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="3">
         <v>7.21</v>
@@ -14611,7 +14573,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="3">
         <v>88.54</v>
@@ -14741,7 +14703,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3">
         <v>7.0000000000000007E-2</v>
@@ -14837,7 +14799,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3">
         <v>3.03</v>
@@ -14933,7 +14895,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3">
         <v>0.2</v>
@@ -15029,7 +14991,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3">
         <v>4.87</v>
@@ -15159,7 +15121,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -15255,7 +15217,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3">
         <v>1.05</v>
@@ -15351,7 +15313,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3">
         <v>92.88</v>
@@ -15481,7 +15443,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="3">
         <v>7.12</v>
@@ -15577,7 +15539,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3">
         <v>100</v>
@@ -15707,7 +15669,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -15803,7 +15765,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -15933,7 +15895,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -16057,7 +16019,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -16152,7 +16114,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -16248,7 +16210,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3">
         <v>35.020000000000003</v>
@@ -16344,7 +16306,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
         <v>23.79</v>
@@ -16440,7 +16402,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3">
         <v>9.9700000000000006</v>
@@ -16570,7 +16532,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3">
         <v>43.56</v>
@@ -16666,7 +16628,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3">
         <v>1.52</v>
@@ -16762,7 +16724,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3">
         <v>4.1399999999999997</v>
@@ -16858,7 +16820,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="3">
         <v>25.31</v>
@@ -16988,7 +16950,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="3">
         <v>12.99</v>
@@ -17084,7 +17046,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="3">
         <v>12.5</v>
@@ -17214,7 +17176,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -17310,7 +17272,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -17406,7 +17368,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -17536,7 +17498,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -17572,7 +17534,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3">
         <v>12.43</v>
@@ -17668,7 +17630,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3">
         <v>43.69</v>
@@ -17764,7 +17726,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="3">
         <v>30.38</v>
@@ -17894,7 +17856,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="3">
         <v>-7.25</v>
@@ -17990,7 +17952,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="3">
         <v>-89.2</v>
@@ -18120,7 +18082,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -18156,7 +18118,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="3">
         <v>54.92</v>
@@ -18252,7 +18214,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -18348,7 +18310,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="3">
         <v>54.92</v>
@@ -18478,7 +18440,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="3">
         <v>61.66</v>
@@ -18574,7 +18536,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -18670,7 +18632,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="3">
         <v>61.66</v>
@@ -18800,7 +18762,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" s="3">
         <v>76.55</v>
@@ -18896,7 +18858,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="3">
         <v>139.38</v>
@@ -18992,7 +18954,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="3">
         <v>-21.63</v>
@@ -19122,7 +19084,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19158,7 +19120,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -19254,7 +19216,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -19350,7 +19312,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -19453,7 +19415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B128C57-62F1-4E64-931E-7E4F949A4815}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -19482,7 +19444,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -19577,7 +19539,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -19673,7 +19635,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3">
         <v>99.92</v>
@@ -19769,7 +19731,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3">
         <v>7.0000000000000007E-2</v>
@@ -19865,7 +19827,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -19961,7 +19923,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -20057,7 +20019,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -20153,7 +20115,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
@@ -20283,7 +20245,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="3">
         <v>5.95</v>
@@ -20379,7 +20341,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="3">
         <v>0.03</v>
@@ -20475,7 +20437,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3">
         <v>86.1</v>
@@ -20571,7 +20533,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="3">
         <v>92.07</v>
@@ -20667,7 +20629,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3">
         <v>7.93</v>
@@ -20763,7 +20725,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3">
         <v>100</v>
@@ -20893,7 +20855,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -20929,7 +20891,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="3">
         <v>9.34</v>
@@ -21025,7 +20987,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="3">
         <v>76.58</v>
@@ -21217,7 +21179,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="3">
         <v>59.23</v>
@@ -21313,7 +21275,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3">
         <v>252.07</v>
@@ -21409,7 +21371,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="3">
         <v>-16.190000000000001</v>
@@ -21601,7 +21563,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="3">
         <v>45.99</v>
@@ -21697,7 +21659,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -21793,7 +21755,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -21889,7 +21851,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -21985,7 +21947,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -22081,7 +22043,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="3">
         <v>0.27</v>
@@ -22177,7 +22139,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -22307,7 +22269,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -22343,7 +22305,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="5">
         <v>175240000</v>
@@ -22398,7 +22360,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5">
         <v>131000</v>
@@ -22453,7 +22415,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="5">
         <v>7000</v>
@@ -22508,7 +22470,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -22563,7 +22525,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -22618,7 +22580,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="5">
         <v>175378000</v>
@@ -22706,7 +22668,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="5">
         <v>10432000</v>
@@ -22761,7 +22723,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="5">
         <v>55000</v>
@@ -22816,7 +22778,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="5">
         <v>150992000</v>
@@ -22871,7 +22833,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="5">
         <v>161479000</v>
@@ -22926,7 +22888,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="5">
         <v>13899000</v>
@@ -22981,7 +22943,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="5">
         <v>175378000</v>
@@ -23069,7 +23031,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -23104,7 +23066,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" s="5">
         <v>30867000</v>
@@ -23214,7 +23176,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="5">
         <v>160075000</v>
@@ -23269,7 +23231,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="5">
         <v>61000</v>
@@ -23324,7 +23286,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="5">
         <v>4000</v>
@@ -23379,7 +23341,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="5">
         <v>1398000</v>
@@ -23434,7 +23396,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="5">
         <v>6000</v>
@@ -23489,7 +23451,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="5">
         <v>15000000</v>
@@ -23544,7 +23506,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -23599,7 +23561,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="5">
         <v>40000</v>
@@ -23654,7 +23616,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="5">
         <v>332000</v>
@@ -23709,7 +23671,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" s="5">
         <v>40000</v>
@@ -23764,7 +23726,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -23819,7 +23781,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -23874,7 +23836,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -23929,7 +23891,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -23984,7 +23946,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -24072,7 +24034,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -24167,7 +24129,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -24359,7 +24321,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -24455,7 +24417,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3">
         <v>37.03</v>
@@ -24551,7 +24513,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3">
         <v>29.08</v>
@@ -24681,7 +24643,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -24717,7 +24679,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -24753,7 +24715,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3">
         <v>14.18</v>
@@ -24849,7 +24811,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3">
         <v>6.32</v>
@@ -24945,7 +24907,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3">
         <v>54.82</v>
@@ -25041,7 +25003,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3">
         <v>9.56</v>
@@ -25137,7 +25099,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3">
         <v>13.58</v>
@@ -25233,7 +25195,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -25329,7 +25291,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -25425,7 +25387,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3">
         <v>0.6</v>
@@ -25521,7 +25483,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="3">
         <v>0.93</v>
@@ -25617,7 +25579,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -25713,7 +25675,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3">
         <v>100</v>
@@ -25843,7 +25805,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -25879,7 +25841,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -25975,7 +25937,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="3">
         <v>-8.86</v>
@@ -26071,7 +26033,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="3">
         <v>-16.600000000000001</v>
@@ -26167,7 +26129,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="3">
         <v>-98.08</v>
@@ -26263,7 +26225,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="3">
         <v>47.19</v>
@@ -26359,7 +26321,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="3">
         <v>7.3</v>
@@ -26455,7 +26417,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -26585,7 +26547,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="5">
         <v>13140000</v>
@@ -26640,7 +26602,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="5">
         <v>56078000</v>
@@ -26695,7 +26657,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -26750,7 +26712,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -26805,7 +26767,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -26860,7 +26822,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="5">
         <v>55358000</v>
@@ -26915,7 +26877,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37" s="5">
         <v>5421000</v>
@@ -26970,7 +26932,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -27052,7 +27014,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2">
         <v>44926</v>
@@ -27087,7 +27049,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -27117,7 +27079,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -27152,7 +27114,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5">
         <v>136000</v>
@@ -27187,7 +27149,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="5">
         <v>260000</v>
@@ -27222,7 +27184,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -27257,7 +27219,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="5">
         <v>16995000</v>
@@ -27305,7 +27267,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -27320,7 +27282,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -27355,7 +27317,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -27390,7 +27352,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="5">
         <v>876000</v>
@@ -27425,7 +27387,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -27460,7 +27422,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -27495,7 +27457,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="5">
         <v>876000</v>
@@ -27543,7 +27505,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -27558,7 +27520,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" s="5">
         <v>17871000</v>
@@ -27593,7 +27555,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -27628,7 +27590,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -27663,7 +27625,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="5">
         <v>17871000</v>
@@ -27711,7 +27673,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -27726,7 +27688,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -27741,7 +27703,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="5">
         <v>15750200</v>
@@ -27776,7 +27738,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="5">
         <v>4666500</v>
@@ -27811,7 +27773,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="5">
         <v>68948000</v>
@@ -27846,7 +27808,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="5">
         <v>89598200</v>
@@ -27881,7 +27843,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="5">
         <v>53952000</v>
@@ -27929,7 +27891,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -27944,7 +27906,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="5">
         <v>479400</v>
@@ -27979,7 +27941,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="5">
         <v>33500</v>
@@ -28014,7 +27976,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="5">
         <v>21227000</v>
@@ -28049,7 +28011,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="5">
         <v>21741500</v>
@@ -28084,7 +28046,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="5">
         <v>1548000</v>
@@ -28132,7 +28094,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -28147,7 +28109,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B40" s="5">
         <v>111341000</v>
@@ -28182,7 +28144,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -28217,7 +28179,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -28252,7 +28214,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -28287,7 +28249,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="5">
         <v>111341000</v>
@@ -28334,6 +28296,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0DE6589DD34254188178090449037BF" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2563db0a538b14c487eabd6652bcd898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730d41e5-c164-45c3-bb6c-41d9e94615f1" xmlns:ns4="b8b0a607-b9ac-4786-8bb5-b92c3ab51463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="def8795802d7894f1ead6a01262118ab" ns3:_="" ns4:_="">
     <xsd:import namespace="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
@@ -28510,15 +28481,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
   <ds:schemaRefs>
@@ -28537,6 +28499,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87582B45-A2AF-4695-8865-205C9496AE35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28553,12 +28523,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE4EF1-FF0D-4957-9442-C8F4453D3EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AAD02A-644B-460D-9DAA-518386362E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Balance Sheet Percentage" sheetId="5" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="7" r:id="rId4"/>
     <sheet name="Liquidity and Funding" sheetId="8" r:id="rId5"/>
-    <sheet name="Liquidity and Investment" sheetId="9" r:id="rId6"/>
-    <sheet name="Capital Analysis D" sheetId="13" r:id="rId7"/>
+    <sheet name="Liquidity and Funding - Totals" sheetId="15" r:id="rId6"/>
+    <sheet name="Liquidity &amp; Investment" sheetId="9" r:id="rId7"/>
+    <sheet name="Liquidity &amp; Investment - Totals" sheetId="16" r:id="rId8"/>
+    <sheet name="Capital Analysis D" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="287">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -1268,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
@@ -19415,8 +19417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B128C57-62F1-4E64-931E-7E4F949A4815}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22234,1768 +22236,140 @@
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
+    <row r="33" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="5">
-        <v>175240000</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5">
-        <v>190020000</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="5">
-        <v>191285000</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5">
-        <v>147470421</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="5">
-        <v>103194107</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="5">
-        <v>76081804</v>
-      </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="5">
-        <v>62943752</v>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="5">
-        <v>55948589</v>
-      </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="5">
-        <v>49991939</v>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="5">
-        <v>49553926</v>
-      </c>
+    <row r="34" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="5">
-        <v>131000</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5">
-        <v>123000</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="5">
-        <v>137000</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
+    <row r="35" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="5">
-        <v>7000</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="5">
-        <v>9000</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3">
-        <v>0</v>
-      </c>
+    <row r="36" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3">
-        <v>0</v>
-      </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3">
-        <v>0</v>
-      </c>
+    <row r="37" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3">
-        <v>0</v>
-      </c>
+    <row r="38" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="5">
-        <v>175378000</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5">
-        <v>190153000</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="5">
-        <v>191431000</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="5">
-        <v>147470421</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="5">
-        <v>103194107</v>
-      </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="5">
-        <v>76081804</v>
-      </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="5">
-        <v>62943752</v>
-      </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="5">
-        <v>55948589</v>
-      </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="5">
-        <v>49991939</v>
-      </c>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="5">
-        <v>49553926</v>
-      </c>
+    <row r="39" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
+    <row r="40" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="5">
-        <v>10432000</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5">
-        <v>7439000</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="5">
-        <v>7231000</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="5">
-        <v>6319563</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="5">
-        <v>5337447</v>
-      </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="5">
-        <v>3965107</v>
-      </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="5">
-        <v>3998803</v>
-      </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="5">
-        <v>3823339</v>
-      </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="5">
-        <v>3743219</v>
-      </c>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="5">
-        <v>5849019</v>
-      </c>
+    <row r="41" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="5">
-        <v>55000</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="5">
-        <v>56000</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="5">
-        <v>68000</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="5">
-        <v>5201</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="5">
-        <v>6842</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="5">
-        <v>2020</v>
-      </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="5">
-        <v>4439</v>
-      </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="5">
-        <v>2244</v>
-      </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="5">
-        <v>4303</v>
-      </c>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="5">
-        <v>5373</v>
-      </c>
+    <row r="42" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="5">
-        <v>150992000</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5">
-        <v>167462000</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="5">
-        <v>168079000</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="5">
-        <v>128059739</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="5">
-        <v>89423965</v>
-      </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="5">
-        <v>65335217</v>
-      </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="5">
-        <v>52591906</v>
-      </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="5">
-        <v>47247986</v>
-      </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="5">
-        <v>41509132</v>
-      </c>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="5">
-        <v>40056091</v>
-      </c>
+    <row r="43" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="5">
-        <v>161479000</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="5">
-        <v>174957000</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="5">
-        <v>175378000</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="5">
-        <v>134384503</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="5">
-        <v>94768254</v>
-      </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="5">
-        <v>69302344</v>
-      </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="5">
-        <v>56595148</v>
-      </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="5">
-        <v>51073569</v>
-      </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="5">
-        <v>45256654</v>
-      </c>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="5">
-        <v>45910483</v>
-      </c>
+    <row r="44" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="5">
-        <v>13899000</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="5">
-        <v>15196000</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="5">
-        <v>16053000</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="5">
-        <v>13085918</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="5">
-        <v>8425853</v>
-      </c>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="5">
-        <v>6779460</v>
-      </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="5">
-        <v>6348604</v>
-      </c>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="5">
-        <v>4875020</v>
-      </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="5">
-        <v>4735285</v>
-      </c>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="5">
-        <v>3643443</v>
-      </c>
+    <row r="45" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="5">
-        <v>175378000</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="5">
-        <v>190153000</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="5">
-        <v>191431000</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="5">
-        <v>147470421</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="5">
-        <v>103194107</v>
-      </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="5">
-        <v>76081804</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="5">
-        <v>62943752</v>
-      </c>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="5">
-        <v>55948589</v>
-      </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="5">
-        <v>49991939</v>
-      </c>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="5">
-        <v>49553926</v>
-      </c>
+    <row r="46" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
+    <row r="47" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
+    <row r="48" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="5">
-        <v>30867000</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="5">
-        <v>19148000</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="5">
-        <v>16456000</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="5">
-        <v>13148197</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="5">
-        <v>8493246</v>
-      </c>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="5">
-        <v>6993648</v>
-      </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="5">
-        <v>6479604</v>
-      </c>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="5">
-        <v>5010064</v>
-      </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="5">
-        <v>5384153</v>
-      </c>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="5">
-        <v>4080846</v>
-      </c>
+    <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="5">
-        <v>22186000</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="5">
-        <v>6322000</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="5">
-        <v>1745000</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="5">
-        <v>670280</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="5">
-        <v>702800</v>
-      </c>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="5">
-        <v>521985</v>
-      </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="5">
-        <v>195233</v>
-      </c>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="5">
-        <v>176382</v>
-      </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="5">
-        <v>674061</v>
-      </c>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="5">
-        <v>471516</v>
-      </c>
+    <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="5">
-        <v>160075000</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="5">
-        <v>174708000</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="5">
-        <v>175096000</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="5">
-        <v>134356007</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="5">
-        <v>94722320</v>
-      </c>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="5">
-        <v>69241887</v>
-      </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="5">
-        <v>56569328</v>
-      </c>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="5">
-        <v>51052878</v>
-      </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="5">
-        <v>45239580</v>
-      </c>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="5">
-        <v>45891693</v>
-      </c>
+    <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="5">
-        <v>61000</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="5">
-        <v>68000</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="5">
-        <v>91000</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="5">
-        <v>5251</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="5">
-        <v>7020</v>
-      </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="5">
-        <v>8184</v>
-      </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="5">
-        <v>7939</v>
-      </c>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="5">
-        <v>7565</v>
-      </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="5">
-        <v>8459</v>
-      </c>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="5">
-        <v>9101</v>
-      </c>
+    <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <v>104</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3">
-        <v>100</v>
-      </c>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3">
-        <v>101</v>
-      </c>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3">
-        <v>100</v>
-      </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3">
-        <v>0</v>
-      </c>
+    <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1398000</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="5">
-        <v>222000</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="5">
-        <v>263000</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="5">
-        <v>25392</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="5">
-        <v>45934</v>
-      </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="5">
-        <v>59394</v>
-      </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="5">
-        <v>22815</v>
-      </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="5">
-        <v>20690</v>
-      </c>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="5">
-        <v>17074</v>
-      </c>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="5">
-        <v>18791</v>
-      </c>
+    <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="5">
-        <v>27000</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="5">
-        <v>19000</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="5">
-        <v>3104</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="5">
-        <v>1063</v>
-      </c>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="5">
-        <v>3005</v>
-      </c>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3">
-        <v>0</v>
-      </c>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3">
-        <v>0</v>
-      </c>
+    <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="5">
-        <v>15000000</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="5">
-        <v>3500000</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3">
-        <v>0</v>
-      </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3">
-        <v>0</v>
-      </c>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3">
-        <v>0</v>
-      </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="5">
-        <v>300000</v>
-      </c>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="5">
-        <v>400000</v>
-      </c>
+    <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
+    <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="5">
-        <v>40000</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="5">
-        <v>153000</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="5">
-        <v>60000</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="5">
-        <v>33783</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="5">
-        <v>21459</v>
-      </c>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="5">
-        <v>153731</v>
-      </c>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="5">
-        <v>18185</v>
-      </c>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="5">
-        <v>25781</v>
-      </c>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="5">
-        <v>12380</v>
-      </c>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="5">
-        <v>18612</v>
-      </c>
+    <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B59" s="5">
-        <v>332000</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="5">
-        <v>420000</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="5">
-        <v>236000</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="5">
-        <v>214382</v>
-      </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="5">
-        <v>216912</v>
-      </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="5">
-        <v>170743</v>
-      </c>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="5">
-        <v>222825</v>
-      </c>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="5">
-        <v>197014</v>
-      </c>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="5">
-        <v>96956</v>
-      </c>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="5">
-        <v>356796</v>
-      </c>
+    <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60" s="5">
-        <v>40000</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="5">
-        <v>153000</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="5">
-        <v>60000</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="5">
-        <v>33780</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="5">
-        <v>20553</v>
-      </c>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="5">
-        <v>50924</v>
-      </c>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="5">
-        <v>104884</v>
-      </c>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="5">
-        <v>114354</v>
-      </c>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="5">
-        <v>11998</v>
-      </c>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3">
-        <v>0</v>
-      </c>
+    <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
+    <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3">
-        <v>0</v>
-      </c>
+    <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3">
-        <v>0</v>
-      </c>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3">
-        <v>0</v>
-      </c>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3">
-        <v>0</v>
-      </c>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3">
-        <v>0</v>
-      </c>
+    <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3">
-        <v>0</v>
-      </c>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3">
-        <v>0</v>
-      </c>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3">
-        <v>0</v>
-      </c>
+    <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3">
-        <v>0</v>
-      </c>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3">
-        <v>0</v>
-      </c>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3">
-        <v>0</v>
-      </c>
+    <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
@@ -24005,11 +22379,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6798B05-A826-4E4F-83F2-386244C5F47A}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="5">
+        <v>175240000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>190020000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>191285000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>147470421</v>
+      </c>
+      <c r="F3" s="5">
+        <v>103194107</v>
+      </c>
+      <c r="G3" s="5">
+        <v>76081804</v>
+      </c>
+      <c r="H3" s="5">
+        <v>62943752</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55948589</v>
+      </c>
+      <c r="J3" s="5">
+        <v>49991939</v>
+      </c>
+      <c r="K3" s="5">
+        <v>49553926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="5">
+        <v>131000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>123000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>137000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="5">
+        <v>175378000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>190153000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>191431000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>147470421</v>
+      </c>
+      <c r="F8" s="5">
+        <v>103194107</v>
+      </c>
+      <c r="G8" s="5">
+        <v>76081804</v>
+      </c>
+      <c r="H8" s="5">
+        <v>62943752</v>
+      </c>
+      <c r="I8" s="5">
+        <v>55948589</v>
+      </c>
+      <c r="J8" s="5">
+        <v>49991939</v>
+      </c>
+      <c r="K8" s="5">
+        <v>49553926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10432000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7439000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7231000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6319563</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5337447</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3965107</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3998803</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3823339</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3743219</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5849019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="5">
+        <v>55000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>56000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>68000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5201</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6842</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4439</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2244</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4303</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150992000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>167462000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>168079000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>128059739</v>
+      </c>
+      <c r="F12" s="5">
+        <v>89423965</v>
+      </c>
+      <c r="G12" s="5">
+        <v>65335217</v>
+      </c>
+      <c r="H12" s="5">
+        <v>52591906</v>
+      </c>
+      <c r="I12" s="5">
+        <v>47247986</v>
+      </c>
+      <c r="J12" s="5">
+        <v>41509132</v>
+      </c>
+      <c r="K12" s="5">
+        <v>40056091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="5">
+        <v>161479000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>174957000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>175378000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>134384503</v>
+      </c>
+      <c r="F13" s="5">
+        <v>94768254</v>
+      </c>
+      <c r="G13" s="5">
+        <v>69302344</v>
+      </c>
+      <c r="H13" s="5">
+        <v>56595148</v>
+      </c>
+      <c r="I13" s="5">
+        <v>51073569</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45256654</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45910483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13899000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>15196000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16053000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13085918</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8425853</v>
+      </c>
+      <c r="G14" s="5">
+        <v>6779460</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6348604</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4875020</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4735285</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3643443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="5">
+        <v>175378000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>190153000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>191431000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>147470421</v>
+      </c>
+      <c r="F15" s="5">
+        <v>103194107</v>
+      </c>
+      <c r="G15" s="5">
+        <v>76081804</v>
+      </c>
+      <c r="H15" s="5">
+        <v>62943752</v>
+      </c>
+      <c r="I15" s="5">
+        <v>55948589</v>
+      </c>
+      <c r="J15" s="5">
+        <v>49991939</v>
+      </c>
+      <c r="K15" s="5">
+        <v>49553926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="5">
+        <v>30867000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>19148000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>16456000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>13148197</v>
+      </c>
+      <c r="F18" s="5">
+        <v>8493246</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6993648</v>
+      </c>
+      <c r="H18" s="5">
+        <v>6479604</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5010064</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5384153</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4080846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5">
+        <v>22186000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6322000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1745000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>670280</v>
+      </c>
+      <c r="F19" s="5">
+        <v>702800</v>
+      </c>
+      <c r="G19" s="5">
+        <v>521985</v>
+      </c>
+      <c r="H19" s="5">
+        <v>195233</v>
+      </c>
+      <c r="I19" s="5">
+        <v>176382</v>
+      </c>
+      <c r="J19" s="5">
+        <v>674061</v>
+      </c>
+      <c r="K19" s="5">
+        <v>471516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="5">
+        <v>160075000</v>
+      </c>
+      <c r="C20" s="5">
+        <v>174708000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>175096000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>134356007</v>
+      </c>
+      <c r="F20" s="5">
+        <v>94722320</v>
+      </c>
+      <c r="G20" s="5">
+        <v>69241887</v>
+      </c>
+      <c r="H20" s="5">
+        <v>56569328</v>
+      </c>
+      <c r="I20" s="5">
+        <v>51052878</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45239580</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45891693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="5">
+        <v>61000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>68000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>91000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5251</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7020</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8184</v>
+      </c>
+      <c r="H21" s="5">
+        <v>7939</v>
+      </c>
+      <c r="I21" s="5">
+        <v>7565</v>
+      </c>
+      <c r="J21" s="5">
+        <v>8459</v>
+      </c>
+      <c r="K21" s="5">
+        <v>9101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>104</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>101</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1398000</v>
+      </c>
+      <c r="C23" s="5">
+        <v>222000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>263000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>25392</v>
+      </c>
+      <c r="F23" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G23" s="5">
+        <v>59394</v>
+      </c>
+      <c r="H23" s="5">
+        <v>22815</v>
+      </c>
+      <c r="I23" s="5">
+        <v>20690</v>
+      </c>
+      <c r="J23" s="5">
+        <v>17074</v>
+      </c>
+      <c r="K23" s="5">
+        <v>18791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C24" s="5">
+        <v>27000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3104</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1063</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3005</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="5">
+        <v>40000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>153000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>33783</v>
+      </c>
+      <c r="F27" s="5">
+        <v>21459</v>
+      </c>
+      <c r="G27" s="5">
+        <v>153731</v>
+      </c>
+      <c r="H27" s="5">
+        <v>18185</v>
+      </c>
+      <c r="I27" s="5">
+        <v>25781</v>
+      </c>
+      <c r="J27" s="5">
+        <v>12380</v>
+      </c>
+      <c r="K27" s="5">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="5">
+        <v>332000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>420000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>236000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>214382</v>
+      </c>
+      <c r="F28" s="5">
+        <v>216912</v>
+      </c>
+      <c r="G28" s="5">
+        <v>170743</v>
+      </c>
+      <c r="H28" s="5">
+        <v>222825</v>
+      </c>
+      <c r="I28" s="5">
+        <v>197014</v>
+      </c>
+      <c r="J28" s="5">
+        <v>96956</v>
+      </c>
+      <c r="K28" s="5">
+        <v>356796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="5">
+        <v>40000</v>
+      </c>
+      <c r="C29" s="5">
+        <v>153000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>33780</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20553</v>
+      </c>
+      <c r="G29" s="5">
+        <v>50924</v>
+      </c>
+      <c r="H29" s="5">
+        <v>104884</v>
+      </c>
+      <c r="I29" s="5">
+        <v>114354</v>
+      </c>
+      <c r="J29" s="5">
+        <v>11998</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D08D3-32A3-4189-B6EE-4C0616B51C4B}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26512,477 +26016,30 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="5">
-        <v>13140000</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5">
-        <v>13699000</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="5">
-        <v>12091000</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="5">
-        <v>22325119</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="5">
-        <v>16569229</v>
-      </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="5">
-        <v>13224929</v>
-      </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="5">
-        <v>7788572</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="5">
-        <v>10010548</v>
-      </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="5">
-        <v>5495418</v>
-      </c>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="5">
-        <v>4404319</v>
-      </c>
-      <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="5">
-        <v>56078000</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5">
-        <v>56583000</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="5">
-        <v>52598000</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5">
-        <v>54951196</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="5">
-        <v>44056220</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5">
-        <v>33259800</v>
-      </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="5">
-        <v>28119449</v>
-      </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="5">
-        <v>27149133</v>
-      </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="5">
-        <v>21680742</v>
-      </c>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="5">
-        <v>18532327</v>
-      </c>
-      <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="3"/>
+    <row r="33" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="3"/>
+    <row r="34" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="3"/>
+    <row r="35" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="5">
-        <v>55358000</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5">
-        <v>11256000</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="5">
-        <v>4483000</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5">
-        <v>4368496</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="5">
-        <v>4543516</v>
-      </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="5">
-        <v>4623614</v>
-      </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="5">
-        <v>3138965</v>
-      </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="5">
-        <v>2934106</v>
-      </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="5">
-        <v>3564029</v>
-      </c>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="5">
-        <v>3150480</v>
-      </c>
-      <c r="AE36" s="3"/>
+    <row r="36" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="5">
-        <v>5421000</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5">
-        <v>4799000</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="5">
-        <v>4062000</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="5">
-        <v>3639921</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="5">
-        <v>3251281</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="5">
-        <v>2808004</v>
-      </c>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="5">
-        <v>2609279</v>
-      </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="5">
-        <v>2317954</v>
-      </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="5">
-        <v>2181988</v>
-      </c>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="5">
-        <v>2033290</v>
-      </c>
-      <c r="AE37" s="3"/>
+    <row r="37" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="3"/>
+    <row r="38" spans="32:32" x14ac:dyDescent="0.25">
       <c r="AF38" s="3"/>
     </row>
   </sheetData>
@@ -26990,7 +26047,350 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53343440-1FBC-4F62-9B99-0E9929B2993D}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="5">
+        <v>13140000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13699000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12091000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>22325119</v>
+      </c>
+      <c r="F2" s="5">
+        <v>16569229</v>
+      </c>
+      <c r="G2" s="5">
+        <v>13224929</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7788572</v>
+      </c>
+      <c r="I2" s="5">
+        <v>10010548</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5495418</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4404319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="5">
+        <v>56078000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>56583000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>52598000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>54951196</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44056220</v>
+      </c>
+      <c r="G3" s="5">
+        <v>33259800</v>
+      </c>
+      <c r="H3" s="5">
+        <v>28119449</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27149133</v>
+      </c>
+      <c r="J3" s="5">
+        <v>21680742</v>
+      </c>
+      <c r="K3" s="5">
+        <v>18532327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="5">
+        <v>55358000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>11256000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4483000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4368496</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4543516</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4623614</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3138965</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2934106</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3564029</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3150480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5421000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4799000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4062000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3639921</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3251281</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2808004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2609279</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2317954</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2181988</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2033290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0010573-4DD8-439F-8D47-FFA56CA453D2}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -28288,14 +27688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -28304,7 +27696,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0DE6589DD34254188178090449037BF" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2563db0a538b14c487eabd6652bcd898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730d41e5-c164-45c3-bb6c-41d9e94615f1" xmlns:ns4="b8b0a607-b9ac-4786-8bb5-b92c3ab51463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="def8795802d7894f1ead6a01262118ab" ns3:_="" ns4:_="">
     <xsd:import namespace="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
@@ -28481,24 +27873,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -28506,7 +27889,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87582B45-A2AF-4695-8865-205C9496AE35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28523,4 +27906,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Silicon_Valley_bank.xlsx
+++ b/Data/Silicon_Valley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AAD02A-644B-460D-9DAA-518386362E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B29A6CE-5750-4159-9247-2D3A6F1F4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
+    <workbookView xWindow="2730" yWindow="1560" windowWidth="21600" windowHeight="11235" firstSheet="3" activeTab="4" xr2:uid="{DDBEAE7A-8CC1-4420-8B6E-C93B8F279E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
@@ -1270,14 +1270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E36F7-DFAE-4FAB-B3DC-F96F6F65C517}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -19418,7 +19418,7 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22383,7 +22383,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27688,12 +27688,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27874,17 +27873,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="730d41e5-c164-45c3-bb6c-41d9e94615f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27909,18 +27918,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E043BA1-EA7F-477B-AC05-330ACB1062EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66660D5-B745-4F46-8728-B4422705A485}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="730d41e5-c164-45c3-bb6c-41d9e94615f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8b0a607-b9ac-4786-8bb5-b92c3ab51463"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>